--- a/database/industries/shoyande/shepaksa/product/monthly_seprated.xlsx
+++ b/database/industries/shoyande/shepaksa/product/monthly_seprated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\shoyande\shepaksa\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{214DBCDA-5905-41D6-8202-FD4C2B24BADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA002016-F108-4C8E-8B60-9A636D1A6A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="87">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/06</t>
   </si>
   <si>
     <t>ماه 10 منتهی به 1397/07</t>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 10 منتهی به 1401/07</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/08</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -1519,74 +1519,74 @@
       <c r="AE11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF11" s="11" t="s">
-        <v>58</v>
+      <c r="AF11" s="11">
+        <v>1324</v>
       </c>
       <c r="AG11" s="11">
-        <v>1324</v>
+        <v>2059</v>
       </c>
       <c r="AH11" s="11">
-        <v>2059</v>
+        <v>1818</v>
       </c>
       <c r="AI11" s="11">
-        <v>1818</v>
+        <v>1390</v>
       </c>
       <c r="AJ11" s="11">
-        <v>1390</v>
+        <v>1496</v>
       </c>
       <c r="AK11" s="11">
-        <v>1496</v>
+        <v>2416</v>
       </c>
       <c r="AL11" s="11">
-        <v>2416</v>
+        <v>2046</v>
       </c>
       <c r="AM11" s="11">
-        <v>2046</v>
+        <v>1935</v>
       </c>
       <c r="AN11" s="11">
-        <v>1935</v>
+        <v>2030</v>
       </c>
       <c r="AO11" s="11">
-        <v>2030</v>
+        <v>2525</v>
       </c>
       <c r="AP11" s="11">
-        <v>2525</v>
+        <v>3829</v>
       </c>
       <c r="AQ11" s="11">
-        <v>3829</v>
+        <v>4690</v>
       </c>
       <c r="AR11" s="11">
-        <v>4690</v>
+        <v>350</v>
       </c>
       <c r="AS11" s="11">
-        <v>350</v>
+        <v>564</v>
       </c>
       <c r="AT11" s="11">
-        <v>564</v>
+        <v>1330</v>
       </c>
       <c r="AU11" s="11">
-        <v>1330</v>
+        <v>1074</v>
       </c>
       <c r="AV11" s="11">
-        <v>1074</v>
+        <v>1165</v>
       </c>
       <c r="AW11" s="11">
-        <v>1165</v>
+        <v>722</v>
       </c>
       <c r="AX11" s="11">
-        <v>722</v>
+        <v>793</v>
       </c>
       <c r="AY11" s="11">
-        <v>793</v>
+        <v>1897</v>
       </c>
       <c r="AZ11" s="11">
-        <v>1897</v>
+        <v>969</v>
       </c>
       <c r="BA11" s="11">
-        <v>969</v>
+        <v>794</v>
       </c>
       <c r="BB11" s="11">
-        <v>794</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="12" spans="2:54" x14ac:dyDescent="0.3">
@@ -1678,74 +1678,74 @@
       <c r="AE12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF12" s="13" t="s">
-        <v>58</v>
+      <c r="AF12" s="13">
+        <v>3171</v>
       </c>
       <c r="AG12" s="13">
-        <v>3171</v>
+        <v>1807</v>
       </c>
       <c r="AH12" s="13">
-        <v>1807</v>
+        <v>3891</v>
       </c>
       <c r="AI12" s="13">
-        <v>3891</v>
+        <v>2500</v>
       </c>
       <c r="AJ12" s="13">
-        <v>2500</v>
+        <v>2240</v>
       </c>
       <c r="AK12" s="13">
-        <v>2240</v>
+        <v>953</v>
       </c>
       <c r="AL12" s="13">
-        <v>953</v>
+        <v>5806</v>
       </c>
       <c r="AM12" s="13">
-        <v>5806</v>
+        <v>3417</v>
       </c>
       <c r="AN12" s="13">
-        <v>3417</v>
+        <v>4765</v>
       </c>
       <c r="AO12" s="13">
-        <v>4765</v>
+        <v>5343</v>
       </c>
       <c r="AP12" s="13">
-        <v>5343</v>
+        <v>4864</v>
       </c>
       <c r="AQ12" s="13">
-        <v>4864</v>
+        <v>5793</v>
       </c>
       <c r="AR12" s="13">
-        <v>5793</v>
+        <v>1518</v>
       </c>
       <c r="AS12" s="13">
-        <v>1518</v>
+        <v>949</v>
       </c>
       <c r="AT12" s="13">
-        <v>949</v>
+        <v>2964</v>
       </c>
       <c r="AU12" s="13">
-        <v>2964</v>
+        <v>1361</v>
       </c>
       <c r="AV12" s="13">
-        <v>1361</v>
+        <v>2161</v>
       </c>
       <c r="AW12" s="13">
-        <v>2161</v>
+        <v>2324</v>
       </c>
       <c r="AX12" s="13">
-        <v>2324</v>
+        <v>1381</v>
       </c>
       <c r="AY12" s="13">
-        <v>1381</v>
+        <v>1722</v>
       </c>
       <c r="AZ12" s="13">
-        <v>1722</v>
+        <v>3334</v>
       </c>
       <c r="BA12" s="13">
-        <v>3334</v>
+        <v>2308</v>
       </c>
       <c r="BB12" s="13">
-        <v>2308</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.3">
@@ -1837,74 +1837,74 @@
       <c r="AE13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF13" s="11" t="s">
-        <v>58</v>
+      <c r="AF13" s="11">
+        <v>2136</v>
       </c>
       <c r="AG13" s="11">
-        <v>2136</v>
+        <v>2369</v>
       </c>
       <c r="AH13" s="11">
-        <v>2369</v>
+        <v>1960</v>
       </c>
       <c r="AI13" s="11">
-        <v>1960</v>
+        <v>1436</v>
       </c>
       <c r="AJ13" s="11">
-        <v>1436</v>
+        <v>1462</v>
       </c>
       <c r="AK13" s="11">
-        <v>1462</v>
+        <v>1577</v>
       </c>
       <c r="AL13" s="11">
-        <v>1577</v>
+        <v>2373</v>
       </c>
       <c r="AM13" s="11">
-        <v>2373</v>
+        <v>1691</v>
       </c>
       <c r="AN13" s="11">
-        <v>1691</v>
+        <v>2480</v>
       </c>
       <c r="AO13" s="11">
-        <v>2480</v>
+        <v>2456</v>
       </c>
       <c r="AP13" s="11">
-        <v>2456</v>
+        <v>2796</v>
       </c>
       <c r="AQ13" s="11">
-        <v>2796</v>
+        <v>3044</v>
       </c>
       <c r="AR13" s="11">
-        <v>3044</v>
+        <v>798</v>
       </c>
       <c r="AS13" s="11">
-        <v>798</v>
+        <v>1082</v>
       </c>
       <c r="AT13" s="11">
-        <v>1082</v>
+        <v>1610</v>
       </c>
       <c r="AU13" s="11">
-        <v>1610</v>
+        <v>1122</v>
       </c>
       <c r="AV13" s="11">
-        <v>1122</v>
+        <v>904</v>
       </c>
       <c r="AW13" s="11">
-        <v>904</v>
+        <v>1727</v>
       </c>
       <c r="AX13" s="11">
-        <v>1727</v>
+        <v>2075</v>
       </c>
       <c r="AY13" s="11">
-        <v>2075</v>
+        <v>1300</v>
       </c>
       <c r="AZ13" s="11">
-        <v>1300</v>
+        <v>851</v>
       </c>
       <c r="BA13" s="11">
-        <v>851</v>
+        <v>874</v>
       </c>
       <c r="BB13" s="11">
-        <v>874</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
@@ -1995,73 +1995,73 @@
         <v>0</v>
       </c>
       <c r="AF14" s="15">
-        <v>0</v>
+        <v>6631</v>
       </c>
       <c r="AG14" s="15">
-        <v>6631</v>
+        <v>6235</v>
       </c>
       <c r="AH14" s="15">
-        <v>6235</v>
+        <v>7669</v>
       </c>
       <c r="AI14" s="15">
-        <v>7669</v>
+        <v>5326</v>
       </c>
       <c r="AJ14" s="15">
-        <v>5326</v>
+        <v>5198</v>
       </c>
       <c r="AK14" s="15">
-        <v>5198</v>
+        <v>4946</v>
       </c>
       <c r="AL14" s="15">
-        <v>4946</v>
+        <v>10225</v>
       </c>
       <c r="AM14" s="15">
-        <v>10225</v>
+        <v>7043</v>
       </c>
       <c r="AN14" s="15">
-        <v>7043</v>
+        <v>9275</v>
       </c>
       <c r="AO14" s="15">
-        <v>9275</v>
+        <v>10324</v>
       </c>
       <c r="AP14" s="15">
-        <v>10324</v>
+        <v>11489</v>
       </c>
       <c r="AQ14" s="15">
-        <v>11489</v>
+        <v>13527</v>
       </c>
       <c r="AR14" s="15">
-        <v>13527</v>
+        <v>2666</v>
       </c>
       <c r="AS14" s="15">
-        <v>2666</v>
+        <v>2595</v>
       </c>
       <c r="AT14" s="15">
-        <v>2595</v>
+        <v>5904</v>
       </c>
       <c r="AU14" s="15">
-        <v>5904</v>
+        <v>3557</v>
       </c>
       <c r="AV14" s="15">
-        <v>3557</v>
+        <v>4230</v>
       </c>
       <c r="AW14" s="15">
-        <v>4230</v>
+        <v>4773</v>
       </c>
       <c r="AX14" s="15">
-        <v>4773</v>
+        <v>4249</v>
       </c>
       <c r="AY14" s="15">
-        <v>4249</v>
+        <v>4919</v>
       </c>
       <c r="AZ14" s="15">
-        <v>4919</v>
+        <v>5154</v>
       </c>
       <c r="BA14" s="15">
-        <v>5154</v>
+        <v>3976</v>
       </c>
       <c r="BB14" s="15">
-        <v>3976</v>
+        <v>6556</v>
       </c>
     </row>
     <row r="15" spans="2:54" x14ac:dyDescent="0.3">
@@ -2210,74 +2210,74 @@
       <c r="AE16" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF16" s="11" t="s">
-        <v>58</v>
+      <c r="AF16" s="11">
+        <v>263</v>
       </c>
       <c r="AG16" s="11">
-        <v>263</v>
+        <v>501</v>
       </c>
       <c r="AH16" s="11">
-        <v>501</v>
+        <v>731</v>
       </c>
       <c r="AI16" s="11">
-        <v>731</v>
+        <v>432</v>
       </c>
       <c r="AJ16" s="11">
-        <v>432</v>
+        <v>664</v>
       </c>
       <c r="AK16" s="11">
-        <v>664</v>
+        <v>1119</v>
       </c>
       <c r="AL16" s="11">
-        <v>1119</v>
+        <v>671</v>
       </c>
       <c r="AM16" s="11">
-        <v>671</v>
+        <v>406</v>
       </c>
       <c r="AN16" s="11">
-        <v>406</v>
+        <v>1126</v>
       </c>
       <c r="AO16" s="11">
-        <v>1126</v>
+        <v>559</v>
       </c>
       <c r="AP16" s="11">
-        <v>559</v>
+        <v>296</v>
       </c>
       <c r="AQ16" s="11">
-        <v>296</v>
+        <v>933</v>
       </c>
       <c r="AR16" s="11">
-        <v>933</v>
+        <v>445</v>
       </c>
       <c r="AS16" s="11">
+        <v>802</v>
+      </c>
+      <c r="AT16" s="11">
+        <v>1349</v>
+      </c>
+      <c r="AU16" s="11">
+        <v>382</v>
+      </c>
+      <c r="AV16" s="11">
         <v>445</v>
       </c>
-      <c r="AT16" s="11">
-        <v>802</v>
-      </c>
-      <c r="AU16" s="11">
-        <v>1349</v>
-      </c>
-      <c r="AV16" s="11">
-        <v>382</v>
-      </c>
       <c r="AW16" s="11">
-        <v>445</v>
+        <v>492</v>
       </c>
       <c r="AX16" s="11">
-        <v>492</v>
+        <v>531</v>
       </c>
       <c r="AY16" s="11">
-        <v>531</v>
+        <v>628</v>
       </c>
       <c r="AZ16" s="11">
-        <v>628</v>
+        <v>450</v>
       </c>
       <c r="BA16" s="11">
-        <v>450</v>
+        <v>307</v>
       </c>
       <c r="BB16" s="11">
-        <v>307</v>
+        <v>3280</v>
       </c>
     </row>
     <row r="17" spans="2:54" x14ac:dyDescent="0.3">
@@ -2369,74 +2369,74 @@
       <c r="AE17" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF17" s="13" t="s">
-        <v>58</v>
+      <c r="AF17" s="13">
+        <v>1552</v>
       </c>
       <c r="AG17" s="13">
-        <v>1552</v>
+        <v>2935</v>
       </c>
       <c r="AH17" s="13">
-        <v>2935</v>
+        <v>1955</v>
       </c>
       <c r="AI17" s="13">
-        <v>1955</v>
+        <v>1113</v>
       </c>
       <c r="AJ17" s="13">
-        <v>1113</v>
+        <v>1977</v>
       </c>
       <c r="AK17" s="13">
-        <v>1977</v>
+        <v>4279</v>
       </c>
       <c r="AL17" s="13">
-        <v>4279</v>
+        <v>943</v>
       </c>
       <c r="AM17" s="13">
-        <v>943</v>
+        <v>1845</v>
       </c>
       <c r="AN17" s="13">
-        <v>1845</v>
+        <v>2023</v>
       </c>
       <c r="AO17" s="13">
-        <v>2023</v>
+        <v>843</v>
       </c>
       <c r="AP17" s="13">
-        <v>843</v>
+        <v>2601</v>
       </c>
       <c r="AQ17" s="13">
-        <v>2601</v>
+        <v>1792</v>
       </c>
       <c r="AR17" s="13">
-        <v>1792</v>
+        <v>659</v>
       </c>
       <c r="AS17" s="13">
-        <v>659</v>
+        <v>1561</v>
       </c>
       <c r="AT17" s="13">
-        <v>1561</v>
+        <v>2926</v>
       </c>
       <c r="AU17" s="13">
-        <v>2926</v>
+        <v>1941</v>
       </c>
       <c r="AV17" s="13">
-        <v>1941</v>
+        <v>1870</v>
       </c>
       <c r="AW17" s="13">
-        <v>1870</v>
+        <v>3377</v>
       </c>
       <c r="AX17" s="13">
-        <v>3377</v>
+        <v>5412</v>
       </c>
       <c r="AY17" s="13">
-        <v>5412</v>
+        <v>5247</v>
       </c>
       <c r="AZ17" s="13">
-        <v>5247</v>
+        <v>3035</v>
       </c>
       <c r="BA17" s="13">
-        <v>3035</v>
+        <v>3493</v>
       </c>
       <c r="BB17" s="13">
-        <v>3493</v>
+        <v>449</v>
       </c>
     </row>
     <row r="18" spans="2:54" x14ac:dyDescent="0.3">
@@ -2528,8 +2528,8 @@
       <c r="AE18" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF18" s="11" t="s">
-        <v>58</v>
+      <c r="AF18" s="11">
+        <v>0</v>
       </c>
       <c r="AG18" s="11">
         <v>0</v>
@@ -2547,55 +2547,55 @@
         <v>0</v>
       </c>
       <c r="AL18" s="11">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="AM18" s="11">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="AN18" s="11">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AO18" s="11">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AP18" s="11">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="AQ18" s="11">
-        <v>168</v>
+        <v>22</v>
       </c>
       <c r="AR18" s="11">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AS18" s="11">
         <v>0</v>
       </c>
       <c r="AT18" s="11">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="AU18" s="11">
-        <v>147</v>
+        <v>62</v>
       </c>
       <c r="AV18" s="11">
-        <v>62</v>
+        <v>407</v>
       </c>
       <c r="AW18" s="11">
-        <v>407</v>
+        <v>151</v>
       </c>
       <c r="AX18" s="11">
-        <v>151</v>
+        <v>357</v>
       </c>
       <c r="AY18" s="11">
-        <v>357</v>
+        <v>143</v>
       </c>
       <c r="AZ18" s="11">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="BA18" s="11">
         <v>0</v>
       </c>
       <c r="BB18" s="11">
-        <v>0</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="2:54" x14ac:dyDescent="0.3">
@@ -2686,73 +2686,73 @@
         <v>0</v>
       </c>
       <c r="AF19" s="15">
-        <v>0</v>
+        <v>1815</v>
       </c>
       <c r="AG19" s="15">
-        <v>1815</v>
+        <v>3436</v>
       </c>
       <c r="AH19" s="15">
-        <v>3436</v>
+        <v>2686</v>
       </c>
       <c r="AI19" s="15">
-        <v>2686</v>
+        <v>1545</v>
       </c>
       <c r="AJ19" s="15">
-        <v>1545</v>
+        <v>2641</v>
       </c>
       <c r="AK19" s="15">
-        <v>2641</v>
+        <v>5398</v>
       </c>
       <c r="AL19" s="15">
-        <v>5398</v>
+        <v>1745</v>
       </c>
       <c r="AM19" s="15">
-        <v>1745</v>
+        <v>2251</v>
       </c>
       <c r="AN19" s="15">
-        <v>2251</v>
+        <v>3174</v>
       </c>
       <c r="AO19" s="15">
-        <v>3174</v>
+        <v>1402</v>
       </c>
       <c r="AP19" s="15">
-        <v>1402</v>
+        <v>3065</v>
       </c>
       <c r="AQ19" s="15">
-        <v>3065</v>
+        <v>2747</v>
       </c>
       <c r="AR19" s="15">
-        <v>2747</v>
+        <v>1104</v>
       </c>
       <c r="AS19" s="15">
-        <v>1104</v>
+        <v>2363</v>
       </c>
       <c r="AT19" s="15">
-        <v>2363</v>
+        <v>4422</v>
       </c>
       <c r="AU19" s="15">
-        <v>4422</v>
+        <v>2385</v>
       </c>
       <c r="AV19" s="15">
-        <v>2385</v>
+        <v>2722</v>
       </c>
       <c r="AW19" s="15">
-        <v>2722</v>
+        <v>4020</v>
       </c>
       <c r="AX19" s="15">
-        <v>4020</v>
+        <v>6300</v>
       </c>
       <c r="AY19" s="15">
-        <v>6300</v>
+        <v>6018</v>
       </c>
       <c r="AZ19" s="15">
-        <v>6018</v>
+        <v>3485</v>
       </c>
       <c r="BA19" s="15">
-        <v>3485</v>
+        <v>3800</v>
       </c>
       <c r="BB19" s="15">
-        <v>3800</v>
+        <v>3831</v>
       </c>
     </row>
     <row r="20" spans="2:54" x14ac:dyDescent="0.3">
@@ -2901,74 +2901,74 @@
       <c r="AE21" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF21" s="11" t="s">
-        <v>58</v>
+      <c r="AF21" s="11">
+        <v>723</v>
       </c>
       <c r="AG21" s="11">
-        <v>723</v>
+        <v>647</v>
       </c>
       <c r="AH21" s="11">
-        <v>647</v>
+        <v>836</v>
       </c>
       <c r="AI21" s="11">
-        <v>836</v>
+        <v>252</v>
       </c>
       <c r="AJ21" s="11">
-        <v>252</v>
+        <v>752</v>
       </c>
       <c r="AK21" s="11">
-        <v>752</v>
+        <v>563</v>
       </c>
       <c r="AL21" s="11">
-        <v>563</v>
+        <v>482</v>
       </c>
       <c r="AM21" s="11">
-        <v>482</v>
+        <v>556</v>
       </c>
       <c r="AN21" s="11">
-        <v>556</v>
+        <v>575</v>
       </c>
       <c r="AO21" s="11">
-        <v>575</v>
+        <v>420</v>
       </c>
       <c r="AP21" s="11">
-        <v>420</v>
+        <v>160</v>
       </c>
       <c r="AQ21" s="11">
-        <v>160</v>
+        <v>636</v>
       </c>
       <c r="AR21" s="11">
-        <v>636</v>
+        <v>529</v>
       </c>
       <c r="AS21" s="11">
-        <v>529</v>
+        <v>159</v>
       </c>
       <c r="AT21" s="11">
         <v>159</v>
       </c>
       <c r="AU21" s="11">
-        <v>159</v>
+        <v>77</v>
       </c>
       <c r="AV21" s="11">
-        <v>77</v>
+        <v>214</v>
       </c>
       <c r="AW21" s="11">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="AX21" s="11">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="AY21" s="11">
-        <v>244</v>
+        <v>156</v>
       </c>
       <c r="AZ21" s="11">
-        <v>156</v>
+        <v>208</v>
       </c>
       <c r="BA21" s="11">
-        <v>208</v>
+        <v>273</v>
       </c>
       <c r="BB21" s="11">
-        <v>273</v>
+        <v>297</v>
       </c>
     </row>
     <row r="22" spans="2:54" x14ac:dyDescent="0.3">
@@ -3058,8 +3058,8 @@
       <c r="AE22" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AF22" s="15" t="s">
-        <v>58</v>
+      <c r="AF22" s="15">
+        <v>0</v>
       </c>
       <c r="AG22" s="15">
         <v>0</v>
@@ -3216,73 +3216,73 @@
         <v>0</v>
       </c>
       <c r="AF23" s="17">
-        <v>0</v>
+        <v>9169</v>
       </c>
       <c r="AG23" s="17">
-        <v>9169</v>
+        <v>10318</v>
       </c>
       <c r="AH23" s="17">
-        <v>10318</v>
+        <v>11191</v>
       </c>
       <c r="AI23" s="17">
-        <v>11191</v>
+        <v>7123</v>
       </c>
       <c r="AJ23" s="17">
-        <v>7123</v>
+        <v>8591</v>
       </c>
       <c r="AK23" s="17">
-        <v>8591</v>
+        <v>10907</v>
       </c>
       <c r="AL23" s="17">
-        <v>10907</v>
+        <v>12452</v>
       </c>
       <c r="AM23" s="17">
-        <v>12452</v>
+        <v>9850</v>
       </c>
       <c r="AN23" s="17">
-        <v>9850</v>
+        <v>13024</v>
       </c>
       <c r="AO23" s="17">
-        <v>13024</v>
+        <v>12146</v>
       </c>
       <c r="AP23" s="17">
-        <v>12146</v>
+        <v>14714</v>
       </c>
       <c r="AQ23" s="17">
-        <v>14714</v>
+        <v>16910</v>
       </c>
       <c r="AR23" s="17">
-        <v>16910</v>
+        <v>4299</v>
       </c>
       <c r="AS23" s="17">
-        <v>4299</v>
+        <v>5117</v>
       </c>
       <c r="AT23" s="17">
-        <v>5117</v>
+        <v>10485</v>
       </c>
       <c r="AU23" s="17">
-        <v>10485</v>
+        <v>6019</v>
       </c>
       <c r="AV23" s="17">
-        <v>6019</v>
+        <v>7166</v>
       </c>
       <c r="AW23" s="17">
-        <v>7166</v>
+        <v>9019</v>
       </c>
       <c r="AX23" s="17">
-        <v>9019</v>
+        <v>10793</v>
       </c>
       <c r="AY23" s="17">
-        <v>10793</v>
+        <v>11093</v>
       </c>
       <c r="AZ23" s="17">
-        <v>11093</v>
+        <v>8847</v>
       </c>
       <c r="BA23" s="17">
-        <v>8847</v>
+        <v>8049</v>
       </c>
       <c r="BB23" s="17">
-        <v>8049</v>
+        <v>10684</v>
       </c>
     </row>
     <row r="24" spans="2:54" x14ac:dyDescent="0.3">
@@ -3808,74 +3808,74 @@
       <c r="AE30" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF30" s="11" t="s">
-        <v>58</v>
+      <c r="AF30" s="11">
+        <v>1727</v>
       </c>
       <c r="AG30" s="11">
-        <v>1727</v>
+        <v>2472</v>
       </c>
       <c r="AH30" s="11">
-        <v>2472</v>
+        <v>2251</v>
       </c>
       <c r="AI30" s="11">
-        <v>2251</v>
+        <v>1339</v>
       </c>
       <c r="AJ30" s="11">
-        <v>1339</v>
+        <v>1656</v>
       </c>
       <c r="AK30" s="11">
-        <v>1656</v>
+        <v>2355</v>
       </c>
       <c r="AL30" s="11">
-        <v>2355</v>
+        <v>1908</v>
       </c>
       <c r="AM30" s="11">
-        <v>1908</v>
+        <v>1810</v>
       </c>
       <c r="AN30" s="11">
-        <v>1810</v>
+        <v>2460</v>
       </c>
       <c r="AO30" s="11">
-        <v>2460</v>
+        <v>2601</v>
       </c>
       <c r="AP30" s="11">
-        <v>2601</v>
+        <v>3314</v>
       </c>
       <c r="AQ30" s="11">
-        <v>3314</v>
+        <v>3344</v>
       </c>
       <c r="AR30" s="11">
-        <v>3344</v>
+        <v>593</v>
       </c>
       <c r="AS30" s="11">
-        <v>593</v>
+        <v>1091</v>
       </c>
       <c r="AT30" s="11">
-        <v>1091</v>
+        <v>1822</v>
       </c>
       <c r="AU30" s="11">
-        <v>1822</v>
+        <v>1095</v>
       </c>
       <c r="AV30" s="11">
-        <v>1095</v>
+        <v>1177</v>
       </c>
       <c r="AW30" s="11">
-        <v>1177</v>
+        <v>538</v>
       </c>
       <c r="AX30" s="11">
-        <v>538</v>
+        <v>840</v>
       </c>
       <c r="AY30" s="11">
-        <v>840</v>
+        <v>1992</v>
       </c>
       <c r="AZ30" s="11">
-        <v>1992</v>
+        <v>988</v>
       </c>
       <c r="BA30" s="11">
-        <v>988</v>
+        <v>906</v>
       </c>
       <c r="BB30" s="11">
-        <v>906</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="31" spans="2:54" x14ac:dyDescent="0.3">
@@ -3967,74 +3967,74 @@
       <c r="AE31" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF31" s="13" t="s">
-        <v>58</v>
+      <c r="AF31" s="13">
+        <v>1386</v>
       </c>
       <c r="AG31" s="13">
-        <v>1386</v>
+        <v>3294</v>
       </c>
       <c r="AH31" s="13">
-        <v>3294</v>
+        <v>4941</v>
       </c>
       <c r="AI31" s="13">
-        <v>4941</v>
+        <v>487</v>
       </c>
       <c r="AJ31" s="13">
-        <v>487</v>
+        <v>3581</v>
       </c>
       <c r="AK31" s="13">
-        <v>3581</v>
+        <v>1491</v>
       </c>
       <c r="AL31" s="13">
-        <v>1491</v>
+        <v>3865</v>
       </c>
       <c r="AM31" s="13">
-        <v>3865</v>
+        <v>4003</v>
       </c>
       <c r="AN31" s="13">
-        <v>4003</v>
+        <v>4739</v>
       </c>
       <c r="AO31" s="13">
-        <v>4739</v>
+        <v>5171</v>
       </c>
       <c r="AP31" s="13">
-        <v>5171</v>
+        <v>4823</v>
       </c>
       <c r="AQ31" s="13">
-        <v>4823</v>
+        <v>5251</v>
       </c>
       <c r="AR31" s="13">
-        <v>5251</v>
+        <v>663</v>
       </c>
       <c r="AS31" s="13">
-        <v>663</v>
+        <v>2187</v>
       </c>
       <c r="AT31" s="13">
-        <v>2187</v>
+        <v>2894</v>
       </c>
       <c r="AU31" s="13">
-        <v>2894</v>
+        <v>2125</v>
       </c>
       <c r="AV31" s="13">
-        <v>2125</v>
+        <v>3550</v>
       </c>
       <c r="AW31" s="13">
-        <v>3550</v>
+        <v>1556</v>
       </c>
       <c r="AX31" s="13">
-        <v>1556</v>
+        <v>1721</v>
       </c>
       <c r="AY31" s="13">
-        <v>1721</v>
+        <v>1703</v>
       </c>
       <c r="AZ31" s="13">
-        <v>1703</v>
+        <v>2730</v>
       </c>
       <c r="BA31" s="13">
-        <v>2730</v>
+        <v>2886</v>
       </c>
       <c r="BB31" s="13">
-        <v>2886</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="32" spans="2:54" x14ac:dyDescent="0.3">
@@ -4126,74 +4126,74 @@
       <c r="AE32" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF32" s="11" t="s">
-        <v>58</v>
+      <c r="AF32" s="11">
+        <v>1292</v>
       </c>
       <c r="AG32" s="11">
-        <v>1292</v>
+        <v>2194</v>
       </c>
       <c r="AH32" s="11">
-        <v>2194</v>
+        <v>2850</v>
       </c>
       <c r="AI32" s="11">
-        <v>2850</v>
+        <v>687</v>
       </c>
       <c r="AJ32" s="11">
-        <v>687</v>
+        <v>1496</v>
       </c>
       <c r="AK32" s="11">
-        <v>1496</v>
+        <v>2043</v>
       </c>
       <c r="AL32" s="11">
-        <v>2043</v>
+        <v>2109</v>
       </c>
       <c r="AM32" s="11">
-        <v>2109</v>
+        <v>1625</v>
       </c>
       <c r="AN32" s="11">
-        <v>1625</v>
+        <v>2766</v>
       </c>
       <c r="AO32" s="11">
-        <v>2766</v>
+        <v>2382</v>
       </c>
       <c r="AP32" s="11">
-        <v>2382</v>
+        <v>2626</v>
       </c>
       <c r="AQ32" s="11">
-        <v>2626</v>
+        <v>2314</v>
       </c>
       <c r="AR32" s="11">
-        <v>2314</v>
+        <v>949</v>
       </c>
       <c r="AS32" s="11">
-        <v>949</v>
+        <v>757</v>
       </c>
       <c r="AT32" s="11">
-        <v>757</v>
+        <v>1747</v>
       </c>
       <c r="AU32" s="11">
-        <v>1747</v>
+        <v>1036</v>
       </c>
       <c r="AV32" s="11">
-        <v>1036</v>
+        <v>1932</v>
       </c>
       <c r="AW32" s="11">
-        <v>1932</v>
+        <v>781</v>
       </c>
       <c r="AX32" s="11">
-        <v>781</v>
+        <v>1982</v>
       </c>
       <c r="AY32" s="11">
-        <v>1982</v>
+        <v>1551</v>
       </c>
       <c r="AZ32" s="11">
-        <v>1551</v>
+        <v>808</v>
       </c>
       <c r="BA32" s="11">
-        <v>808</v>
+        <v>1234</v>
       </c>
       <c r="BB32" s="11">
-        <v>1234</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="33" spans="2:54" x14ac:dyDescent="0.3">
@@ -4284,73 +4284,73 @@
         <v>0</v>
       </c>
       <c r="AF33" s="15">
-        <v>0</v>
+        <v>4405</v>
       </c>
       <c r="AG33" s="15">
-        <v>4405</v>
+        <v>7960</v>
       </c>
       <c r="AH33" s="15">
-        <v>7960</v>
+        <v>10042</v>
       </c>
       <c r="AI33" s="15">
-        <v>10042</v>
+        <v>2513</v>
       </c>
       <c r="AJ33" s="15">
-        <v>2513</v>
+        <v>6733</v>
       </c>
       <c r="AK33" s="15">
-        <v>6733</v>
+        <v>5889</v>
       </c>
       <c r="AL33" s="15">
-        <v>5889</v>
+        <v>7882</v>
       </c>
       <c r="AM33" s="15">
-        <v>7882</v>
+        <v>7438</v>
       </c>
       <c r="AN33" s="15">
-        <v>7438</v>
+        <v>9965</v>
       </c>
       <c r="AO33" s="15">
-        <v>9965</v>
+        <v>10154</v>
       </c>
       <c r="AP33" s="15">
-        <v>10154</v>
+        <v>10763</v>
       </c>
       <c r="AQ33" s="15">
-        <v>10763</v>
+        <v>10909</v>
       </c>
       <c r="AR33" s="15">
-        <v>10909</v>
+        <v>2205</v>
       </c>
       <c r="AS33" s="15">
-        <v>2205</v>
+        <v>4035</v>
       </c>
       <c r="AT33" s="15">
-        <v>4035</v>
+        <v>6463</v>
       </c>
       <c r="AU33" s="15">
-        <v>6463</v>
+        <v>4256</v>
       </c>
       <c r="AV33" s="15">
-        <v>4256</v>
+        <v>6659</v>
       </c>
       <c r="AW33" s="15">
-        <v>6659</v>
+        <v>2875</v>
       </c>
       <c r="AX33" s="15">
-        <v>2875</v>
+        <v>4543</v>
       </c>
       <c r="AY33" s="15">
-        <v>4543</v>
+        <v>5246</v>
       </c>
       <c r="AZ33" s="15">
-        <v>5246</v>
+        <v>4526</v>
       </c>
       <c r="BA33" s="15">
-        <v>4526</v>
+        <v>5026</v>
       </c>
       <c r="BB33" s="15">
-        <v>5026</v>
+        <v>6416</v>
       </c>
     </row>
     <row r="34" spans="2:54" x14ac:dyDescent="0.3">
@@ -4499,74 +4499,74 @@
       <c r="AE35" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF35" s="11" t="s">
-        <v>58</v>
+      <c r="AF35" s="11">
+        <v>208</v>
       </c>
       <c r="AG35" s="11">
-        <v>208</v>
+        <v>320</v>
       </c>
       <c r="AH35" s="11">
-        <v>320</v>
+        <v>790</v>
       </c>
       <c r="AI35" s="11">
-        <v>790</v>
+        <v>324</v>
       </c>
       <c r="AJ35" s="11">
-        <v>324</v>
+        <v>762</v>
       </c>
       <c r="AK35" s="11">
-        <v>762</v>
+        <v>1197</v>
       </c>
       <c r="AL35" s="11">
-        <v>1197</v>
+        <v>652</v>
       </c>
       <c r="AM35" s="11">
-        <v>652</v>
+        <v>493</v>
       </c>
       <c r="AN35" s="11">
-        <v>493</v>
+        <v>792</v>
       </c>
       <c r="AO35" s="11">
-        <v>792</v>
+        <v>608</v>
       </c>
       <c r="AP35" s="11">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="AQ35" s="11">
-        <v>597</v>
+        <v>907</v>
       </c>
       <c r="AR35" s="11">
-        <v>907</v>
+        <v>487</v>
       </c>
       <c r="AS35" s="11">
-        <v>487</v>
+        <v>657</v>
       </c>
       <c r="AT35" s="11">
-        <v>657</v>
+        <v>1477</v>
       </c>
       <c r="AU35" s="11">
-        <v>1477</v>
+        <v>301</v>
       </c>
       <c r="AV35" s="11">
-        <v>301</v>
+        <v>531</v>
       </c>
       <c r="AW35" s="11">
-        <v>531</v>
+        <v>302</v>
       </c>
       <c r="AX35" s="11">
-        <v>302</v>
+        <v>609</v>
       </c>
       <c r="AY35" s="11">
-        <v>609</v>
+        <v>588</v>
       </c>
       <c r="AZ35" s="11">
-        <v>588</v>
+        <v>424</v>
       </c>
       <c r="BA35" s="11">
-        <v>424</v>
+        <v>268</v>
       </c>
       <c r="BB35" s="11">
-        <v>268</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="36" spans="2:54" x14ac:dyDescent="0.3">
@@ -4658,74 +4658,74 @@
       <c r="AE36" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF36" s="13" t="s">
-        <v>58</v>
+      <c r="AF36" s="13">
+        <v>1158</v>
       </c>
       <c r="AG36" s="13">
-        <v>1158</v>
+        <v>2150</v>
       </c>
       <c r="AH36" s="13">
-        <v>2150</v>
+        <v>2074</v>
       </c>
       <c r="AI36" s="13">
-        <v>2074</v>
+        <v>1164</v>
       </c>
       <c r="AJ36" s="13">
-        <v>1164</v>
+        <v>2275</v>
       </c>
       <c r="AK36" s="13">
-        <v>2275</v>
+        <v>2933</v>
       </c>
       <c r="AL36" s="13">
-        <v>2933</v>
+        <v>1867</v>
       </c>
       <c r="AM36" s="13">
-        <v>1867</v>
+        <v>1201</v>
       </c>
       <c r="AN36" s="13">
-        <v>1201</v>
+        <v>2698</v>
       </c>
       <c r="AO36" s="13">
-        <v>2698</v>
+        <v>1422</v>
       </c>
       <c r="AP36" s="13">
-        <v>1422</v>
+        <v>2284</v>
       </c>
       <c r="AQ36" s="13">
-        <v>2284</v>
+        <v>2922</v>
       </c>
       <c r="AR36" s="13">
-        <v>2922</v>
+        <v>171</v>
       </c>
       <c r="AS36" s="13">
-        <v>171</v>
+        <v>1270</v>
       </c>
       <c r="AT36" s="13">
-        <v>1270</v>
+        <v>2211</v>
       </c>
       <c r="AU36" s="13">
-        <v>2211</v>
+        <v>2248</v>
       </c>
       <c r="AV36" s="13">
-        <v>2248</v>
+        <v>2181</v>
       </c>
       <c r="AW36" s="13">
-        <v>2181</v>
+        <v>2998</v>
       </c>
       <c r="AX36" s="13">
-        <v>2998</v>
+        <v>4842</v>
       </c>
       <c r="AY36" s="13">
-        <v>4842</v>
+        <v>5153</v>
       </c>
       <c r="AZ36" s="13">
-        <v>5153</v>
+        <v>4123</v>
       </c>
       <c r="BA36" s="13">
-        <v>4123</v>
+        <v>2892</v>
       </c>
       <c r="BB36" s="13">
-        <v>2892</v>
+        <v>230</v>
       </c>
     </row>
     <row r="37" spans="2:54" x14ac:dyDescent="0.3">
@@ -4817,74 +4817,74 @@
       <c r="AE37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF37" s="11" t="s">
-        <v>58</v>
+      <c r="AF37" s="11">
+        <v>0</v>
       </c>
       <c r="AG37" s="11">
         <v>0</v>
       </c>
       <c r="AH37" s="11">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AI37" s="11">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AJ37" s="11">
         <v>0</v>
       </c>
       <c r="AK37" s="11">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AL37" s="11">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AM37" s="11">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="AN37" s="11">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="AO37" s="11">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="AP37" s="11">
-        <v>52</v>
+        <v>133</v>
       </c>
       <c r="AQ37" s="11">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="AR37" s="11">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="AS37" s="11">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AT37" s="11">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="AU37" s="11">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="AV37" s="11">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="AW37" s="11">
-        <v>26</v>
+        <v>228</v>
       </c>
       <c r="AX37" s="11">
-        <v>228</v>
+        <v>400</v>
       </c>
       <c r="AY37" s="11">
-        <v>400</v>
+        <v>201</v>
       </c>
       <c r="AZ37" s="11">
-        <v>201</v>
+        <v>42</v>
       </c>
       <c r="BA37" s="11">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="BB37" s="11">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="2:54" x14ac:dyDescent="0.3">
@@ -4975,73 +4975,73 @@
         <v>0</v>
       </c>
       <c r="AF38" s="15">
-        <v>0</v>
+        <v>1366</v>
       </c>
       <c r="AG38" s="15">
-        <v>1366</v>
+        <v>2470</v>
       </c>
       <c r="AH38" s="15">
-        <v>2470</v>
+        <v>2887</v>
       </c>
       <c r="AI38" s="15">
-        <v>2887</v>
+        <v>1488</v>
       </c>
       <c r="AJ38" s="15">
-        <v>1488</v>
+        <v>3037</v>
       </c>
       <c r="AK38" s="15">
-        <v>3037</v>
+        <v>4148</v>
       </c>
       <c r="AL38" s="15">
-        <v>4148</v>
+        <v>2519</v>
       </c>
       <c r="AM38" s="15">
-        <v>2519</v>
+        <v>1768</v>
       </c>
       <c r="AN38" s="15">
-        <v>1768</v>
+        <v>3519</v>
       </c>
       <c r="AO38" s="15">
-        <v>3519</v>
+        <v>2082</v>
       </c>
       <c r="AP38" s="15">
-        <v>2082</v>
+        <v>3014</v>
       </c>
       <c r="AQ38" s="15">
-        <v>3014</v>
+        <v>3992</v>
       </c>
       <c r="AR38" s="15">
-        <v>3992</v>
+        <v>658</v>
       </c>
       <c r="AS38" s="15">
-        <v>658</v>
+        <v>1987</v>
       </c>
       <c r="AT38" s="15">
-        <v>1987</v>
+        <v>3868</v>
       </c>
       <c r="AU38" s="15">
-        <v>3868</v>
+        <v>2639</v>
       </c>
       <c r="AV38" s="15">
-        <v>2639</v>
+        <v>2738</v>
       </c>
       <c r="AW38" s="15">
-        <v>2738</v>
+        <v>3528</v>
       </c>
       <c r="AX38" s="15">
-        <v>3528</v>
+        <v>5851</v>
       </c>
       <c r="AY38" s="15">
-        <v>5851</v>
+        <v>5942</v>
       </c>
       <c r="AZ38" s="15">
-        <v>5942</v>
+        <v>4589</v>
       </c>
       <c r="BA38" s="15">
-        <v>4589</v>
+        <v>3170</v>
       </c>
       <c r="BB38" s="15">
-        <v>3170</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="39" spans="2:54" x14ac:dyDescent="0.3">
@@ -5190,74 +5190,74 @@
       <c r="AE40" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF40" s="11" t="s">
-        <v>58</v>
+      <c r="AF40" s="11">
+        <v>722</v>
       </c>
       <c r="AG40" s="11">
-        <v>722</v>
+        <v>647</v>
       </c>
       <c r="AH40" s="11">
-        <v>647</v>
+        <v>836</v>
       </c>
       <c r="AI40" s="11">
-        <v>836</v>
+        <v>252</v>
       </c>
       <c r="AJ40" s="11">
-        <v>252</v>
+        <v>752</v>
       </c>
       <c r="AK40" s="11">
-        <v>752</v>
+        <v>553</v>
       </c>
       <c r="AL40" s="11">
-        <v>553</v>
+        <v>401</v>
       </c>
       <c r="AM40" s="11">
-        <v>401</v>
+        <v>503</v>
       </c>
       <c r="AN40" s="11">
-        <v>503</v>
+        <v>575</v>
       </c>
       <c r="AO40" s="11">
-        <v>575</v>
+        <v>352</v>
       </c>
       <c r="AP40" s="11">
-        <v>352</v>
+        <v>103</v>
       </c>
       <c r="AQ40" s="11">
-        <v>103</v>
+        <v>904</v>
       </c>
       <c r="AR40" s="11">
-        <v>904</v>
+        <v>529</v>
       </c>
       <c r="AS40" s="11">
-        <v>529</v>
+        <v>158</v>
       </c>
       <c r="AT40" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AU40" s="11">
-        <v>159</v>
+        <v>78</v>
       </c>
       <c r="AV40" s="11">
-        <v>78</v>
+        <v>214</v>
       </c>
       <c r="AW40" s="11">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="AX40" s="11">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="AY40" s="11">
-        <v>244</v>
+        <v>156</v>
       </c>
       <c r="AZ40" s="11">
-        <v>156</v>
+        <v>208</v>
       </c>
       <c r="BA40" s="11">
-        <v>208</v>
+        <v>273</v>
       </c>
       <c r="BB40" s="11">
-        <v>273</v>
+        <v>297</v>
       </c>
     </row>
     <row r="41" spans="2:54" x14ac:dyDescent="0.3">
@@ -5347,74 +5347,74 @@
       <c r="AE41" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AF41" s="15" t="s">
-        <v>58</v>
+      <c r="AF41" s="15">
+        <v>722</v>
       </c>
       <c r="AG41" s="15">
-        <v>722</v>
+        <v>647</v>
       </c>
       <c r="AH41" s="15">
-        <v>647</v>
+        <v>836</v>
       </c>
       <c r="AI41" s="15">
-        <v>836</v>
+        <v>252</v>
       </c>
       <c r="AJ41" s="15">
-        <v>252</v>
+        <v>752</v>
       </c>
       <c r="AK41" s="15">
-        <v>752</v>
+        <v>553</v>
       </c>
       <c r="AL41" s="15">
-        <v>553</v>
+        <v>401</v>
       </c>
       <c r="AM41" s="15">
-        <v>401</v>
+        <v>503</v>
       </c>
       <c r="AN41" s="15">
-        <v>503</v>
+        <v>575</v>
       </c>
       <c r="AO41" s="15">
-        <v>575</v>
+        <v>352</v>
       </c>
       <c r="AP41" s="15">
-        <v>352</v>
+        <v>103</v>
       </c>
       <c r="AQ41" s="15">
-        <v>103</v>
+        <v>904</v>
       </c>
       <c r="AR41" s="15">
-        <v>904</v>
+        <v>529</v>
       </c>
       <c r="AS41" s="15">
-        <v>529</v>
+        <v>158</v>
       </c>
       <c r="AT41" s="15">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AU41" s="15">
-        <v>159</v>
+        <v>78</v>
       </c>
       <c r="AV41" s="15">
-        <v>78</v>
+        <v>214</v>
       </c>
       <c r="AW41" s="15">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="AX41" s="15">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="AY41" s="15">
-        <v>244</v>
+        <v>156</v>
       </c>
       <c r="AZ41" s="15">
-        <v>156</v>
+        <v>208</v>
       </c>
       <c r="BA41" s="15">
-        <v>208</v>
+        <v>273</v>
       </c>
       <c r="BB41" s="15">
-        <v>273</v>
+        <v>297</v>
       </c>
     </row>
     <row r="42" spans="2:54" x14ac:dyDescent="0.3">
@@ -5561,8 +5561,8 @@
       <c r="AE43" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="AF43" s="17" t="s">
-        <v>58</v>
+      <c r="AF43" s="17">
+        <v>0</v>
       </c>
       <c r="AG43" s="17">
         <v>0</v>
@@ -5719,73 +5719,73 @@
         <v>0</v>
       </c>
       <c r="AF44" s="15">
-        <v>0</v>
+        <v>6493</v>
       </c>
       <c r="AG44" s="15">
-        <v>6493</v>
+        <v>11077</v>
       </c>
       <c r="AH44" s="15">
-        <v>11077</v>
+        <v>13765</v>
       </c>
       <c r="AI44" s="15">
-        <v>13765</v>
+        <v>4253</v>
       </c>
       <c r="AJ44" s="15">
-        <v>4253</v>
+        <v>10522</v>
       </c>
       <c r="AK44" s="15">
-        <v>10522</v>
+        <v>10590</v>
       </c>
       <c r="AL44" s="15">
-        <v>10590</v>
+        <v>10802</v>
       </c>
       <c r="AM44" s="15">
-        <v>10802</v>
+        <v>9709</v>
       </c>
       <c r="AN44" s="15">
-        <v>9709</v>
+        <v>14059</v>
       </c>
       <c r="AO44" s="15">
-        <v>14059</v>
+        <v>12588</v>
       </c>
       <c r="AP44" s="15">
-        <v>12588</v>
+        <v>13880</v>
       </c>
       <c r="AQ44" s="15">
-        <v>13880</v>
+        <v>15805</v>
       </c>
       <c r="AR44" s="15">
-        <v>15805</v>
+        <v>3392</v>
       </c>
       <c r="AS44" s="15">
-        <v>3392</v>
+        <v>6180</v>
       </c>
       <c r="AT44" s="15">
-        <v>6180</v>
+        <v>10490</v>
       </c>
       <c r="AU44" s="15">
-        <v>10490</v>
+        <v>6973</v>
       </c>
       <c r="AV44" s="15">
-        <v>6973</v>
+        <v>9611</v>
       </c>
       <c r="AW44" s="15">
-        <v>9611</v>
+        <v>6629</v>
       </c>
       <c r="AX44" s="15">
-        <v>6629</v>
+        <v>10638</v>
       </c>
       <c r="AY44" s="15">
-        <v>10638</v>
+        <v>11344</v>
       </c>
       <c r="AZ44" s="15">
-        <v>11344</v>
+        <v>9323</v>
       </c>
       <c r="BA44" s="15">
-        <v>9323</v>
+        <v>8469</v>
       </c>
       <c r="BB44" s="15">
-        <v>8469</v>
+        <v>9622</v>
       </c>
     </row>
     <row r="45" spans="2:54" x14ac:dyDescent="0.3">
@@ -6311,74 +6311,74 @@
       <c r="AE51" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF51" s="11" t="s">
-        <v>58</v>
+      <c r="AF51" s="11">
+        <v>426507</v>
       </c>
       <c r="AG51" s="11">
-        <v>426507</v>
+        <v>563643</v>
       </c>
       <c r="AH51" s="11">
-        <v>563643</v>
+        <v>502592</v>
       </c>
       <c r="AI51" s="11">
-        <v>502592</v>
+        <v>341708</v>
       </c>
       <c r="AJ51" s="11">
-        <v>341708</v>
+        <v>424014</v>
       </c>
       <c r="AK51" s="11">
-        <v>424014</v>
+        <v>609518</v>
       </c>
       <c r="AL51" s="11">
-        <v>609518</v>
+        <v>524669</v>
       </c>
       <c r="AM51" s="11">
-        <v>524669</v>
+        <v>508142</v>
       </c>
       <c r="AN51" s="11">
-        <v>508142</v>
+        <v>726672</v>
       </c>
       <c r="AO51" s="11">
-        <v>726672</v>
+        <v>796612</v>
       </c>
       <c r="AP51" s="11">
-        <v>796612</v>
+        <v>1030432</v>
       </c>
       <c r="AQ51" s="11">
-        <v>1030432</v>
+        <v>978855</v>
       </c>
       <c r="AR51" s="11">
-        <v>978855</v>
+        <v>179053</v>
       </c>
       <c r="AS51" s="11">
-        <v>179053</v>
+        <v>362784</v>
       </c>
       <c r="AT51" s="11">
-        <v>362784</v>
+        <v>571523</v>
       </c>
       <c r="AU51" s="11">
-        <v>571523</v>
+        <v>379531</v>
       </c>
       <c r="AV51" s="11">
-        <v>379531</v>
+        <v>435023</v>
       </c>
       <c r="AW51" s="11">
-        <v>435023</v>
+        <v>277967</v>
       </c>
       <c r="AX51" s="11">
-        <v>277967</v>
+        <v>391824</v>
       </c>
       <c r="AY51" s="11">
-        <v>391824</v>
+        <v>879783</v>
       </c>
       <c r="AZ51" s="11">
-        <v>879783</v>
+        <v>470894</v>
       </c>
       <c r="BA51" s="11">
-        <v>470894</v>
+        <v>398872</v>
       </c>
       <c r="BB51" s="11">
-        <v>398872</v>
+        <v>610408</v>
       </c>
     </row>
     <row r="52" spans="2:54" x14ac:dyDescent="0.3">
@@ -6470,74 +6470,74 @@
       <c r="AE52" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF52" s="13" t="s">
-        <v>58</v>
+      <c r="AF52" s="13">
+        <v>214049</v>
       </c>
       <c r="AG52" s="13">
-        <v>214049</v>
+        <v>478020</v>
       </c>
       <c r="AH52" s="13">
-        <v>478020</v>
+        <v>723772</v>
       </c>
       <c r="AI52" s="13">
-        <v>723772</v>
+        <v>68513</v>
       </c>
       <c r="AJ52" s="13">
-        <v>68513</v>
+        <v>527153</v>
       </c>
       <c r="AK52" s="13">
-        <v>527153</v>
+        <v>217512</v>
       </c>
       <c r="AL52" s="13">
-        <v>217512</v>
+        <v>716160</v>
       </c>
       <c r="AM52" s="13">
-        <v>716160</v>
+        <v>715718</v>
       </c>
       <c r="AN52" s="13">
-        <v>715718</v>
+        <v>876179</v>
       </c>
       <c r="AO52" s="13">
-        <v>876179</v>
+        <v>931141</v>
       </c>
       <c r="AP52" s="13">
-        <v>931141</v>
+        <v>868792</v>
       </c>
       <c r="AQ52" s="13">
-        <v>868792</v>
+        <v>899432</v>
       </c>
       <c r="AR52" s="13">
-        <v>899432</v>
+        <v>102005</v>
       </c>
       <c r="AS52" s="13">
-        <v>102005</v>
+        <v>405426</v>
       </c>
       <c r="AT52" s="13">
-        <v>405426</v>
+        <v>549223</v>
       </c>
       <c r="AU52" s="13">
-        <v>549223</v>
+        <v>361734</v>
       </c>
       <c r="AV52" s="13">
-        <v>361734</v>
+        <v>594727</v>
       </c>
       <c r="AW52" s="13">
-        <v>594727</v>
+        <v>316991</v>
       </c>
       <c r="AX52" s="13">
-        <v>316991</v>
+        <v>428137</v>
       </c>
       <c r="AY52" s="13">
-        <v>428137</v>
+        <v>396907</v>
       </c>
       <c r="AZ52" s="13">
-        <v>396907</v>
+        <v>606996</v>
       </c>
       <c r="BA52" s="13">
-        <v>606996</v>
+        <v>624171</v>
       </c>
       <c r="BB52" s="13">
-        <v>624171</v>
+        <v>701868</v>
       </c>
     </row>
     <row r="53" spans="2:54" x14ac:dyDescent="0.3">
@@ -6629,74 +6629,74 @@
       <c r="AE53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF53" s="11" t="s">
-        <v>58</v>
+      <c r="AF53" s="11">
+        <v>383315</v>
       </c>
       <c r="AG53" s="11">
-        <v>383315</v>
+        <v>651915</v>
       </c>
       <c r="AH53" s="11">
-        <v>651915</v>
+        <v>851474</v>
       </c>
       <c r="AI53" s="11">
-        <v>851474</v>
+        <v>204053</v>
       </c>
       <c r="AJ53" s="11">
-        <v>204053</v>
+        <v>450202</v>
       </c>
       <c r="AK53" s="11">
-        <v>450202</v>
+        <v>665146</v>
       </c>
       <c r="AL53" s="11">
-        <v>665146</v>
+        <v>780093</v>
       </c>
       <c r="AM53" s="11">
-        <v>780093</v>
+        <v>597082</v>
       </c>
       <c r="AN53" s="11">
-        <v>597082</v>
+        <v>1026378</v>
       </c>
       <c r="AO53" s="11">
-        <v>1026378</v>
+        <v>879144</v>
       </c>
       <c r="AP53" s="11">
-        <v>879144</v>
+        <v>965464</v>
       </c>
       <c r="AQ53" s="11">
-        <v>965464</v>
+        <v>843452</v>
       </c>
       <c r="AR53" s="11">
-        <v>843452</v>
+        <v>346199</v>
       </c>
       <c r="AS53" s="11">
-        <v>346199</v>
+        <v>280421</v>
       </c>
       <c r="AT53" s="11">
-        <v>280421</v>
+        <v>655467</v>
       </c>
       <c r="AU53" s="11">
-        <v>655467</v>
+        <v>384906</v>
       </c>
       <c r="AV53" s="11">
-        <v>384906</v>
+        <v>716041</v>
       </c>
       <c r="AW53" s="11">
-        <v>716041</v>
+        <v>353484</v>
       </c>
       <c r="AX53" s="11">
-        <v>353484</v>
+        <v>899362</v>
       </c>
       <c r="AY53" s="11">
-        <v>899362</v>
+        <v>703266</v>
       </c>
       <c r="AZ53" s="11">
-        <v>703266</v>
+        <v>373371</v>
       </c>
       <c r="BA53" s="11">
-        <v>373371</v>
+        <v>618981</v>
       </c>
       <c r="BB53" s="11">
-        <v>618981</v>
+        <v>1173092</v>
       </c>
     </row>
     <row r="54" spans="2:54" x14ac:dyDescent="0.3">
@@ -6787,73 +6787,73 @@
         <v>0</v>
       </c>
       <c r="AF54" s="15">
-        <v>0</v>
+        <v>1023871</v>
       </c>
       <c r="AG54" s="15">
-        <v>1023871</v>
+        <v>1693578</v>
       </c>
       <c r="AH54" s="15">
-        <v>1693578</v>
+        <v>2077838</v>
       </c>
       <c r="AI54" s="15">
-        <v>2077838</v>
+        <v>614274</v>
       </c>
       <c r="AJ54" s="15">
-        <v>614274</v>
+        <v>1401369</v>
       </c>
       <c r="AK54" s="15">
-        <v>1401369</v>
+        <v>1492176</v>
       </c>
       <c r="AL54" s="15">
-        <v>1492176</v>
+        <v>2020922</v>
       </c>
       <c r="AM54" s="15">
-        <v>2020922</v>
+        <v>1820942</v>
       </c>
       <c r="AN54" s="15">
-        <v>1820942</v>
+        <v>2629229</v>
       </c>
       <c r="AO54" s="15">
-        <v>2629229</v>
+        <v>2606897</v>
       </c>
       <c r="AP54" s="15">
-        <v>2606897</v>
+        <v>2864688</v>
       </c>
       <c r="AQ54" s="15">
-        <v>2864688</v>
+        <v>2721739</v>
       </c>
       <c r="AR54" s="15">
-        <v>2721739</v>
+        <v>627257</v>
       </c>
       <c r="AS54" s="15">
-        <v>627257</v>
+        <v>1048631</v>
       </c>
       <c r="AT54" s="15">
-        <v>1048631</v>
+        <v>1776213</v>
       </c>
       <c r="AU54" s="15">
-        <v>1776213</v>
+        <v>1126171</v>
       </c>
       <c r="AV54" s="15">
-        <v>1126171</v>
+        <v>1745791</v>
       </c>
       <c r="AW54" s="15">
-        <v>1745791</v>
+        <v>948442</v>
       </c>
       <c r="AX54" s="15">
-        <v>948442</v>
+        <v>1719323</v>
       </c>
       <c r="AY54" s="15">
-        <v>1719323</v>
+        <v>1979956</v>
       </c>
       <c r="AZ54" s="15">
-        <v>1979956</v>
+        <v>1451261</v>
       </c>
       <c r="BA54" s="15">
-        <v>1451261</v>
+        <v>1642024</v>
       </c>
       <c r="BB54" s="15">
-        <v>1642024</v>
+        <v>2485368</v>
       </c>
     </row>
     <row r="55" spans="2:54" x14ac:dyDescent="0.3">
@@ -7002,74 +7002,74 @@
       <c r="AE56" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF56" s="11" t="s">
-        <v>58</v>
+      <c r="AF56" s="11">
+        <v>50099</v>
       </c>
       <c r="AG56" s="11">
-        <v>50099</v>
+        <v>87098</v>
       </c>
       <c r="AH56" s="11">
-        <v>87098</v>
+        <v>153389</v>
       </c>
       <c r="AI56" s="11">
-        <v>153389</v>
+        <v>72371</v>
       </c>
       <c r="AJ56" s="11">
-        <v>72371</v>
+        <v>117566</v>
       </c>
       <c r="AK56" s="11">
-        <v>117566</v>
+        <v>244892</v>
       </c>
       <c r="AL56" s="11">
-        <v>244892</v>
+        <v>165831</v>
       </c>
       <c r="AM56" s="11">
-        <v>165831</v>
+        <v>128248</v>
       </c>
       <c r="AN56" s="11">
-        <v>128248</v>
+        <v>206607</v>
       </c>
       <c r="AO56" s="11">
-        <v>206607</v>
+        <v>134891</v>
       </c>
       <c r="AP56" s="11">
-        <v>134891</v>
+        <v>89160</v>
       </c>
       <c r="AQ56" s="11">
-        <v>89160</v>
+        <v>114051</v>
       </c>
       <c r="AR56" s="11">
-        <v>114051</v>
+        <v>135013</v>
       </c>
       <c r="AS56" s="11">
-        <v>135013</v>
+        <v>192762</v>
       </c>
       <c r="AT56" s="11">
-        <v>192762</v>
+        <v>360323</v>
       </c>
       <c r="AU56" s="11">
-        <v>360323</v>
+        <v>85650</v>
       </c>
       <c r="AV56" s="11">
-        <v>85650</v>
+        <v>151974</v>
       </c>
       <c r="AW56" s="11">
-        <v>151974</v>
+        <v>61392</v>
       </c>
       <c r="AX56" s="11">
-        <v>61392</v>
+        <v>163388</v>
       </c>
       <c r="AY56" s="11">
-        <v>163388</v>
+        <v>190960</v>
       </c>
       <c r="AZ56" s="11">
-        <v>190960</v>
+        <v>55645</v>
       </c>
       <c r="BA56" s="11">
-        <v>55645</v>
+        <v>36405</v>
       </c>
       <c r="BB56" s="11">
-        <v>36405</v>
+        <v>235499</v>
       </c>
     </row>
     <row r="57" spans="2:54" x14ac:dyDescent="0.3">
@@ -7161,74 +7161,74 @@
       <c r="AE57" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF57" s="13" t="s">
-        <v>58</v>
+      <c r="AF57" s="13">
+        <v>58644</v>
       </c>
       <c r="AG57" s="13">
-        <v>58644</v>
+        <v>107459</v>
       </c>
       <c r="AH57" s="13">
-        <v>107459</v>
+        <v>118890</v>
       </c>
       <c r="AI57" s="13">
-        <v>118890</v>
+        <v>67938</v>
       </c>
       <c r="AJ57" s="13">
-        <v>67938</v>
+        <v>129750</v>
       </c>
       <c r="AK57" s="13">
-        <v>129750</v>
+        <v>182274</v>
       </c>
       <c r="AL57" s="13">
-        <v>182274</v>
+        <v>122789</v>
       </c>
       <c r="AM57" s="13">
-        <v>122789</v>
+        <v>82821</v>
       </c>
       <c r="AN57" s="13">
-        <v>82821</v>
+        <v>174985</v>
       </c>
       <c r="AO57" s="13">
-        <v>174985</v>
+        <v>95004</v>
       </c>
       <c r="AP57" s="13">
-        <v>95004</v>
+        <v>161916</v>
       </c>
       <c r="AQ57" s="13">
-        <v>161916</v>
+        <v>210227</v>
       </c>
       <c r="AR57" s="13">
-        <v>210227</v>
+        <v>14444</v>
       </c>
       <c r="AS57" s="13">
-        <v>14444</v>
+        <v>86431</v>
       </c>
       <c r="AT57" s="13">
-        <v>86431</v>
+        <v>141425</v>
       </c>
       <c r="AU57" s="13">
-        <v>141425</v>
+        <v>154482</v>
       </c>
       <c r="AV57" s="13">
-        <v>154482</v>
+        <v>-10080</v>
       </c>
       <c r="AW57" s="13">
-        <v>159338</v>
+        <v>273168</v>
       </c>
       <c r="AX57" s="13">
-        <v>273168</v>
+        <v>411331</v>
       </c>
       <c r="AY57" s="13">
-        <v>411331</v>
+        <v>429446</v>
       </c>
       <c r="AZ57" s="13">
-        <v>429446</v>
+        <v>336829</v>
       </c>
       <c r="BA57" s="13">
-        <v>336829</v>
+        <v>257402</v>
       </c>
       <c r="BB57" s="13">
-        <v>257402</v>
+        <v>40545</v>
       </c>
     </row>
     <row r="58" spans="2:54" x14ac:dyDescent="0.3">
@@ -7320,74 +7320,74 @@
       <c r="AE58" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF58" s="11" t="s">
-        <v>58</v>
+      <c r="AF58" s="11">
+        <v>0</v>
       </c>
       <c r="AG58" s="11">
         <v>0</v>
       </c>
       <c r="AH58" s="11">
-        <v>0</v>
+        <v>4036</v>
       </c>
       <c r="AI58" s="11">
-        <v>4036</v>
+        <v>0</v>
       </c>
       <c r="AJ58" s="11">
         <v>0</v>
       </c>
       <c r="AK58" s="11">
-        <v>0</v>
+        <v>4280</v>
       </c>
       <c r="AL58" s="11">
-        <v>4280</v>
+        <v>0</v>
       </c>
       <c r="AM58" s="11">
-        <v>0</v>
+        <v>16209</v>
       </c>
       <c r="AN58" s="11">
-        <v>16209</v>
+        <v>10083</v>
       </c>
       <c r="AO58" s="11">
-        <v>10083</v>
+        <v>13540</v>
       </c>
       <c r="AP58" s="11">
-        <v>13540</v>
+        <v>34289</v>
       </c>
       <c r="AQ58" s="11">
-        <v>34289</v>
+        <v>52262</v>
       </c>
       <c r="AR58" s="11">
-        <v>52262</v>
+        <v>0</v>
       </c>
       <c r="AS58" s="11">
-        <v>0</v>
+        <v>20468</v>
       </c>
       <c r="AT58" s="11">
-        <v>20468</v>
+        <v>57843</v>
       </c>
       <c r="AU58" s="11">
-        <v>57843</v>
+        <v>27799</v>
       </c>
       <c r="AV58" s="11">
-        <v>27799</v>
+        <v>7460</v>
       </c>
       <c r="AW58" s="11">
-        <v>7460</v>
+        <v>96215</v>
       </c>
       <c r="AX58" s="11">
-        <v>96215</v>
+        <v>188631</v>
       </c>
       <c r="AY58" s="11">
-        <v>188631</v>
+        <v>80645</v>
       </c>
       <c r="AZ58" s="11">
-        <v>80645</v>
+        <v>15253</v>
       </c>
       <c r="BA58" s="11">
-        <v>15253</v>
+        <v>4692</v>
       </c>
       <c r="BB58" s="11">
-        <v>4692</v>
+        <v>13430</v>
       </c>
     </row>
     <row r="59" spans="2:54" x14ac:dyDescent="0.3">
@@ -7478,73 +7478,73 @@
         <v>0</v>
       </c>
       <c r="AF59" s="15">
-        <v>0</v>
+        <v>108743</v>
       </c>
       <c r="AG59" s="15">
-        <v>108743</v>
+        <v>194557</v>
       </c>
       <c r="AH59" s="15">
-        <v>194557</v>
+        <v>276315</v>
       </c>
       <c r="AI59" s="15">
-        <v>276315</v>
+        <v>140309</v>
       </c>
       <c r="AJ59" s="15">
-        <v>140309</v>
+        <v>247316</v>
       </c>
       <c r="AK59" s="15">
-        <v>247316</v>
+        <v>431446</v>
       </c>
       <c r="AL59" s="15">
-        <v>431446</v>
+        <v>288620</v>
       </c>
       <c r="AM59" s="15">
-        <v>288620</v>
+        <v>227278</v>
       </c>
       <c r="AN59" s="15">
-        <v>227278</v>
+        <v>391675</v>
       </c>
       <c r="AO59" s="15">
-        <v>391675</v>
+        <v>243435</v>
       </c>
       <c r="AP59" s="15">
-        <v>243435</v>
+        <v>285365</v>
       </c>
       <c r="AQ59" s="15">
-        <v>285365</v>
+        <v>376540</v>
       </c>
       <c r="AR59" s="15">
-        <v>376540</v>
+        <v>149457</v>
       </c>
       <c r="AS59" s="15">
-        <v>149457</v>
+        <v>299661</v>
       </c>
       <c r="AT59" s="15">
-        <v>299661</v>
+        <v>559591</v>
       </c>
       <c r="AU59" s="15">
-        <v>559591</v>
+        <v>267931</v>
       </c>
       <c r="AV59" s="15">
-        <v>267931</v>
+        <v>149354</v>
       </c>
       <c r="AW59" s="15">
-        <v>318772</v>
+        <v>430775</v>
       </c>
       <c r="AX59" s="15">
-        <v>430775</v>
+        <v>763350</v>
       </c>
       <c r="AY59" s="15">
-        <v>763350</v>
+        <v>701051</v>
       </c>
       <c r="AZ59" s="15">
-        <v>701051</v>
+        <v>407727</v>
       </c>
       <c r="BA59" s="15">
-        <v>407727</v>
+        <v>298499</v>
       </c>
       <c r="BB59" s="15">
-        <v>298499</v>
+        <v>289474</v>
       </c>
     </row>
     <row r="60" spans="2:54" x14ac:dyDescent="0.3">
@@ -7693,74 +7693,74 @@
       <c r="AE61" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF61" s="11" t="s">
-        <v>58</v>
+      <c r="AF61" s="11">
+        <v>13884</v>
       </c>
       <c r="AG61" s="11">
-        <v>13884</v>
+        <v>12532</v>
       </c>
       <c r="AH61" s="11">
-        <v>12532</v>
+        <v>23898</v>
       </c>
       <c r="AI61" s="11">
-        <v>23898</v>
+        <v>6243</v>
       </c>
       <c r="AJ61" s="11">
-        <v>6243</v>
+        <v>19423</v>
       </c>
       <c r="AK61" s="11">
-        <v>19423</v>
+        <v>14021</v>
       </c>
       <c r="AL61" s="11">
-        <v>14021</v>
+        <v>10992</v>
       </c>
       <c r="AM61" s="11">
-        <v>10992</v>
+        <v>13065</v>
       </c>
       <c r="AN61" s="11">
-        <v>13065</v>
+        <v>15243</v>
       </c>
       <c r="AO61" s="11">
-        <v>15243</v>
+        <v>9552</v>
       </c>
       <c r="AP61" s="11">
-        <v>9552</v>
+        <v>2730</v>
       </c>
       <c r="AQ61" s="11">
-        <v>2730</v>
+        <v>23960</v>
       </c>
       <c r="AR61" s="11">
-        <v>23960</v>
+        <v>14514</v>
       </c>
       <c r="AS61" s="11">
-        <v>14514</v>
+        <v>5465</v>
       </c>
       <c r="AT61" s="11">
-        <v>5465</v>
+        <v>5470</v>
       </c>
       <c r="AU61" s="11">
-        <v>5470</v>
+        <v>2705</v>
       </c>
       <c r="AV61" s="11">
-        <v>2705</v>
+        <v>7394</v>
       </c>
       <c r="AW61" s="11">
-        <v>7394</v>
+        <v>7795</v>
       </c>
       <c r="AX61" s="11">
-        <v>7795</v>
+        <v>8456</v>
       </c>
       <c r="AY61" s="11">
-        <v>8456</v>
+        <v>5417</v>
       </c>
       <c r="AZ61" s="11">
-        <v>5417</v>
+        <v>7186</v>
       </c>
       <c r="BA61" s="11">
-        <v>7186</v>
+        <v>9422</v>
       </c>
       <c r="BB61" s="11">
-        <v>9422</v>
+        <v>10239</v>
       </c>
     </row>
     <row r="62" spans="2:54" x14ac:dyDescent="0.3">
@@ -7852,74 +7852,74 @@
       <c r="AE62" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AF62" s="15" t="s">
-        <v>58</v>
+      <c r="AF62" s="15">
+        <v>13884</v>
       </c>
       <c r="AG62" s="15">
-        <v>13884</v>
+        <v>12532</v>
       </c>
       <c r="AH62" s="15">
-        <v>12532</v>
+        <v>23898</v>
       </c>
       <c r="AI62" s="15">
-        <v>23898</v>
+        <v>6243</v>
       </c>
       <c r="AJ62" s="15">
-        <v>6243</v>
+        <v>19423</v>
       </c>
       <c r="AK62" s="15">
-        <v>19423</v>
+        <v>14021</v>
       </c>
       <c r="AL62" s="15">
-        <v>14021</v>
+        <v>10992</v>
       </c>
       <c r="AM62" s="15">
-        <v>10992</v>
+        <v>13065</v>
       </c>
       <c r="AN62" s="15">
-        <v>13065</v>
+        <v>15243</v>
       </c>
       <c r="AO62" s="15">
-        <v>15243</v>
+        <v>9552</v>
       </c>
       <c r="AP62" s="15">
-        <v>9552</v>
+        <v>2730</v>
       </c>
       <c r="AQ62" s="15">
-        <v>2730</v>
+        <v>23960</v>
       </c>
       <c r="AR62" s="15">
-        <v>23960</v>
+        <v>14514</v>
       </c>
       <c r="AS62" s="15">
-        <v>14514</v>
+        <v>5465</v>
       </c>
       <c r="AT62" s="15">
-        <v>5465</v>
+        <v>5470</v>
       </c>
       <c r="AU62" s="15">
-        <v>5470</v>
+        <v>2705</v>
       </c>
       <c r="AV62" s="15">
-        <v>2705</v>
+        <v>7394</v>
       </c>
       <c r="AW62" s="15">
-        <v>7394</v>
+        <v>7795</v>
       </c>
       <c r="AX62" s="15">
-        <v>7795</v>
+        <v>8456</v>
       </c>
       <c r="AY62" s="15">
-        <v>8456</v>
+        <v>5417</v>
       </c>
       <c r="AZ62" s="15">
-        <v>5417</v>
+        <v>7186</v>
       </c>
       <c r="BA62" s="15">
-        <v>7186</v>
+        <v>9422</v>
       </c>
       <c r="BB62" s="15">
-        <v>9422</v>
+        <v>10239</v>
       </c>
     </row>
     <row r="63" spans="2:54" x14ac:dyDescent="0.3">
@@ -8068,8 +8068,8 @@
       <c r="AE64" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="AF64" s="17" t="s">
-        <v>58</v>
+      <c r="AF64" s="17">
+        <v>0</v>
       </c>
       <c r="AG64" s="17">
         <v>0</v>
@@ -8284,74 +8284,74 @@
       <c r="AE66" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF66" s="11" t="s">
-        <v>58</v>
+      <c r="AF66" s="11">
+        <v>-31488</v>
       </c>
       <c r="AG66" s="11">
-        <v>-31488</v>
+        <v>-56009</v>
       </c>
       <c r="AH66" s="11">
-        <v>-56009</v>
+        <v>-82605</v>
       </c>
       <c r="AI66" s="11">
-        <v>-82605</v>
+        <v>-11564</v>
       </c>
       <c r="AJ66" s="11">
-        <v>-11564</v>
+        <v>-54416</v>
       </c>
       <c r="AK66" s="11">
-        <v>-54416</v>
+        <v>-103909</v>
       </c>
       <c r="AL66" s="11">
-        <v>-103909</v>
+        <v>-235607</v>
       </c>
       <c r="AM66" s="11">
-        <v>-235607</v>
+        <v>-161691</v>
       </c>
       <c r="AN66" s="11">
-        <v>-161691</v>
+        <v>-119088</v>
       </c>
       <c r="AO66" s="11">
-        <v>-119088</v>
+        <v>-115277</v>
       </c>
       <c r="AP66" s="11">
-        <v>-115277</v>
+        <v>-112079</v>
       </c>
       <c r="AQ66" s="11">
-        <v>-112079</v>
+        <v>-204882</v>
       </c>
       <c r="AR66" s="11">
-        <v>-204882</v>
+        <v>-36995</v>
       </c>
       <c r="AS66" s="11">
-        <v>-36995</v>
+        <v>-45946</v>
       </c>
       <c r="AT66" s="11">
-        <v>-45946</v>
+        <v>-46192</v>
       </c>
       <c r="AU66" s="11">
-        <v>-46192</v>
+        <v>-16286</v>
       </c>
       <c r="AV66" s="11">
-        <v>-16286</v>
+        <v>-37502</v>
       </c>
       <c r="AW66" s="11">
-        <v>-37502</v>
+        <v>-16386</v>
       </c>
       <c r="AX66" s="11">
-        <v>-16386</v>
+        <v>-40513</v>
       </c>
       <c r="AY66" s="11">
-        <v>-40513</v>
+        <v>-35307</v>
       </c>
       <c r="AZ66" s="11">
-        <v>-35307</v>
+        <v>-28490</v>
       </c>
       <c r="BA66" s="11">
-        <v>-28490</v>
+        <v>-37223</v>
       </c>
       <c r="BB66" s="11">
-        <v>-37223</v>
+        <v>-53821</v>
       </c>
     </row>
     <row r="67" spans="2:54" x14ac:dyDescent="0.3">
@@ -8442,73 +8442,73 @@
         <v>0</v>
       </c>
       <c r="AF67" s="15">
-        <v>0</v>
+        <v>1115010</v>
       </c>
       <c r="AG67" s="15">
-        <v>1115010</v>
+        <v>1844658</v>
       </c>
       <c r="AH67" s="15">
-        <v>1844658</v>
+        <v>2295446</v>
       </c>
       <c r="AI67" s="15">
-        <v>2295446</v>
+        <v>749262</v>
       </c>
       <c r="AJ67" s="15">
-        <v>749262</v>
+        <v>1613692</v>
       </c>
       <c r="AK67" s="15">
-        <v>1613692</v>
+        <v>1833734</v>
       </c>
       <c r="AL67" s="15">
-        <v>1833734</v>
+        <v>2084927</v>
       </c>
       <c r="AM67" s="15">
-        <v>2084927</v>
+        <v>1899594</v>
       </c>
       <c r="AN67" s="15">
-        <v>1899594</v>
+        <v>2917059</v>
       </c>
       <c r="AO67" s="15">
-        <v>2917059</v>
+        <v>2744607</v>
       </c>
       <c r="AP67" s="15">
-        <v>2744607</v>
+        <v>3040704</v>
       </c>
       <c r="AQ67" s="15">
-        <v>3040704</v>
+        <v>2917357</v>
       </c>
       <c r="AR67" s="15">
-        <v>2917357</v>
+        <v>754233</v>
       </c>
       <c r="AS67" s="15">
-        <v>754233</v>
+        <v>1307811</v>
       </c>
       <c r="AT67" s="15">
-        <v>1307811</v>
+        <v>2295082</v>
       </c>
       <c r="AU67" s="15">
-        <v>2295082</v>
+        <v>1380521</v>
       </c>
       <c r="AV67" s="15">
-        <v>1380521</v>
+        <v>1865037</v>
       </c>
       <c r="AW67" s="15">
-        <v>2034455</v>
+        <v>1370626</v>
       </c>
       <c r="AX67" s="15">
-        <v>1370626</v>
+        <v>2450616</v>
       </c>
       <c r="AY67" s="15">
-        <v>2450616</v>
+        <v>2651117</v>
       </c>
       <c r="AZ67" s="15">
-        <v>2651117</v>
+        <v>1837684</v>
       </c>
       <c r="BA67" s="15">
-        <v>1837684</v>
+        <v>1912722</v>
       </c>
       <c r="BB67" s="15">
-        <v>1912722</v>
+        <v>2731260</v>
       </c>
     </row>
     <row r="68" spans="2:54" x14ac:dyDescent="0.3">
@@ -9034,74 +9034,74 @@
       <c r="AE74" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF74" s="11" t="s">
-        <v>58</v>
+      <c r="AF74" s="11">
+        <v>246964100</v>
       </c>
       <c r="AG74" s="11">
-        <v>246964100</v>
+        <v>228010922</v>
       </c>
       <c r="AH74" s="11">
-        <v>228010922</v>
+        <v>223274989</v>
       </c>
       <c r="AI74" s="11">
-        <v>223274989</v>
+        <v>255196415</v>
       </c>
       <c r="AJ74" s="11">
-        <v>255196415</v>
+        <v>256047101</v>
       </c>
       <c r="AK74" s="11">
-        <v>256047101</v>
+        <v>258818684</v>
       </c>
       <c r="AL74" s="11">
-        <v>258818684</v>
+        <v>274983753</v>
       </c>
       <c r="AM74" s="11">
-        <v>274983753</v>
+        <v>280741436</v>
       </c>
       <c r="AN74" s="11">
-        <v>280741436</v>
+        <v>295395122</v>
       </c>
       <c r="AO74" s="11">
-        <v>295395122</v>
+        <v>306271434</v>
       </c>
       <c r="AP74" s="11">
-        <v>306271434</v>
+        <v>310933011</v>
       </c>
       <c r="AQ74" s="11">
-        <v>310933011</v>
+        <v>292719797</v>
       </c>
       <c r="AR74" s="11">
-        <v>292719797</v>
+        <v>301944351</v>
       </c>
       <c r="AS74" s="11">
-        <v>301944351</v>
+        <v>332524290</v>
       </c>
       <c r="AT74" s="11">
-        <v>332524290</v>
+        <v>313678924</v>
       </c>
       <c r="AU74" s="11">
-        <v>313678924</v>
+        <v>346603653</v>
       </c>
       <c r="AV74" s="11">
-        <v>346603653</v>
+        <v>369603229</v>
       </c>
       <c r="AW74" s="11">
-        <v>369603229</v>
+        <v>516667286</v>
       </c>
       <c r="AX74" s="11">
-        <v>516667286</v>
+        <v>466457143</v>
       </c>
       <c r="AY74" s="11">
-        <v>466457143</v>
+        <v>441658133</v>
       </c>
       <c r="AZ74" s="11">
-        <v>441658133</v>
+        <v>476613360</v>
       </c>
       <c r="BA74" s="11">
-        <v>476613360</v>
+        <v>440256071</v>
       </c>
       <c r="BB74" s="11">
-        <v>440256071</v>
+        <v>235406093</v>
       </c>
     </row>
     <row r="75" spans="2:54" x14ac:dyDescent="0.3">
@@ -9193,74 +9193,74 @@
       <c r="AE75" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF75" s="13" t="s">
-        <v>58</v>
+      <c r="AF75" s="13">
+        <v>154436508</v>
       </c>
       <c r="AG75" s="13">
-        <v>154436508</v>
+        <v>145118397</v>
       </c>
       <c r="AH75" s="13">
-        <v>145118397</v>
+        <v>146482898</v>
       </c>
       <c r="AI75" s="13">
-        <v>146482898</v>
+        <v>140683778</v>
       </c>
       <c r="AJ75" s="13">
-        <v>140683778</v>
+        <v>147208322</v>
       </c>
       <c r="AK75" s="13">
-        <v>147208322</v>
+        <v>145883300</v>
       </c>
       <c r="AL75" s="13">
-        <v>145883300</v>
+        <v>185293661</v>
       </c>
       <c r="AM75" s="13">
-        <v>185293661</v>
+        <v>178795403</v>
       </c>
       <c r="AN75" s="13">
-        <v>178795403</v>
+        <v>184886896</v>
       </c>
       <c r="AO75" s="13">
-        <v>184886896</v>
+        <v>180069812</v>
       </c>
       <c r="AP75" s="13">
-        <v>180069812</v>
+        <v>180135186</v>
       </c>
       <c r="AQ75" s="13">
-        <v>180135186</v>
+        <v>171287755</v>
       </c>
       <c r="AR75" s="13">
-        <v>171287755</v>
+        <v>153853695</v>
       </c>
       <c r="AS75" s="13">
-        <v>153853695</v>
+        <v>185379973</v>
       </c>
       <c r="AT75" s="13">
-        <v>185379973</v>
+        <v>189779889</v>
       </c>
       <c r="AU75" s="13">
-        <v>189779889</v>
+        <v>170227765</v>
       </c>
       <c r="AV75" s="13">
-        <v>170227765</v>
+        <v>167528732</v>
       </c>
       <c r="AW75" s="13">
-        <v>167528732</v>
+        <v>203721722</v>
       </c>
       <c r="AX75" s="13">
-        <v>203721722</v>
+        <v>248772225</v>
       </c>
       <c r="AY75" s="13">
-        <v>248772225</v>
+        <v>233063418</v>
       </c>
       <c r="AZ75" s="13">
-        <v>233063418</v>
+        <v>222342857</v>
       </c>
       <c r="BA75" s="13">
-        <v>222342857</v>
+        <v>216275468</v>
       </c>
       <c r="BB75" s="13">
-        <v>216275468</v>
+        <v>423066908</v>
       </c>
     </row>
     <row r="76" spans="2:54" x14ac:dyDescent="0.3">
@@ -9352,74 +9352,74 @@
       <c r="AE76" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF76" s="11" t="s">
-        <v>58</v>
+      <c r="AF76" s="11">
+        <v>296683437</v>
       </c>
       <c r="AG76" s="11">
-        <v>296683437</v>
+        <v>297135369</v>
       </c>
       <c r="AH76" s="11">
-        <v>297135369</v>
+        <v>298762807</v>
       </c>
       <c r="AI76" s="11">
-        <v>298762807</v>
+        <v>297020378</v>
       </c>
       <c r="AJ76" s="11">
-        <v>297020378</v>
+        <v>300937166</v>
       </c>
       <c r="AK76" s="11">
-        <v>300937166</v>
+        <v>325573177</v>
       </c>
       <c r="AL76" s="11">
-        <v>325573177</v>
+        <v>369887624</v>
       </c>
       <c r="AM76" s="11">
-        <v>369887624</v>
+        <v>367435077</v>
       </c>
       <c r="AN76" s="11">
-        <v>367435077</v>
+        <v>371069414</v>
       </c>
       <c r="AO76" s="11">
-        <v>371069414</v>
+        <v>369078086</v>
       </c>
       <c r="AP76" s="11">
-        <v>369078086</v>
+        <v>367655750</v>
       </c>
       <c r="AQ76" s="11">
-        <v>367655750</v>
+        <v>364499568</v>
       </c>
       <c r="AR76" s="11">
-        <v>364499568</v>
+        <v>364804004</v>
       </c>
       <c r="AS76" s="11">
-        <v>364804004</v>
+        <v>370437252</v>
       </c>
       <c r="AT76" s="11">
-        <v>370437252</v>
+        <v>375195764</v>
       </c>
       <c r="AU76" s="11">
-        <v>375195764</v>
+        <v>371530888</v>
       </c>
       <c r="AV76" s="11">
-        <v>371530888</v>
+        <v>370621636</v>
       </c>
       <c r="AW76" s="11">
-        <v>370621636</v>
+        <v>452604353</v>
       </c>
       <c r="AX76" s="11">
-        <v>452604353</v>
+        <v>453764884</v>
       </c>
       <c r="AY76" s="11">
-        <v>453764884</v>
+        <v>453427466</v>
       </c>
       <c r="AZ76" s="11">
-        <v>453427466</v>
+        <v>462092822</v>
       </c>
       <c r="BA76" s="11">
-        <v>462092822</v>
+        <v>501605348</v>
       </c>
       <c r="BB76" s="11">
-        <v>501605348</v>
+        <v>542094270</v>
       </c>
     </row>
     <row r="77" spans="2:54" x14ac:dyDescent="0.3">
@@ -9568,74 +9568,74 @@
       <c r="AE78" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF78" s="11" t="s">
-        <v>58</v>
+      <c r="AF78" s="11">
+        <v>240860577</v>
       </c>
       <c r="AG78" s="11">
-        <v>240860577</v>
+        <v>272181250</v>
       </c>
       <c r="AH78" s="11">
-        <v>272181250</v>
+        <v>194163291</v>
       </c>
       <c r="AI78" s="11">
-        <v>194163291</v>
+        <v>223367284</v>
       </c>
       <c r="AJ78" s="11">
-        <v>223367284</v>
+        <v>154286089</v>
       </c>
       <c r="AK78" s="11">
-        <v>154286089</v>
+        <v>204588137</v>
       </c>
       <c r="AL78" s="11">
-        <v>204588137</v>
+        <v>254342025</v>
       </c>
       <c r="AM78" s="11">
-        <v>254342025</v>
+        <v>260137931</v>
       </c>
       <c r="AN78" s="11">
-        <v>260137931</v>
+        <v>260867424</v>
       </c>
       <c r="AO78" s="11">
-        <v>260867424</v>
+        <v>221860197</v>
       </c>
       <c r="AP78" s="11">
-        <v>221860197</v>
+        <v>149346734</v>
       </c>
       <c r="AQ78" s="11">
-        <v>149346734</v>
+        <v>125745314</v>
       </c>
       <c r="AR78" s="11">
-        <v>125745314</v>
+        <v>277234086</v>
       </c>
       <c r="AS78" s="11">
-        <v>277234086</v>
+        <v>293397260</v>
       </c>
       <c r="AT78" s="11">
-        <v>293397260</v>
+        <v>243955992</v>
       </c>
       <c r="AU78" s="11">
-        <v>243955992</v>
+        <v>284551495</v>
       </c>
       <c r="AV78" s="11">
-        <v>284551495</v>
+        <v>286203390</v>
       </c>
       <c r="AW78" s="11">
-        <v>286203390</v>
+        <v>203284768</v>
       </c>
       <c r="AX78" s="11">
-        <v>203284768</v>
+        <v>268288998</v>
       </c>
       <c r="AY78" s="11">
-        <v>268288998</v>
+        <v>324761905</v>
       </c>
       <c r="AZ78" s="11">
-        <v>324761905</v>
+        <v>131238208</v>
       </c>
       <c r="BA78" s="11">
-        <v>131238208</v>
+        <v>135839552</v>
       </c>
       <c r="BB78" s="11">
-        <v>135839552</v>
+        <v>88968266</v>
       </c>
     </row>
     <row r="79" spans="2:54" x14ac:dyDescent="0.3">
@@ -9727,74 +9727,74 @@
       <c r="AE79" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF79" s="13" t="s">
-        <v>58</v>
+      <c r="AF79" s="13">
+        <v>50642487</v>
       </c>
       <c r="AG79" s="13">
-        <v>50642487</v>
+        <v>49980930</v>
       </c>
       <c r="AH79" s="13">
-        <v>49980930</v>
+        <v>57324012</v>
       </c>
       <c r="AI79" s="13">
-        <v>57324012</v>
+        <v>58365979</v>
       </c>
       <c r="AJ79" s="13">
-        <v>58365979</v>
+        <v>57032967</v>
       </c>
       <c r="AK79" s="13">
-        <v>57032967</v>
+        <v>62145926</v>
       </c>
       <c r="AL79" s="13">
-        <v>62145926</v>
+        <v>65768077</v>
       </c>
       <c r="AM79" s="13">
-        <v>65768077</v>
+        <v>68960033</v>
       </c>
       <c r="AN79" s="13">
-        <v>68960033</v>
+        <v>64857302</v>
       </c>
       <c r="AO79" s="13">
-        <v>64857302</v>
+        <v>66810127</v>
       </c>
       <c r="AP79" s="13">
-        <v>66810127</v>
+        <v>70891419</v>
       </c>
       <c r="AQ79" s="13">
-        <v>70891419</v>
+        <v>71946270</v>
       </c>
       <c r="AR79" s="13">
-        <v>71946270</v>
+        <v>84467836</v>
       </c>
       <c r="AS79" s="13">
-        <v>84467836</v>
+        <v>68055906</v>
       </c>
       <c r="AT79" s="13">
-        <v>68055906</v>
+        <v>63964270</v>
       </c>
       <c r="AU79" s="13">
-        <v>63964270</v>
+        <v>68719751</v>
       </c>
       <c r="AV79" s="13">
-        <v>68719751</v>
+        <v>52092334</v>
       </c>
       <c r="AW79" s="13">
-        <v>73057313</v>
+        <v>91116745</v>
       </c>
       <c r="AX79" s="13">
-        <v>91116745</v>
+        <v>84950640</v>
       </c>
       <c r="AY79" s="13">
-        <v>84950640</v>
+        <v>83339026</v>
       </c>
       <c r="AZ79" s="13">
-        <v>83339026</v>
+        <v>81695125</v>
       </c>
       <c r="BA79" s="13">
-        <v>81695125</v>
+        <v>89004841</v>
       </c>
       <c r="BB79" s="13">
-        <v>89004841</v>
+        <v>176282609</v>
       </c>
     </row>
     <row r="80" spans="2:54" x14ac:dyDescent="0.3">
@@ -9892,68 +9892,68 @@
       <c r="AG80" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH80" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI80" s="11">
+      <c r="AH80" s="11">
         <v>175478261</v>
       </c>
+      <c r="AI80" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AJ80" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AK80" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL80" s="11">
+      <c r="AK80" s="11">
         <v>237777778</v>
       </c>
-      <c r="AM80" s="11" t="s">
-        <v>58</v>
+      <c r="AL80" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM80" s="11">
+        <v>219040541</v>
       </c>
       <c r="AN80" s="11">
-        <v>219040541</v>
+        <v>347689655</v>
       </c>
       <c r="AO80" s="11">
-        <v>347689655</v>
+        <v>260384615</v>
       </c>
       <c r="AP80" s="11">
-        <v>260384615</v>
+        <v>257812030</v>
       </c>
       <c r="AQ80" s="11">
-        <v>257812030</v>
-      </c>
-      <c r="AR80" s="11">
         <v>320625767</v>
       </c>
-      <c r="AS80" s="11" t="s">
-        <v>58</v>
+      <c r="AR80" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS80" s="11">
+        <v>341133333</v>
       </c>
       <c r="AT80" s="11">
-        <v>341133333</v>
+        <v>321350000</v>
       </c>
       <c r="AU80" s="11">
-        <v>321350000</v>
+        <v>308877778</v>
       </c>
       <c r="AV80" s="11">
-        <v>308877778</v>
+        <v>286923077</v>
       </c>
       <c r="AW80" s="11">
-        <v>286923077</v>
+        <v>421995614</v>
       </c>
       <c r="AX80" s="11">
-        <v>421995614</v>
+        <v>471577500</v>
       </c>
       <c r="AY80" s="11">
-        <v>471577500</v>
+        <v>401218905</v>
       </c>
       <c r="AZ80" s="11">
-        <v>401218905</v>
+        <v>363166667</v>
       </c>
       <c r="BA80" s="11">
-        <v>363166667</v>
+        <v>469200000</v>
       </c>
       <c r="BB80" s="11">
-        <v>469200000</v>
+        <v>419687500</v>
       </c>
     </row>
     <row r="81" spans="2:54" x14ac:dyDescent="0.3">
@@ -10102,74 +10102,74 @@
       <c r="AE82" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF82" s="11" t="s">
-        <v>58</v>
+      <c r="AF82" s="11">
+        <v>19229917</v>
       </c>
       <c r="AG82" s="11">
-        <v>19229917</v>
+        <v>19369397</v>
       </c>
       <c r="AH82" s="11">
-        <v>19369397</v>
+        <v>28586124</v>
       </c>
       <c r="AI82" s="11">
-        <v>28586124</v>
+        <v>24773810</v>
       </c>
       <c r="AJ82" s="11">
-        <v>24773810</v>
+        <v>25828457</v>
       </c>
       <c r="AK82" s="11">
-        <v>25828457</v>
+        <v>25354430</v>
       </c>
       <c r="AL82" s="11">
-        <v>25354430</v>
+        <v>27411471</v>
       </c>
       <c r="AM82" s="11">
-        <v>27411471</v>
+        <v>25974155</v>
       </c>
       <c r="AN82" s="11">
-        <v>25974155</v>
+        <v>26509565</v>
       </c>
       <c r="AO82" s="11">
-        <v>26509565</v>
+        <v>27136364</v>
       </c>
       <c r="AP82" s="11">
-        <v>27136364</v>
+        <v>26504854</v>
       </c>
       <c r="AQ82" s="11">
-        <v>26504854</v>
+        <v>26504425</v>
       </c>
       <c r="AR82" s="11">
-        <v>26504425</v>
+        <v>27436673</v>
       </c>
       <c r="AS82" s="11">
-        <v>27436673</v>
+        <v>34588608</v>
       </c>
       <c r="AT82" s="11">
-        <v>34588608</v>
+        <v>34402516</v>
       </c>
       <c r="AU82" s="11">
-        <v>34402516</v>
+        <v>34679487</v>
       </c>
       <c r="AV82" s="11">
-        <v>34679487</v>
+        <v>34551402</v>
       </c>
       <c r="AW82" s="11">
-        <v>34551402</v>
+        <v>34491150</v>
       </c>
       <c r="AX82" s="11">
-        <v>34491150</v>
+        <v>34655738</v>
       </c>
       <c r="AY82" s="11">
-        <v>34655738</v>
+        <v>34724359</v>
       </c>
       <c r="AZ82" s="11">
-        <v>34724359</v>
+        <v>34548077</v>
       </c>
       <c r="BA82" s="11">
-        <v>34548077</v>
+        <v>34512821</v>
       </c>
       <c r="BB82" s="11">
-        <v>34512821</v>
+        <v>34474747</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/shoyande/shepaksa/product/monthly_seprated.xlsx
+++ b/database/industries/shoyande/shepaksa/product/monthly_seprated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\shoyande\shepaksa\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA002016-F108-4C8E-8B60-9A636D1A6A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F13EBDB-74C8-4577-B8C1-1FBFB78158FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="87">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>شپاکسا-پاکسان‌</t>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 10 منتهی به 1397/07</t>
   </si>
   <si>
     <t>ماه 11 منتهی به 1397/08</t>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 11 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 12 منتهی به 1401/09</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -1516,77 +1516,77 @@
       <c r="AD11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE11" s="11" t="s">
-        <v>58</v>
+      <c r="AE11" s="11">
+        <v>1324</v>
       </c>
       <c r="AF11" s="11">
-        <v>1324</v>
+        <v>2059</v>
       </c>
       <c r="AG11" s="11">
-        <v>2059</v>
+        <v>1818</v>
       </c>
       <c r="AH11" s="11">
-        <v>1818</v>
+        <v>1390</v>
       </c>
       <c r="AI11" s="11">
-        <v>1390</v>
+        <v>1496</v>
       </c>
       <c r="AJ11" s="11">
-        <v>1496</v>
+        <v>2416</v>
       </c>
       <c r="AK11" s="11">
-        <v>2416</v>
+        <v>2046</v>
       </c>
       <c r="AL11" s="11">
-        <v>2046</v>
+        <v>1935</v>
       </c>
       <c r="AM11" s="11">
-        <v>1935</v>
+        <v>2030</v>
       </c>
       <c r="AN11" s="11">
-        <v>2030</v>
+        <v>2525</v>
       </c>
       <c r="AO11" s="11">
-        <v>2525</v>
+        <v>3829</v>
       </c>
       <c r="AP11" s="11">
-        <v>3829</v>
+        <v>4690</v>
       </c>
       <c r="AQ11" s="11">
-        <v>4690</v>
+        <v>350</v>
       </c>
       <c r="AR11" s="11">
-        <v>350</v>
+        <v>564</v>
       </c>
       <c r="AS11" s="11">
-        <v>564</v>
+        <v>1330</v>
       </c>
       <c r="AT11" s="11">
-        <v>1330</v>
+        <v>1074</v>
       </c>
       <c r="AU11" s="11">
-        <v>1074</v>
+        <v>1165</v>
       </c>
       <c r="AV11" s="11">
-        <v>1165</v>
+        <v>722</v>
       </c>
       <c r="AW11" s="11">
-        <v>722</v>
+        <v>793</v>
       </c>
       <c r="AX11" s="11">
-        <v>793</v>
+        <v>1897</v>
       </c>
       <c r="AY11" s="11">
-        <v>1897</v>
+        <v>969</v>
       </c>
       <c r="AZ11" s="11">
-        <v>969</v>
+        <v>794</v>
       </c>
       <c r="BA11" s="11">
-        <v>794</v>
+        <v>1706</v>
       </c>
       <c r="BB11" s="11">
-        <v>2520</v>
+        <v>978</v>
       </c>
     </row>
     <row r="12" spans="2:54" x14ac:dyDescent="0.3">
@@ -1675,77 +1675,77 @@
       <c r="AD12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE12" s="13" t="s">
-        <v>58</v>
+      <c r="AE12" s="13">
+        <v>3171</v>
       </c>
       <c r="AF12" s="13">
-        <v>3171</v>
+        <v>1807</v>
       </c>
       <c r="AG12" s="13">
-        <v>1807</v>
+        <v>3891</v>
       </c>
       <c r="AH12" s="13">
-        <v>3891</v>
+        <v>2500</v>
       </c>
       <c r="AI12" s="13">
-        <v>2500</v>
+        <v>2240</v>
       </c>
       <c r="AJ12" s="13">
-        <v>2240</v>
+        <v>953</v>
       </c>
       <c r="AK12" s="13">
-        <v>953</v>
+        <v>5806</v>
       </c>
       <c r="AL12" s="13">
-        <v>5806</v>
+        <v>3417</v>
       </c>
       <c r="AM12" s="13">
-        <v>3417</v>
+        <v>4765</v>
       </c>
       <c r="AN12" s="13">
-        <v>4765</v>
+        <v>5343</v>
       </c>
       <c r="AO12" s="13">
-        <v>5343</v>
+        <v>4864</v>
       </c>
       <c r="AP12" s="13">
-        <v>4864</v>
+        <v>5793</v>
       </c>
       <c r="AQ12" s="13">
-        <v>5793</v>
+        <v>1518</v>
       </c>
       <c r="AR12" s="13">
-        <v>1518</v>
+        <v>949</v>
       </c>
       <c r="AS12" s="13">
-        <v>949</v>
+        <v>2964</v>
       </c>
       <c r="AT12" s="13">
-        <v>2964</v>
+        <v>1361</v>
       </c>
       <c r="AU12" s="13">
-        <v>1361</v>
+        <v>2161</v>
       </c>
       <c r="AV12" s="13">
-        <v>2161</v>
+        <v>2324</v>
       </c>
       <c r="AW12" s="13">
-        <v>2324</v>
+        <v>1381</v>
       </c>
       <c r="AX12" s="13">
-        <v>1381</v>
+        <v>1722</v>
       </c>
       <c r="AY12" s="13">
-        <v>1722</v>
+        <v>3334</v>
       </c>
       <c r="AZ12" s="13">
-        <v>3334</v>
+        <v>2308</v>
       </c>
       <c r="BA12" s="13">
-        <v>2308</v>
+        <v>2521</v>
       </c>
       <c r="BB12" s="13">
-        <v>1708</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.3">
@@ -1834,77 +1834,77 @@
       <c r="AD13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE13" s="11" t="s">
-        <v>58</v>
+      <c r="AE13" s="11">
+        <v>2136</v>
       </c>
       <c r="AF13" s="11">
-        <v>2136</v>
+        <v>2369</v>
       </c>
       <c r="AG13" s="11">
-        <v>2369</v>
+        <v>1960</v>
       </c>
       <c r="AH13" s="11">
-        <v>1960</v>
+        <v>1436</v>
       </c>
       <c r="AI13" s="11">
-        <v>1436</v>
+        <v>1462</v>
       </c>
       <c r="AJ13" s="11">
-        <v>1462</v>
+        <v>1577</v>
       </c>
       <c r="AK13" s="11">
-        <v>1577</v>
+        <v>2373</v>
       </c>
       <c r="AL13" s="11">
-        <v>2373</v>
+        <v>1691</v>
       </c>
       <c r="AM13" s="11">
-        <v>1691</v>
+        <v>2480</v>
       </c>
       <c r="AN13" s="11">
-        <v>2480</v>
+        <v>2456</v>
       </c>
       <c r="AO13" s="11">
-        <v>2456</v>
+        <v>2796</v>
       </c>
       <c r="AP13" s="11">
-        <v>2796</v>
+        <v>3044</v>
       </c>
       <c r="AQ13" s="11">
-        <v>3044</v>
+        <v>798</v>
       </c>
       <c r="AR13" s="11">
-        <v>798</v>
+        <v>1082</v>
       </c>
       <c r="AS13" s="11">
-        <v>1082</v>
+        <v>1610</v>
       </c>
       <c r="AT13" s="11">
-        <v>1610</v>
+        <v>1122</v>
       </c>
       <c r="AU13" s="11">
-        <v>1122</v>
+        <v>904</v>
       </c>
       <c r="AV13" s="11">
-        <v>904</v>
+        <v>1727</v>
       </c>
       <c r="AW13" s="11">
-        <v>1727</v>
+        <v>2075</v>
       </c>
       <c r="AX13" s="11">
-        <v>2075</v>
+        <v>1300</v>
       </c>
       <c r="AY13" s="11">
-        <v>1300</v>
+        <v>851</v>
       </c>
       <c r="AZ13" s="11">
-        <v>851</v>
+        <v>874</v>
       </c>
       <c r="BA13" s="11">
-        <v>874</v>
+        <v>2328</v>
       </c>
       <c r="BB13" s="11">
-        <v>2328</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
@@ -1992,76 +1992,76 @@
         <v>0</v>
       </c>
       <c r="AE14" s="15">
-        <v>0</v>
+        <v>6631</v>
       </c>
       <c r="AF14" s="15">
-        <v>6631</v>
+        <v>6235</v>
       </c>
       <c r="AG14" s="15">
-        <v>6235</v>
+        <v>7669</v>
       </c>
       <c r="AH14" s="15">
-        <v>7669</v>
+        <v>5326</v>
       </c>
       <c r="AI14" s="15">
-        <v>5326</v>
+        <v>5198</v>
       </c>
       <c r="AJ14" s="15">
-        <v>5198</v>
+        <v>4946</v>
       </c>
       <c r="AK14" s="15">
-        <v>4946</v>
+        <v>10225</v>
       </c>
       <c r="AL14" s="15">
-        <v>10225</v>
+        <v>7043</v>
       </c>
       <c r="AM14" s="15">
-        <v>7043</v>
+        <v>9275</v>
       </c>
       <c r="AN14" s="15">
-        <v>9275</v>
+        <v>10324</v>
       </c>
       <c r="AO14" s="15">
-        <v>10324</v>
+        <v>11489</v>
       </c>
       <c r="AP14" s="15">
-        <v>11489</v>
+        <v>13527</v>
       </c>
       <c r="AQ14" s="15">
-        <v>13527</v>
+        <v>2666</v>
       </c>
       <c r="AR14" s="15">
-        <v>2666</v>
+        <v>2595</v>
       </c>
       <c r="AS14" s="15">
-        <v>2595</v>
+        <v>5904</v>
       </c>
       <c r="AT14" s="15">
-        <v>5904</v>
+        <v>3557</v>
       </c>
       <c r="AU14" s="15">
-        <v>3557</v>
+        <v>4230</v>
       </c>
       <c r="AV14" s="15">
-        <v>4230</v>
+        <v>4773</v>
       </c>
       <c r="AW14" s="15">
-        <v>4773</v>
+        <v>4249</v>
       </c>
       <c r="AX14" s="15">
-        <v>4249</v>
+        <v>4919</v>
       </c>
       <c r="AY14" s="15">
-        <v>4919</v>
+        <v>5154</v>
       </c>
       <c r="AZ14" s="15">
-        <v>5154</v>
+        <v>3976</v>
       </c>
       <c r="BA14" s="15">
-        <v>3976</v>
+        <v>6555</v>
       </c>
       <c r="BB14" s="15">
-        <v>6556</v>
+        <v>6010</v>
       </c>
     </row>
     <row r="15" spans="2:54" x14ac:dyDescent="0.3">
@@ -2207,77 +2207,77 @@
       <c r="AD16" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE16" s="11" t="s">
-        <v>58</v>
+      <c r="AE16" s="11">
+        <v>263</v>
       </c>
       <c r="AF16" s="11">
-        <v>263</v>
+        <v>501</v>
       </c>
       <c r="AG16" s="11">
-        <v>501</v>
+        <v>731</v>
       </c>
       <c r="AH16" s="11">
-        <v>731</v>
+        <v>432</v>
       </c>
       <c r="AI16" s="11">
-        <v>432</v>
+        <v>664</v>
       </c>
       <c r="AJ16" s="11">
-        <v>664</v>
+        <v>1119</v>
       </c>
       <c r="AK16" s="11">
-        <v>1119</v>
+        <v>671</v>
       </c>
       <c r="AL16" s="11">
-        <v>671</v>
+        <v>406</v>
       </c>
       <c r="AM16" s="11">
-        <v>406</v>
+        <v>1126</v>
       </c>
       <c r="AN16" s="11">
-        <v>1126</v>
+        <v>559</v>
       </c>
       <c r="AO16" s="11">
-        <v>559</v>
+        <v>296</v>
       </c>
       <c r="AP16" s="11">
-        <v>296</v>
+        <v>933</v>
       </c>
       <c r="AQ16" s="11">
-        <v>933</v>
+        <v>445</v>
       </c>
       <c r="AR16" s="11">
+        <v>802</v>
+      </c>
+      <c r="AS16" s="11">
+        <v>1349</v>
+      </c>
+      <c r="AT16" s="11">
+        <v>382</v>
+      </c>
+      <c r="AU16" s="11">
         <v>445</v>
       </c>
-      <c r="AS16" s="11">
-        <v>802</v>
-      </c>
-      <c r="AT16" s="11">
-        <v>1349</v>
-      </c>
-      <c r="AU16" s="11">
-        <v>382</v>
-      </c>
       <c r="AV16" s="11">
-        <v>445</v>
+        <v>492</v>
       </c>
       <c r="AW16" s="11">
-        <v>492</v>
+        <v>531</v>
       </c>
       <c r="AX16" s="11">
-        <v>531</v>
+        <v>628</v>
       </c>
       <c r="AY16" s="11">
-        <v>628</v>
+        <v>450</v>
       </c>
       <c r="AZ16" s="11">
-        <v>450</v>
+        <v>307</v>
       </c>
       <c r="BA16" s="11">
-        <v>307</v>
+        <v>448</v>
       </c>
       <c r="BB16" s="11">
-        <v>3280</v>
+        <v>407</v>
       </c>
     </row>
     <row r="17" spans="2:54" x14ac:dyDescent="0.3">
@@ -2366,77 +2366,77 @@
       <c r="AD17" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE17" s="13" t="s">
-        <v>58</v>
+      <c r="AE17" s="13">
+        <v>1552</v>
       </c>
       <c r="AF17" s="13">
-        <v>1552</v>
+        <v>2935</v>
       </c>
       <c r="AG17" s="13">
-        <v>2935</v>
+        <v>1955</v>
       </c>
       <c r="AH17" s="13">
-        <v>1955</v>
+        <v>1113</v>
       </c>
       <c r="AI17" s="13">
-        <v>1113</v>
+        <v>1977</v>
       </c>
       <c r="AJ17" s="13">
-        <v>1977</v>
+        <v>4279</v>
       </c>
       <c r="AK17" s="13">
-        <v>4279</v>
+        <v>943</v>
       </c>
       <c r="AL17" s="13">
-        <v>943</v>
+        <v>1845</v>
       </c>
       <c r="AM17" s="13">
-        <v>1845</v>
+        <v>2023</v>
       </c>
       <c r="AN17" s="13">
-        <v>2023</v>
+        <v>843</v>
       </c>
       <c r="AO17" s="13">
-        <v>843</v>
+        <v>2601</v>
       </c>
       <c r="AP17" s="13">
-        <v>2601</v>
+        <v>1792</v>
       </c>
       <c r="AQ17" s="13">
-        <v>1792</v>
+        <v>659</v>
       </c>
       <c r="AR17" s="13">
-        <v>659</v>
+        <v>1561</v>
       </c>
       <c r="AS17" s="13">
-        <v>1561</v>
+        <v>2926</v>
       </c>
       <c r="AT17" s="13">
-        <v>2926</v>
+        <v>1941</v>
       </c>
       <c r="AU17" s="13">
-        <v>1941</v>
+        <v>1870</v>
       </c>
       <c r="AV17" s="13">
-        <v>1870</v>
+        <v>3377</v>
       </c>
       <c r="AW17" s="13">
-        <v>3377</v>
+        <v>5412</v>
       </c>
       <c r="AX17" s="13">
-        <v>5412</v>
+        <v>5247</v>
       </c>
       <c r="AY17" s="13">
-        <v>5247</v>
+        <v>3035</v>
       </c>
       <c r="AZ17" s="13">
-        <v>3035</v>
+        <v>3493</v>
       </c>
       <c r="BA17" s="13">
-        <v>3493</v>
+        <v>3281</v>
       </c>
       <c r="BB17" s="13">
-        <v>449</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="18" spans="2:54" x14ac:dyDescent="0.3">
@@ -2525,8 +2525,8 @@
       <c r="AD18" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE18" s="11" t="s">
-        <v>58</v>
+      <c r="AE18" s="11">
+        <v>0</v>
       </c>
       <c r="AF18" s="11">
         <v>0</v>
@@ -2544,58 +2544,58 @@
         <v>0</v>
       </c>
       <c r="AK18" s="11">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="AL18" s="11">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="AM18" s="11">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AN18" s="11">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="11">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="AP18" s="11">
-        <v>168</v>
+        <v>22</v>
       </c>
       <c r="AQ18" s="11">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AR18" s="11">
         <v>0</v>
       </c>
       <c r="AS18" s="11">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="AT18" s="11">
-        <v>147</v>
+        <v>62</v>
       </c>
       <c r="AU18" s="11">
-        <v>62</v>
+        <v>407</v>
       </c>
       <c r="AV18" s="11">
-        <v>407</v>
+        <v>151</v>
       </c>
       <c r="AW18" s="11">
-        <v>151</v>
+        <v>357</v>
       </c>
       <c r="AX18" s="11">
-        <v>357</v>
+        <v>143</v>
       </c>
       <c r="AY18" s="11">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="AZ18" s="11">
         <v>0</v>
       </c>
       <c r="BA18" s="11">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="BB18" s="11">
-        <v>102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:54" x14ac:dyDescent="0.3">
@@ -2683,76 +2683,76 @@
         <v>0</v>
       </c>
       <c r="AE19" s="15">
-        <v>0</v>
+        <v>1815</v>
       </c>
       <c r="AF19" s="15">
-        <v>1815</v>
+        <v>3436</v>
       </c>
       <c r="AG19" s="15">
-        <v>3436</v>
+        <v>2686</v>
       </c>
       <c r="AH19" s="15">
-        <v>2686</v>
+        <v>1545</v>
       </c>
       <c r="AI19" s="15">
-        <v>1545</v>
+        <v>2641</v>
       </c>
       <c r="AJ19" s="15">
-        <v>2641</v>
+        <v>5398</v>
       </c>
       <c r="AK19" s="15">
-        <v>5398</v>
+        <v>1745</v>
       </c>
       <c r="AL19" s="15">
-        <v>1745</v>
+        <v>2251</v>
       </c>
       <c r="AM19" s="15">
-        <v>2251</v>
+        <v>3174</v>
       </c>
       <c r="AN19" s="15">
-        <v>3174</v>
+        <v>1402</v>
       </c>
       <c r="AO19" s="15">
-        <v>1402</v>
+        <v>3065</v>
       </c>
       <c r="AP19" s="15">
-        <v>3065</v>
+        <v>2747</v>
       </c>
       <c r="AQ19" s="15">
-        <v>2747</v>
+        <v>1104</v>
       </c>
       <c r="AR19" s="15">
-        <v>1104</v>
+        <v>2363</v>
       </c>
       <c r="AS19" s="15">
-        <v>2363</v>
+        <v>4422</v>
       </c>
       <c r="AT19" s="15">
-        <v>4422</v>
+        <v>2385</v>
       </c>
       <c r="AU19" s="15">
-        <v>2385</v>
+        <v>2722</v>
       </c>
       <c r="AV19" s="15">
-        <v>2722</v>
+        <v>4020</v>
       </c>
       <c r="AW19" s="15">
-        <v>4020</v>
+        <v>6300</v>
       </c>
       <c r="AX19" s="15">
-        <v>6300</v>
+        <v>6018</v>
       </c>
       <c r="AY19" s="15">
-        <v>6018</v>
+        <v>3485</v>
       </c>
       <c r="AZ19" s="15">
-        <v>3485</v>
+        <v>3800</v>
       </c>
       <c r="BA19" s="15">
-        <v>3800</v>
+        <v>3831</v>
       </c>
       <c r="BB19" s="15">
-        <v>3831</v>
+        <v>2681</v>
       </c>
     </row>
     <row r="20" spans="2:54" x14ac:dyDescent="0.3">
@@ -2898,77 +2898,77 @@
       <c r="AD21" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE21" s="11" t="s">
-        <v>58</v>
+      <c r="AE21" s="11">
+        <v>723</v>
       </c>
       <c r="AF21" s="11">
-        <v>723</v>
+        <v>647</v>
       </c>
       <c r="AG21" s="11">
-        <v>647</v>
+        <v>836</v>
       </c>
       <c r="AH21" s="11">
-        <v>836</v>
+        <v>252</v>
       </c>
       <c r="AI21" s="11">
-        <v>252</v>
+        <v>752</v>
       </c>
       <c r="AJ21" s="11">
-        <v>752</v>
+        <v>563</v>
       </c>
       <c r="AK21" s="11">
-        <v>563</v>
+        <v>482</v>
       </c>
       <c r="AL21" s="11">
-        <v>482</v>
+        <v>556</v>
       </c>
       <c r="AM21" s="11">
-        <v>556</v>
+        <v>575</v>
       </c>
       <c r="AN21" s="11">
-        <v>575</v>
+        <v>420</v>
       </c>
       <c r="AO21" s="11">
-        <v>420</v>
+        <v>160</v>
       </c>
       <c r="AP21" s="11">
-        <v>160</v>
+        <v>636</v>
       </c>
       <c r="AQ21" s="11">
-        <v>636</v>
+        <v>529</v>
       </c>
       <c r="AR21" s="11">
-        <v>529</v>
+        <v>159</v>
       </c>
       <c r="AS21" s="11">
         <v>159</v>
       </c>
       <c r="AT21" s="11">
-        <v>159</v>
+        <v>77</v>
       </c>
       <c r="AU21" s="11">
-        <v>77</v>
+        <v>214</v>
       </c>
       <c r="AV21" s="11">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="AW21" s="11">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="AX21" s="11">
-        <v>244</v>
+        <v>156</v>
       </c>
       <c r="AY21" s="11">
-        <v>156</v>
+        <v>208</v>
       </c>
       <c r="AZ21" s="11">
-        <v>208</v>
+        <v>273</v>
       </c>
       <c r="BA21" s="11">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="BB21" s="11">
-        <v>297</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22" spans="2:54" x14ac:dyDescent="0.3">
@@ -3055,8 +3055,8 @@
       <c r="AD22" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AE22" s="15" t="s">
-        <v>58</v>
+      <c r="AE22" s="15">
+        <v>0</v>
       </c>
       <c r="AF22" s="15">
         <v>0</v>
@@ -3213,76 +3213,76 @@
         <v>0</v>
       </c>
       <c r="AE23" s="17">
-        <v>0</v>
+        <v>9169</v>
       </c>
       <c r="AF23" s="17">
-        <v>9169</v>
+        <v>10318</v>
       </c>
       <c r="AG23" s="17">
-        <v>10318</v>
+        <v>11191</v>
       </c>
       <c r="AH23" s="17">
-        <v>11191</v>
+        <v>7123</v>
       </c>
       <c r="AI23" s="17">
-        <v>7123</v>
+        <v>8591</v>
       </c>
       <c r="AJ23" s="17">
-        <v>8591</v>
+        <v>10907</v>
       </c>
       <c r="AK23" s="17">
-        <v>10907</v>
+        <v>12452</v>
       </c>
       <c r="AL23" s="17">
-        <v>12452</v>
+        <v>9850</v>
       </c>
       <c r="AM23" s="17">
-        <v>9850</v>
+        <v>13024</v>
       </c>
       <c r="AN23" s="17">
-        <v>13024</v>
+        <v>12146</v>
       </c>
       <c r="AO23" s="17">
-        <v>12146</v>
+        <v>14714</v>
       </c>
       <c r="AP23" s="17">
-        <v>14714</v>
+        <v>16910</v>
       </c>
       <c r="AQ23" s="17">
-        <v>16910</v>
+        <v>4299</v>
       </c>
       <c r="AR23" s="17">
-        <v>4299</v>
+        <v>5117</v>
       </c>
       <c r="AS23" s="17">
-        <v>5117</v>
+        <v>10485</v>
       </c>
       <c r="AT23" s="17">
-        <v>10485</v>
+        <v>6019</v>
       </c>
       <c r="AU23" s="17">
-        <v>6019</v>
+        <v>7166</v>
       </c>
       <c r="AV23" s="17">
-        <v>7166</v>
+        <v>9019</v>
       </c>
       <c r="AW23" s="17">
-        <v>9019</v>
+        <v>10793</v>
       </c>
       <c r="AX23" s="17">
-        <v>10793</v>
+        <v>11093</v>
       </c>
       <c r="AY23" s="17">
-        <v>11093</v>
+        <v>8847</v>
       </c>
       <c r="AZ23" s="17">
-        <v>8847</v>
+        <v>8049</v>
       </c>
       <c r="BA23" s="17">
-        <v>8049</v>
+        <v>10683</v>
       </c>
       <c r="BB23" s="17">
-        <v>10684</v>
+        <v>8907</v>
       </c>
     </row>
     <row r="24" spans="2:54" x14ac:dyDescent="0.3">
@@ -3805,77 +3805,77 @@
       <c r="AD30" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE30" s="11" t="s">
-        <v>58</v>
+      <c r="AE30" s="11">
+        <v>1727</v>
       </c>
       <c r="AF30" s="11">
-        <v>1727</v>
+        <v>2472</v>
       </c>
       <c r="AG30" s="11">
-        <v>2472</v>
+        <v>2251</v>
       </c>
       <c r="AH30" s="11">
-        <v>2251</v>
+        <v>1339</v>
       </c>
       <c r="AI30" s="11">
-        <v>1339</v>
+        <v>1656</v>
       </c>
       <c r="AJ30" s="11">
-        <v>1656</v>
+        <v>2355</v>
       </c>
       <c r="AK30" s="11">
-        <v>2355</v>
+        <v>1908</v>
       </c>
       <c r="AL30" s="11">
-        <v>1908</v>
+        <v>1810</v>
       </c>
       <c r="AM30" s="11">
-        <v>1810</v>
+        <v>2460</v>
       </c>
       <c r="AN30" s="11">
-        <v>2460</v>
+        <v>2601</v>
       </c>
       <c r="AO30" s="11">
-        <v>2601</v>
+        <v>3314</v>
       </c>
       <c r="AP30" s="11">
-        <v>3314</v>
+        <v>3344</v>
       </c>
       <c r="AQ30" s="11">
-        <v>3344</v>
+        <v>593</v>
       </c>
       <c r="AR30" s="11">
-        <v>593</v>
+        <v>1091</v>
       </c>
       <c r="AS30" s="11">
-        <v>1091</v>
+        <v>1822</v>
       </c>
       <c r="AT30" s="11">
-        <v>1822</v>
+        <v>1095</v>
       </c>
       <c r="AU30" s="11">
-        <v>1095</v>
+        <v>1177</v>
       </c>
       <c r="AV30" s="11">
-        <v>1177</v>
+        <v>538</v>
       </c>
       <c r="AW30" s="11">
-        <v>538</v>
+        <v>840</v>
       </c>
       <c r="AX30" s="11">
-        <v>840</v>
+        <v>1992</v>
       </c>
       <c r="AY30" s="11">
-        <v>1992</v>
+        <v>988</v>
       </c>
       <c r="AZ30" s="11">
-        <v>988</v>
+        <v>906</v>
       </c>
       <c r="BA30" s="11">
-        <v>906</v>
+        <v>1658</v>
       </c>
       <c r="BB30" s="11">
-        <v>2593</v>
+        <v>938</v>
       </c>
     </row>
     <row r="31" spans="2:54" x14ac:dyDescent="0.3">
@@ -3964,77 +3964,77 @@
       <c r="AD31" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE31" s="13" t="s">
-        <v>58</v>
+      <c r="AE31" s="13">
+        <v>1386</v>
       </c>
       <c r="AF31" s="13">
-        <v>1386</v>
+        <v>3294</v>
       </c>
       <c r="AG31" s="13">
-        <v>3294</v>
+        <v>4941</v>
       </c>
       <c r="AH31" s="13">
-        <v>4941</v>
+        <v>487</v>
       </c>
       <c r="AI31" s="13">
-        <v>487</v>
+        <v>3581</v>
       </c>
       <c r="AJ31" s="13">
-        <v>3581</v>
+        <v>1491</v>
       </c>
       <c r="AK31" s="13">
-        <v>1491</v>
+        <v>3865</v>
       </c>
       <c r="AL31" s="13">
-        <v>3865</v>
+        <v>4003</v>
       </c>
       <c r="AM31" s="13">
-        <v>4003</v>
+        <v>4739</v>
       </c>
       <c r="AN31" s="13">
-        <v>4739</v>
+        <v>5171</v>
       </c>
       <c r="AO31" s="13">
-        <v>5171</v>
+        <v>4823</v>
       </c>
       <c r="AP31" s="13">
-        <v>4823</v>
+        <v>5251</v>
       </c>
       <c r="AQ31" s="13">
-        <v>5251</v>
+        <v>663</v>
       </c>
       <c r="AR31" s="13">
-        <v>663</v>
+        <v>2187</v>
       </c>
       <c r="AS31" s="13">
-        <v>2187</v>
+        <v>2894</v>
       </c>
       <c r="AT31" s="13">
-        <v>2894</v>
+        <v>2125</v>
       </c>
       <c r="AU31" s="13">
-        <v>2125</v>
+        <v>3550</v>
       </c>
       <c r="AV31" s="13">
-        <v>3550</v>
+        <v>1556</v>
       </c>
       <c r="AW31" s="13">
-        <v>1556</v>
+        <v>1721</v>
       </c>
       <c r="AX31" s="13">
-        <v>1721</v>
+        <v>1703</v>
       </c>
       <c r="AY31" s="13">
-        <v>1703</v>
+        <v>2730</v>
       </c>
       <c r="AZ31" s="13">
-        <v>2730</v>
+        <v>2886</v>
       </c>
       <c r="BA31" s="13">
-        <v>2886</v>
+        <v>2592</v>
       </c>
       <c r="BB31" s="13">
-        <v>1659</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="32" spans="2:54" x14ac:dyDescent="0.3">
@@ -4123,77 +4123,77 @@
       <c r="AD32" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE32" s="11" t="s">
-        <v>58</v>
+      <c r="AE32" s="11">
+        <v>1292</v>
       </c>
       <c r="AF32" s="11">
-        <v>1292</v>
+        <v>2194</v>
       </c>
       <c r="AG32" s="11">
-        <v>2194</v>
+        <v>2850</v>
       </c>
       <c r="AH32" s="11">
-        <v>2850</v>
+        <v>687</v>
       </c>
       <c r="AI32" s="11">
-        <v>687</v>
+        <v>1496</v>
       </c>
       <c r="AJ32" s="11">
-        <v>1496</v>
+        <v>2043</v>
       </c>
       <c r="AK32" s="11">
-        <v>2043</v>
+        <v>2109</v>
       </c>
       <c r="AL32" s="11">
-        <v>2109</v>
+        <v>1625</v>
       </c>
       <c r="AM32" s="11">
-        <v>1625</v>
+        <v>2766</v>
       </c>
       <c r="AN32" s="11">
-        <v>2766</v>
+        <v>2382</v>
       </c>
       <c r="AO32" s="11">
-        <v>2382</v>
+        <v>2626</v>
       </c>
       <c r="AP32" s="11">
-        <v>2626</v>
+        <v>2314</v>
       </c>
       <c r="AQ32" s="11">
-        <v>2314</v>
+        <v>949</v>
       </c>
       <c r="AR32" s="11">
-        <v>949</v>
+        <v>757</v>
       </c>
       <c r="AS32" s="11">
-        <v>757</v>
+        <v>1747</v>
       </c>
       <c r="AT32" s="11">
-        <v>1747</v>
+        <v>1036</v>
       </c>
       <c r="AU32" s="11">
-        <v>1036</v>
+        <v>1932</v>
       </c>
       <c r="AV32" s="11">
-        <v>1932</v>
+        <v>781</v>
       </c>
       <c r="AW32" s="11">
-        <v>781</v>
+        <v>1982</v>
       </c>
       <c r="AX32" s="11">
-        <v>1982</v>
+        <v>1551</v>
       </c>
       <c r="AY32" s="11">
-        <v>1551</v>
+        <v>808</v>
       </c>
       <c r="AZ32" s="11">
-        <v>808</v>
+        <v>1234</v>
       </c>
       <c r="BA32" s="11">
-        <v>1234</v>
+        <v>2164</v>
       </c>
       <c r="BB32" s="11">
-        <v>2164</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="33" spans="2:54" x14ac:dyDescent="0.3">
@@ -4281,76 +4281,76 @@
         <v>0</v>
       </c>
       <c r="AE33" s="15">
-        <v>0</v>
+        <v>4405</v>
       </c>
       <c r="AF33" s="15">
-        <v>4405</v>
+        <v>7960</v>
       </c>
       <c r="AG33" s="15">
-        <v>7960</v>
+        <v>10042</v>
       </c>
       <c r="AH33" s="15">
-        <v>10042</v>
+        <v>2513</v>
       </c>
       <c r="AI33" s="15">
-        <v>2513</v>
+        <v>6733</v>
       </c>
       <c r="AJ33" s="15">
-        <v>6733</v>
+        <v>5889</v>
       </c>
       <c r="AK33" s="15">
-        <v>5889</v>
+        <v>7882</v>
       </c>
       <c r="AL33" s="15">
-        <v>7882</v>
+        <v>7438</v>
       </c>
       <c r="AM33" s="15">
-        <v>7438</v>
+        <v>9965</v>
       </c>
       <c r="AN33" s="15">
-        <v>9965</v>
+        <v>10154</v>
       </c>
       <c r="AO33" s="15">
-        <v>10154</v>
+        <v>10763</v>
       </c>
       <c r="AP33" s="15">
-        <v>10763</v>
+        <v>10909</v>
       </c>
       <c r="AQ33" s="15">
-        <v>10909</v>
+        <v>2205</v>
       </c>
       <c r="AR33" s="15">
-        <v>2205</v>
+        <v>4035</v>
       </c>
       <c r="AS33" s="15">
-        <v>4035</v>
+        <v>6463</v>
       </c>
       <c r="AT33" s="15">
-        <v>6463</v>
+        <v>4256</v>
       </c>
       <c r="AU33" s="15">
-        <v>4256</v>
+        <v>6659</v>
       </c>
       <c r="AV33" s="15">
-        <v>6659</v>
+        <v>2875</v>
       </c>
       <c r="AW33" s="15">
-        <v>2875</v>
+        <v>4543</v>
       </c>
       <c r="AX33" s="15">
-        <v>4543</v>
+        <v>5246</v>
       </c>
       <c r="AY33" s="15">
-        <v>5246</v>
+        <v>4526</v>
       </c>
       <c r="AZ33" s="15">
-        <v>4526</v>
+        <v>5026</v>
       </c>
       <c r="BA33" s="15">
-        <v>5026</v>
+        <v>6414</v>
       </c>
       <c r="BB33" s="15">
-        <v>6416</v>
+        <v>4691</v>
       </c>
     </row>
     <row r="34" spans="2:54" x14ac:dyDescent="0.3">
@@ -4496,77 +4496,77 @@
       <c r="AD35" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE35" s="11" t="s">
-        <v>58</v>
+      <c r="AE35" s="11">
+        <v>208</v>
       </c>
       <c r="AF35" s="11">
-        <v>208</v>
+        <v>320</v>
       </c>
       <c r="AG35" s="11">
-        <v>320</v>
+        <v>790</v>
       </c>
       <c r="AH35" s="11">
-        <v>790</v>
+        <v>324</v>
       </c>
       <c r="AI35" s="11">
-        <v>324</v>
+        <v>762</v>
       </c>
       <c r="AJ35" s="11">
-        <v>762</v>
+        <v>1197</v>
       </c>
       <c r="AK35" s="11">
-        <v>1197</v>
+        <v>652</v>
       </c>
       <c r="AL35" s="11">
-        <v>652</v>
+        <v>493</v>
       </c>
       <c r="AM35" s="11">
-        <v>493</v>
+        <v>792</v>
       </c>
       <c r="AN35" s="11">
-        <v>792</v>
+        <v>608</v>
       </c>
       <c r="AO35" s="11">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="AP35" s="11">
-        <v>597</v>
+        <v>907</v>
       </c>
       <c r="AQ35" s="11">
-        <v>907</v>
+        <v>487</v>
       </c>
       <c r="AR35" s="11">
-        <v>487</v>
+        <v>657</v>
       </c>
       <c r="AS35" s="11">
-        <v>657</v>
+        <v>1477</v>
       </c>
       <c r="AT35" s="11">
-        <v>1477</v>
+        <v>301</v>
       </c>
       <c r="AU35" s="11">
-        <v>301</v>
+        <v>531</v>
       </c>
       <c r="AV35" s="11">
-        <v>531</v>
+        <v>302</v>
       </c>
       <c r="AW35" s="11">
-        <v>302</v>
+        <v>609</v>
       </c>
       <c r="AX35" s="11">
-        <v>609</v>
+        <v>588</v>
       </c>
       <c r="AY35" s="11">
-        <v>588</v>
+        <v>424</v>
       </c>
       <c r="AZ35" s="11">
-        <v>424</v>
+        <v>268</v>
       </c>
       <c r="BA35" s="11">
-        <v>268</v>
+        <v>-2343</v>
       </c>
       <c r="BB35" s="11">
-        <v>2647</v>
+        <v>3456</v>
       </c>
     </row>
     <row r="36" spans="2:54" x14ac:dyDescent="0.3">
@@ -4655,77 +4655,77 @@
       <c r="AD36" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE36" s="13" t="s">
-        <v>58</v>
+      <c r="AE36" s="13">
+        <v>1158</v>
       </c>
       <c r="AF36" s="13">
-        <v>1158</v>
+        <v>2150</v>
       </c>
       <c r="AG36" s="13">
-        <v>2150</v>
+        <v>2074</v>
       </c>
       <c r="AH36" s="13">
-        <v>2074</v>
+        <v>1164</v>
       </c>
       <c r="AI36" s="13">
-        <v>1164</v>
+        <v>2275</v>
       </c>
       <c r="AJ36" s="13">
-        <v>2275</v>
+        <v>2933</v>
       </c>
       <c r="AK36" s="13">
-        <v>2933</v>
+        <v>1867</v>
       </c>
       <c r="AL36" s="13">
-        <v>1867</v>
+        <v>1201</v>
       </c>
       <c r="AM36" s="13">
-        <v>1201</v>
+        <v>2698</v>
       </c>
       <c r="AN36" s="13">
-        <v>2698</v>
+        <v>1422</v>
       </c>
       <c r="AO36" s="13">
-        <v>1422</v>
+        <v>2284</v>
       </c>
       <c r="AP36" s="13">
-        <v>2284</v>
+        <v>2922</v>
       </c>
       <c r="AQ36" s="13">
-        <v>2922</v>
+        <v>171</v>
       </c>
       <c r="AR36" s="13">
-        <v>171</v>
+        <v>1270</v>
       </c>
       <c r="AS36" s="13">
-        <v>1270</v>
+        <v>2211</v>
       </c>
       <c r="AT36" s="13">
-        <v>2211</v>
+        <v>2248</v>
       </c>
       <c r="AU36" s="13">
-        <v>2248</v>
+        <v>2181</v>
       </c>
       <c r="AV36" s="13">
-        <v>2181</v>
+        <v>2998</v>
       </c>
       <c r="AW36" s="13">
-        <v>2998</v>
+        <v>4842</v>
       </c>
       <c r="AX36" s="13">
-        <v>4842</v>
+        <v>5153</v>
       </c>
       <c r="AY36" s="13">
-        <v>5153</v>
+        <v>4123</v>
       </c>
       <c r="AZ36" s="13">
-        <v>4123</v>
+        <v>2892</v>
       </c>
       <c r="BA36" s="13">
-        <v>2892</v>
+        <v>5221</v>
       </c>
       <c r="BB36" s="13">
-        <v>230</v>
+        <v>883</v>
       </c>
     </row>
     <row r="37" spans="2:54" x14ac:dyDescent="0.3">
@@ -4814,77 +4814,77 @@
       <c r="AD37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE37" s="11" t="s">
-        <v>58</v>
+      <c r="AE37" s="11">
+        <v>0</v>
       </c>
       <c r="AF37" s="11">
         <v>0</v>
       </c>
       <c r="AG37" s="11">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AH37" s="11">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AI37" s="11">
         <v>0</v>
       </c>
       <c r="AJ37" s="11">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AK37" s="11">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AL37" s="11">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="AM37" s="11">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="AN37" s="11">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="AO37" s="11">
-        <v>52</v>
+        <v>133</v>
       </c>
       <c r="AP37" s="11">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="AQ37" s="11">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="AR37" s="11">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AS37" s="11">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="AT37" s="11">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="AU37" s="11">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="AV37" s="11">
-        <v>26</v>
+        <v>228</v>
       </c>
       <c r="AW37" s="11">
-        <v>228</v>
+        <v>400</v>
       </c>
       <c r="AX37" s="11">
-        <v>400</v>
+        <v>201</v>
       </c>
       <c r="AY37" s="11">
-        <v>201</v>
+        <v>42</v>
       </c>
       <c r="AZ37" s="11">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="BA37" s="11">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="BB37" s="11">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="2:54" x14ac:dyDescent="0.3">
@@ -4972,76 +4972,76 @@
         <v>0</v>
       </c>
       <c r="AE38" s="15">
-        <v>0</v>
+        <v>1366</v>
       </c>
       <c r="AF38" s="15">
-        <v>1366</v>
+        <v>2470</v>
       </c>
       <c r="AG38" s="15">
-        <v>2470</v>
+        <v>2887</v>
       </c>
       <c r="AH38" s="15">
-        <v>2887</v>
+        <v>1488</v>
       </c>
       <c r="AI38" s="15">
-        <v>1488</v>
+        <v>3037</v>
       </c>
       <c r="AJ38" s="15">
-        <v>3037</v>
+        <v>4148</v>
       </c>
       <c r="AK38" s="15">
-        <v>4148</v>
+        <v>2519</v>
       </c>
       <c r="AL38" s="15">
-        <v>2519</v>
+        <v>1768</v>
       </c>
       <c r="AM38" s="15">
-        <v>1768</v>
+        <v>3519</v>
       </c>
       <c r="AN38" s="15">
-        <v>3519</v>
+        <v>2082</v>
       </c>
       <c r="AO38" s="15">
-        <v>2082</v>
+        <v>3014</v>
       </c>
       <c r="AP38" s="15">
-        <v>3014</v>
+        <v>3992</v>
       </c>
       <c r="AQ38" s="15">
-        <v>3992</v>
+        <v>658</v>
       </c>
       <c r="AR38" s="15">
-        <v>658</v>
+        <v>1987</v>
       </c>
       <c r="AS38" s="15">
-        <v>1987</v>
+        <v>3868</v>
       </c>
       <c r="AT38" s="15">
-        <v>3868</v>
+        <v>2639</v>
       </c>
       <c r="AU38" s="15">
-        <v>2639</v>
+        <v>2738</v>
       </c>
       <c r="AV38" s="15">
-        <v>2738</v>
+        <v>3528</v>
       </c>
       <c r="AW38" s="15">
-        <v>3528</v>
+        <v>5851</v>
       </c>
       <c r="AX38" s="15">
-        <v>5851</v>
+        <v>5942</v>
       </c>
       <c r="AY38" s="15">
-        <v>5942</v>
+        <v>4589</v>
       </c>
       <c r="AZ38" s="15">
-        <v>4589</v>
+        <v>3170</v>
       </c>
       <c r="BA38" s="15">
-        <v>3170</v>
+        <v>2910</v>
       </c>
       <c r="BB38" s="15">
-        <v>2909</v>
+        <v>4358</v>
       </c>
     </row>
     <row r="39" spans="2:54" x14ac:dyDescent="0.3">
@@ -5187,77 +5187,77 @@
       <c r="AD40" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE40" s="11" t="s">
-        <v>58</v>
+      <c r="AE40" s="11">
+        <v>722</v>
       </c>
       <c r="AF40" s="11">
-        <v>722</v>
+        <v>647</v>
       </c>
       <c r="AG40" s="11">
-        <v>647</v>
+        <v>836</v>
       </c>
       <c r="AH40" s="11">
-        <v>836</v>
+        <v>252</v>
       </c>
       <c r="AI40" s="11">
-        <v>252</v>
+        <v>752</v>
       </c>
       <c r="AJ40" s="11">
-        <v>752</v>
+        <v>553</v>
       </c>
       <c r="AK40" s="11">
-        <v>553</v>
+        <v>401</v>
       </c>
       <c r="AL40" s="11">
-        <v>401</v>
+        <v>503</v>
       </c>
       <c r="AM40" s="11">
-        <v>503</v>
+        <v>575</v>
       </c>
       <c r="AN40" s="11">
-        <v>575</v>
+        <v>352</v>
       </c>
       <c r="AO40" s="11">
-        <v>352</v>
+        <v>103</v>
       </c>
       <c r="AP40" s="11">
-        <v>103</v>
+        <v>904</v>
       </c>
       <c r="AQ40" s="11">
-        <v>904</v>
+        <v>529</v>
       </c>
       <c r="AR40" s="11">
-        <v>529</v>
+        <v>158</v>
       </c>
       <c r="AS40" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AT40" s="11">
-        <v>159</v>
+        <v>78</v>
       </c>
       <c r="AU40" s="11">
-        <v>78</v>
+        <v>214</v>
       </c>
       <c r="AV40" s="11">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="AW40" s="11">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="AX40" s="11">
-        <v>244</v>
+        <v>156</v>
       </c>
       <c r="AY40" s="11">
-        <v>156</v>
+        <v>208</v>
       </c>
       <c r="AZ40" s="11">
-        <v>208</v>
+        <v>273</v>
       </c>
       <c r="BA40" s="11">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="BB40" s="11">
-        <v>297</v>
+        <v>216</v>
       </c>
     </row>
     <row r="41" spans="2:54" x14ac:dyDescent="0.3">
@@ -5344,77 +5344,77 @@
       <c r="AD41" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AE41" s="15" t="s">
-        <v>58</v>
+      <c r="AE41" s="15">
+        <v>722</v>
       </c>
       <c r="AF41" s="15">
-        <v>722</v>
+        <v>647</v>
       </c>
       <c r="AG41" s="15">
-        <v>647</v>
+        <v>836</v>
       </c>
       <c r="AH41" s="15">
-        <v>836</v>
+        <v>252</v>
       </c>
       <c r="AI41" s="15">
-        <v>252</v>
+        <v>752</v>
       </c>
       <c r="AJ41" s="15">
-        <v>752</v>
+        <v>553</v>
       </c>
       <c r="AK41" s="15">
-        <v>553</v>
+        <v>401</v>
       </c>
       <c r="AL41" s="15">
-        <v>401</v>
+        <v>503</v>
       </c>
       <c r="AM41" s="15">
-        <v>503</v>
+        <v>575</v>
       </c>
       <c r="AN41" s="15">
-        <v>575</v>
+        <v>352</v>
       </c>
       <c r="AO41" s="15">
-        <v>352</v>
+        <v>103</v>
       </c>
       <c r="AP41" s="15">
-        <v>103</v>
+        <v>904</v>
       </c>
       <c r="AQ41" s="15">
-        <v>904</v>
+        <v>529</v>
       </c>
       <c r="AR41" s="15">
-        <v>529</v>
+        <v>158</v>
       </c>
       <c r="AS41" s="15">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AT41" s="15">
-        <v>159</v>
+        <v>78</v>
       </c>
       <c r="AU41" s="15">
-        <v>78</v>
+        <v>214</v>
       </c>
       <c r="AV41" s="15">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="AW41" s="15">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="AX41" s="15">
-        <v>244</v>
+        <v>156</v>
       </c>
       <c r="AY41" s="15">
-        <v>156</v>
+        <v>208</v>
       </c>
       <c r="AZ41" s="15">
-        <v>208</v>
+        <v>273</v>
       </c>
       <c r="BA41" s="15">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="BB41" s="15">
-        <v>297</v>
+        <v>216</v>
       </c>
     </row>
     <row r="42" spans="2:54" x14ac:dyDescent="0.3">
@@ -5558,8 +5558,8 @@
       <c r="AD43" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="AE43" s="17" t="s">
-        <v>58</v>
+      <c r="AE43" s="17">
+        <v>0</v>
       </c>
       <c r="AF43" s="17">
         <v>0</v>
@@ -5716,76 +5716,76 @@
         <v>0</v>
       </c>
       <c r="AE44" s="15">
-        <v>0</v>
+        <v>6493</v>
       </c>
       <c r="AF44" s="15">
-        <v>6493</v>
+        <v>11077</v>
       </c>
       <c r="AG44" s="15">
-        <v>11077</v>
+        <v>13765</v>
       </c>
       <c r="AH44" s="15">
-        <v>13765</v>
+        <v>4253</v>
       </c>
       <c r="AI44" s="15">
-        <v>4253</v>
+        <v>10522</v>
       </c>
       <c r="AJ44" s="15">
-        <v>10522</v>
+        <v>10590</v>
       </c>
       <c r="AK44" s="15">
-        <v>10590</v>
+        <v>10802</v>
       </c>
       <c r="AL44" s="15">
-        <v>10802</v>
+        <v>9709</v>
       </c>
       <c r="AM44" s="15">
-        <v>9709</v>
+        <v>14059</v>
       </c>
       <c r="AN44" s="15">
-        <v>14059</v>
+        <v>12588</v>
       </c>
       <c r="AO44" s="15">
-        <v>12588</v>
+        <v>13880</v>
       </c>
       <c r="AP44" s="15">
-        <v>13880</v>
+        <v>15805</v>
       </c>
       <c r="AQ44" s="15">
-        <v>15805</v>
+        <v>3392</v>
       </c>
       <c r="AR44" s="15">
-        <v>3392</v>
+        <v>6180</v>
       </c>
       <c r="AS44" s="15">
-        <v>6180</v>
+        <v>10490</v>
       </c>
       <c r="AT44" s="15">
-        <v>10490</v>
+        <v>6973</v>
       </c>
       <c r="AU44" s="15">
-        <v>6973</v>
+        <v>9611</v>
       </c>
       <c r="AV44" s="15">
-        <v>9611</v>
+        <v>6629</v>
       </c>
       <c r="AW44" s="15">
-        <v>6629</v>
+        <v>10638</v>
       </c>
       <c r="AX44" s="15">
-        <v>10638</v>
+        <v>11344</v>
       </c>
       <c r="AY44" s="15">
-        <v>11344</v>
+        <v>9323</v>
       </c>
       <c r="AZ44" s="15">
-        <v>9323</v>
+        <v>8469</v>
       </c>
       <c r="BA44" s="15">
-        <v>8469</v>
+        <v>9621</v>
       </c>
       <c r="BB44" s="15">
-        <v>9622</v>
+        <v>9265</v>
       </c>
     </row>
     <row r="45" spans="2:54" x14ac:dyDescent="0.3">
@@ -6308,77 +6308,77 @@
       <c r="AD51" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE51" s="11" t="s">
-        <v>58</v>
+      <c r="AE51" s="11">
+        <v>426507</v>
       </c>
       <c r="AF51" s="11">
-        <v>426507</v>
+        <v>563643</v>
       </c>
       <c r="AG51" s="11">
-        <v>563643</v>
+        <v>502592</v>
       </c>
       <c r="AH51" s="11">
-        <v>502592</v>
+        <v>341708</v>
       </c>
       <c r="AI51" s="11">
-        <v>341708</v>
+        <v>424014</v>
       </c>
       <c r="AJ51" s="11">
-        <v>424014</v>
+        <v>609518</v>
       </c>
       <c r="AK51" s="11">
-        <v>609518</v>
+        <v>524669</v>
       </c>
       <c r="AL51" s="11">
-        <v>524669</v>
+        <v>508142</v>
       </c>
       <c r="AM51" s="11">
-        <v>508142</v>
+        <v>726672</v>
       </c>
       <c r="AN51" s="11">
-        <v>726672</v>
+        <v>796612</v>
       </c>
       <c r="AO51" s="11">
-        <v>796612</v>
+        <v>1030432</v>
       </c>
       <c r="AP51" s="11">
-        <v>1030432</v>
+        <v>978855</v>
       </c>
       <c r="AQ51" s="11">
-        <v>978855</v>
+        <v>179053</v>
       </c>
       <c r="AR51" s="11">
-        <v>179053</v>
+        <v>362784</v>
       </c>
       <c r="AS51" s="11">
-        <v>362784</v>
+        <v>571523</v>
       </c>
       <c r="AT51" s="11">
-        <v>571523</v>
+        <v>379531</v>
       </c>
       <c r="AU51" s="11">
-        <v>379531</v>
+        <v>435023</v>
       </c>
       <c r="AV51" s="11">
-        <v>435023</v>
+        <v>277967</v>
       </c>
       <c r="AW51" s="11">
-        <v>277967</v>
+        <v>391824</v>
       </c>
       <c r="AX51" s="11">
-        <v>391824</v>
+        <v>879783</v>
       </c>
       <c r="AY51" s="11">
-        <v>879783</v>
+        <v>470894</v>
       </c>
       <c r="AZ51" s="11">
-        <v>470894</v>
+        <v>398872</v>
       </c>
       <c r="BA51" s="11">
-        <v>398872</v>
+        <v>701868</v>
       </c>
       <c r="BB51" s="11">
-        <v>610408</v>
+        <v>347896</v>
       </c>
     </row>
     <row r="52" spans="2:54" x14ac:dyDescent="0.3">
@@ -6467,77 +6467,77 @@
       <c r="AD52" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE52" s="13" t="s">
-        <v>58</v>
+      <c r="AE52" s="13">
+        <v>214049</v>
       </c>
       <c r="AF52" s="13">
-        <v>214049</v>
+        <v>478020</v>
       </c>
       <c r="AG52" s="13">
-        <v>478020</v>
+        <v>723772</v>
       </c>
       <c r="AH52" s="13">
-        <v>723772</v>
+        <v>68513</v>
       </c>
       <c r="AI52" s="13">
-        <v>68513</v>
+        <v>527153</v>
       </c>
       <c r="AJ52" s="13">
-        <v>527153</v>
+        <v>217512</v>
       </c>
       <c r="AK52" s="13">
-        <v>217512</v>
+        <v>716160</v>
       </c>
       <c r="AL52" s="13">
-        <v>716160</v>
+        <v>715718</v>
       </c>
       <c r="AM52" s="13">
-        <v>715718</v>
+        <v>876179</v>
       </c>
       <c r="AN52" s="13">
-        <v>876179</v>
+        <v>931141</v>
       </c>
       <c r="AO52" s="13">
-        <v>931141</v>
+        <v>868792</v>
       </c>
       <c r="AP52" s="13">
-        <v>868792</v>
+        <v>899432</v>
       </c>
       <c r="AQ52" s="13">
-        <v>899432</v>
+        <v>102005</v>
       </c>
       <c r="AR52" s="13">
-        <v>102005</v>
+        <v>405426</v>
       </c>
       <c r="AS52" s="13">
-        <v>405426</v>
+        <v>549223</v>
       </c>
       <c r="AT52" s="13">
-        <v>549223</v>
+        <v>361734</v>
       </c>
       <c r="AU52" s="13">
-        <v>361734</v>
+        <v>594727</v>
       </c>
       <c r="AV52" s="13">
-        <v>594727</v>
+        <v>316991</v>
       </c>
       <c r="AW52" s="13">
-        <v>316991</v>
+        <v>428137</v>
       </c>
       <c r="AX52" s="13">
-        <v>428137</v>
+        <v>396907</v>
       </c>
       <c r="AY52" s="13">
-        <v>396907</v>
+        <v>606996</v>
       </c>
       <c r="AZ52" s="13">
-        <v>606996</v>
+        <v>624171</v>
       </c>
       <c r="BA52" s="13">
-        <v>624171</v>
+        <v>440990</v>
       </c>
       <c r="BB52" s="13">
-        <v>701868</v>
+        <v>565566</v>
       </c>
     </row>
     <row r="53" spans="2:54" x14ac:dyDescent="0.3">
@@ -6626,77 +6626,77 @@
       <c r="AD53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE53" s="11" t="s">
-        <v>58</v>
+      <c r="AE53" s="11">
+        <v>383315</v>
       </c>
       <c r="AF53" s="11">
-        <v>383315</v>
+        <v>651915</v>
       </c>
       <c r="AG53" s="11">
-        <v>651915</v>
+        <v>851474</v>
       </c>
       <c r="AH53" s="11">
-        <v>851474</v>
+        <v>204053</v>
       </c>
       <c r="AI53" s="11">
-        <v>204053</v>
+        <v>450202</v>
       </c>
       <c r="AJ53" s="11">
-        <v>450202</v>
+        <v>665146</v>
       </c>
       <c r="AK53" s="11">
-        <v>665146</v>
+        <v>780093</v>
       </c>
       <c r="AL53" s="11">
-        <v>780093</v>
+        <v>597082</v>
       </c>
       <c r="AM53" s="11">
-        <v>597082</v>
+        <v>1026378</v>
       </c>
       <c r="AN53" s="11">
-        <v>1026378</v>
+        <v>879144</v>
       </c>
       <c r="AO53" s="11">
-        <v>879144</v>
+        <v>965464</v>
       </c>
       <c r="AP53" s="11">
-        <v>965464</v>
+        <v>843452</v>
       </c>
       <c r="AQ53" s="11">
-        <v>843452</v>
+        <v>346199</v>
       </c>
       <c r="AR53" s="11">
-        <v>346199</v>
+        <v>280421</v>
       </c>
       <c r="AS53" s="11">
-        <v>280421</v>
+        <v>655467</v>
       </c>
       <c r="AT53" s="11">
-        <v>655467</v>
+        <v>384906</v>
       </c>
       <c r="AU53" s="11">
-        <v>384906</v>
+        <v>716041</v>
       </c>
       <c r="AV53" s="11">
-        <v>716041</v>
+        <v>353484</v>
       </c>
       <c r="AW53" s="11">
-        <v>353484</v>
+        <v>899362</v>
       </c>
       <c r="AX53" s="11">
-        <v>899362</v>
+        <v>703266</v>
       </c>
       <c r="AY53" s="11">
-        <v>703266</v>
+        <v>373371</v>
       </c>
       <c r="AZ53" s="11">
-        <v>373371</v>
+        <v>618981</v>
       </c>
       <c r="BA53" s="11">
-        <v>618981</v>
+        <v>1173092</v>
       </c>
       <c r="BB53" s="11">
-        <v>1173092</v>
+        <v>605153</v>
       </c>
     </row>
     <row r="54" spans="2:54" x14ac:dyDescent="0.3">
@@ -6784,76 +6784,76 @@
         <v>0</v>
       </c>
       <c r="AE54" s="15">
-        <v>0</v>
+        <v>1023871</v>
       </c>
       <c r="AF54" s="15">
-        <v>1023871</v>
+        <v>1693578</v>
       </c>
       <c r="AG54" s="15">
-        <v>1693578</v>
+        <v>2077838</v>
       </c>
       <c r="AH54" s="15">
-        <v>2077838</v>
+        <v>614274</v>
       </c>
       <c r="AI54" s="15">
-        <v>614274</v>
+        <v>1401369</v>
       </c>
       <c r="AJ54" s="15">
-        <v>1401369</v>
+        <v>1492176</v>
       </c>
       <c r="AK54" s="15">
-        <v>1492176</v>
+        <v>2020922</v>
       </c>
       <c r="AL54" s="15">
-        <v>2020922</v>
+        <v>1820942</v>
       </c>
       <c r="AM54" s="15">
-        <v>1820942</v>
+        <v>2629229</v>
       </c>
       <c r="AN54" s="15">
-        <v>2629229</v>
+        <v>2606897</v>
       </c>
       <c r="AO54" s="15">
-        <v>2606897</v>
+        <v>2864688</v>
       </c>
       <c r="AP54" s="15">
-        <v>2864688</v>
+        <v>2721739</v>
       </c>
       <c r="AQ54" s="15">
-        <v>2721739</v>
+        <v>627257</v>
       </c>
       <c r="AR54" s="15">
-        <v>627257</v>
+        <v>1048631</v>
       </c>
       <c r="AS54" s="15">
-        <v>1048631</v>
+        <v>1776213</v>
       </c>
       <c r="AT54" s="15">
-        <v>1776213</v>
+        <v>1126171</v>
       </c>
       <c r="AU54" s="15">
-        <v>1126171</v>
+        <v>1745791</v>
       </c>
       <c r="AV54" s="15">
-        <v>1745791</v>
+        <v>948442</v>
       </c>
       <c r="AW54" s="15">
-        <v>948442</v>
+        <v>1719323</v>
       </c>
       <c r="AX54" s="15">
-        <v>1719323</v>
+        <v>1979956</v>
       </c>
       <c r="AY54" s="15">
-        <v>1979956</v>
+        <v>1451261</v>
       </c>
       <c r="AZ54" s="15">
-        <v>1451261</v>
+        <v>1642024</v>
       </c>
       <c r="BA54" s="15">
-        <v>1642024</v>
+        <v>2315950</v>
       </c>
       <c r="BB54" s="15">
-        <v>2485368</v>
+        <v>1518615</v>
       </c>
     </row>
     <row r="55" spans="2:54" x14ac:dyDescent="0.3">
@@ -6999,77 +6999,77 @@
       <c r="AD56" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE56" s="11" t="s">
-        <v>58</v>
+      <c r="AE56" s="11">
+        <v>50099</v>
       </c>
       <c r="AF56" s="11">
-        <v>50099</v>
+        <v>87098</v>
       </c>
       <c r="AG56" s="11">
-        <v>87098</v>
+        <v>153389</v>
       </c>
       <c r="AH56" s="11">
-        <v>153389</v>
+        <v>72371</v>
       </c>
       <c r="AI56" s="11">
-        <v>72371</v>
+        <v>117566</v>
       </c>
       <c r="AJ56" s="11">
-        <v>117566</v>
+        <v>244892</v>
       </c>
       <c r="AK56" s="11">
-        <v>244892</v>
+        <v>165831</v>
       </c>
       <c r="AL56" s="11">
-        <v>165831</v>
+        <v>128248</v>
       </c>
       <c r="AM56" s="11">
-        <v>128248</v>
+        <v>206607</v>
       </c>
       <c r="AN56" s="11">
-        <v>206607</v>
+        <v>134891</v>
       </c>
       <c r="AO56" s="11">
-        <v>134891</v>
+        <v>89160</v>
       </c>
       <c r="AP56" s="11">
-        <v>89160</v>
+        <v>114051</v>
       </c>
       <c r="AQ56" s="11">
-        <v>114051</v>
+        <v>135013</v>
       </c>
       <c r="AR56" s="11">
-        <v>135013</v>
+        <v>192762</v>
       </c>
       <c r="AS56" s="11">
-        <v>192762</v>
+        <v>360323</v>
       </c>
       <c r="AT56" s="11">
-        <v>360323</v>
+        <v>85650</v>
       </c>
       <c r="AU56" s="11">
-        <v>85650</v>
+        <v>151974</v>
       </c>
       <c r="AV56" s="11">
-        <v>151974</v>
+        <v>61392</v>
       </c>
       <c r="AW56" s="11">
-        <v>61392</v>
+        <v>163388</v>
       </c>
       <c r="AX56" s="11">
-        <v>163388</v>
+        <v>190960</v>
       </c>
       <c r="AY56" s="11">
-        <v>190960</v>
+        <v>55645</v>
       </c>
       <c r="AZ56" s="11">
-        <v>55645</v>
+        <v>36405</v>
       </c>
       <c r="BA56" s="11">
-        <v>36405</v>
+        <v>40545</v>
       </c>
       <c r="BB56" s="11">
-        <v>235499</v>
+        <v>215785</v>
       </c>
     </row>
     <row r="57" spans="2:54" x14ac:dyDescent="0.3">
@@ -7158,77 +7158,77 @@
       <c r="AD57" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE57" s="13" t="s">
-        <v>58</v>
+      <c r="AE57" s="13">
+        <v>58644</v>
       </c>
       <c r="AF57" s="13">
-        <v>58644</v>
+        <v>107459</v>
       </c>
       <c r="AG57" s="13">
-        <v>107459</v>
+        <v>118890</v>
       </c>
       <c r="AH57" s="13">
-        <v>118890</v>
+        <v>67938</v>
       </c>
       <c r="AI57" s="13">
-        <v>67938</v>
+        <v>129750</v>
       </c>
       <c r="AJ57" s="13">
-        <v>129750</v>
+        <v>182274</v>
       </c>
       <c r="AK57" s="13">
-        <v>182274</v>
+        <v>122789</v>
       </c>
       <c r="AL57" s="13">
-        <v>122789</v>
+        <v>82821</v>
       </c>
       <c r="AM57" s="13">
-        <v>82821</v>
+        <v>174985</v>
       </c>
       <c r="AN57" s="13">
-        <v>174985</v>
+        <v>95004</v>
       </c>
       <c r="AO57" s="13">
-        <v>95004</v>
+        <v>161916</v>
       </c>
       <c r="AP57" s="13">
-        <v>161916</v>
+        <v>210227</v>
       </c>
       <c r="AQ57" s="13">
-        <v>210227</v>
+        <v>14444</v>
       </c>
       <c r="AR57" s="13">
-        <v>14444</v>
+        <v>86431</v>
       </c>
       <c r="AS57" s="13">
-        <v>86431</v>
+        <v>141425</v>
       </c>
       <c r="AT57" s="13">
-        <v>141425</v>
+        <v>154482</v>
       </c>
       <c r="AU57" s="13">
-        <v>154482</v>
+        <v>-10080</v>
       </c>
       <c r="AV57" s="13">
-        <v>-10080</v>
+        <v>273168</v>
       </c>
       <c r="AW57" s="13">
-        <v>273168</v>
+        <v>241913</v>
       </c>
       <c r="AX57" s="13">
-        <v>411331</v>
+        <v>429446</v>
       </c>
       <c r="AY57" s="13">
-        <v>429446</v>
+        <v>336829</v>
       </c>
       <c r="AZ57" s="13">
-        <v>336829</v>
+        <v>257402</v>
       </c>
       <c r="BA57" s="13">
-        <v>257402</v>
+        <v>404918</v>
       </c>
       <c r="BB57" s="13">
-        <v>40545</v>
+        <v>344568</v>
       </c>
     </row>
     <row r="58" spans="2:54" x14ac:dyDescent="0.3">
@@ -7317,77 +7317,77 @@
       <c r="AD58" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE58" s="11" t="s">
-        <v>58</v>
+      <c r="AE58" s="11">
+        <v>0</v>
       </c>
       <c r="AF58" s="11">
         <v>0</v>
       </c>
       <c r="AG58" s="11">
-        <v>0</v>
+        <v>4036</v>
       </c>
       <c r="AH58" s="11">
-        <v>4036</v>
+        <v>0</v>
       </c>
       <c r="AI58" s="11">
         <v>0</v>
       </c>
       <c r="AJ58" s="11">
-        <v>0</v>
+        <v>4280</v>
       </c>
       <c r="AK58" s="11">
-        <v>4280</v>
+        <v>0</v>
       </c>
       <c r="AL58" s="11">
-        <v>0</v>
+        <v>16209</v>
       </c>
       <c r="AM58" s="11">
-        <v>16209</v>
+        <v>10083</v>
       </c>
       <c r="AN58" s="11">
-        <v>10083</v>
+        <v>13540</v>
       </c>
       <c r="AO58" s="11">
-        <v>13540</v>
+        <v>34289</v>
       </c>
       <c r="AP58" s="11">
-        <v>34289</v>
+        <v>52262</v>
       </c>
       <c r="AQ58" s="11">
-        <v>52262</v>
+        <v>0</v>
       </c>
       <c r="AR58" s="11">
-        <v>0</v>
+        <v>20468</v>
       </c>
       <c r="AS58" s="11">
-        <v>20468</v>
+        <v>57843</v>
       </c>
       <c r="AT58" s="11">
-        <v>57843</v>
+        <v>27799</v>
       </c>
       <c r="AU58" s="11">
-        <v>27799</v>
+        <v>7460</v>
       </c>
       <c r="AV58" s="11">
-        <v>7460</v>
+        <v>96215</v>
       </c>
       <c r="AW58" s="11">
-        <v>96215</v>
+        <v>188631</v>
       </c>
       <c r="AX58" s="11">
-        <v>188631</v>
+        <v>80645</v>
       </c>
       <c r="AY58" s="11">
-        <v>80645</v>
+        <v>15253</v>
       </c>
       <c r="AZ58" s="11">
-        <v>15253</v>
+        <v>4692</v>
       </c>
       <c r="BA58" s="11">
-        <v>4692</v>
+        <v>13430</v>
       </c>
       <c r="BB58" s="11">
-        <v>13430</v>
+        <v>8420</v>
       </c>
     </row>
     <row r="59" spans="2:54" x14ac:dyDescent="0.3">
@@ -7475,76 +7475,76 @@
         <v>0</v>
       </c>
       <c r="AE59" s="15">
-        <v>0</v>
+        <v>108743</v>
       </c>
       <c r="AF59" s="15">
-        <v>108743</v>
+        <v>194557</v>
       </c>
       <c r="AG59" s="15">
-        <v>194557</v>
+        <v>276315</v>
       </c>
       <c r="AH59" s="15">
-        <v>276315</v>
+        <v>140309</v>
       </c>
       <c r="AI59" s="15">
-        <v>140309</v>
+        <v>247316</v>
       </c>
       <c r="AJ59" s="15">
-        <v>247316</v>
+        <v>431446</v>
       </c>
       <c r="AK59" s="15">
-        <v>431446</v>
+        <v>288620</v>
       </c>
       <c r="AL59" s="15">
-        <v>288620</v>
+        <v>227278</v>
       </c>
       <c r="AM59" s="15">
-        <v>227278</v>
+        <v>391675</v>
       </c>
       <c r="AN59" s="15">
-        <v>391675</v>
+        <v>243435</v>
       </c>
       <c r="AO59" s="15">
-        <v>243435</v>
+        <v>285365</v>
       </c>
       <c r="AP59" s="15">
-        <v>285365</v>
+        <v>376540</v>
       </c>
       <c r="AQ59" s="15">
-        <v>376540</v>
+        <v>149457</v>
       </c>
       <c r="AR59" s="15">
-        <v>149457</v>
+        <v>299661</v>
       </c>
       <c r="AS59" s="15">
-        <v>299661</v>
+        <v>559591</v>
       </c>
       <c r="AT59" s="15">
-        <v>559591</v>
+        <v>267931</v>
       </c>
       <c r="AU59" s="15">
-        <v>267931</v>
+        <v>149354</v>
       </c>
       <c r="AV59" s="15">
-        <v>149354</v>
+        <v>430775</v>
       </c>
       <c r="AW59" s="15">
-        <v>430775</v>
+        <v>593932</v>
       </c>
       <c r="AX59" s="15">
-        <v>763350</v>
+        <v>701051</v>
       </c>
       <c r="AY59" s="15">
-        <v>701051</v>
+        <v>407727</v>
       </c>
       <c r="AZ59" s="15">
-        <v>407727</v>
+        <v>298499</v>
       </c>
       <c r="BA59" s="15">
-        <v>298499</v>
+        <v>458893</v>
       </c>
       <c r="BB59" s="15">
-        <v>289474</v>
+        <v>568773</v>
       </c>
     </row>
     <row r="60" spans="2:54" x14ac:dyDescent="0.3">
@@ -7690,77 +7690,77 @@
       <c r="AD61" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE61" s="11" t="s">
-        <v>58</v>
+      <c r="AE61" s="11">
+        <v>13884</v>
       </c>
       <c r="AF61" s="11">
-        <v>13884</v>
+        <v>12532</v>
       </c>
       <c r="AG61" s="11">
-        <v>12532</v>
+        <v>23898</v>
       </c>
       <c r="AH61" s="11">
-        <v>23898</v>
+        <v>6243</v>
       </c>
       <c r="AI61" s="11">
-        <v>6243</v>
+        <v>19423</v>
       </c>
       <c r="AJ61" s="11">
-        <v>19423</v>
+        <v>14021</v>
       </c>
       <c r="AK61" s="11">
-        <v>14021</v>
+        <v>10992</v>
       </c>
       <c r="AL61" s="11">
-        <v>10992</v>
+        <v>13065</v>
       </c>
       <c r="AM61" s="11">
-        <v>13065</v>
+        <v>15243</v>
       </c>
       <c r="AN61" s="11">
-        <v>15243</v>
+        <v>9552</v>
       </c>
       <c r="AO61" s="11">
-        <v>9552</v>
+        <v>2730</v>
       </c>
       <c r="AP61" s="11">
-        <v>2730</v>
+        <v>23960</v>
       </c>
       <c r="AQ61" s="11">
-        <v>23960</v>
+        <v>14514</v>
       </c>
       <c r="AR61" s="11">
-        <v>14514</v>
+        <v>5465</v>
       </c>
       <c r="AS61" s="11">
-        <v>5465</v>
+        <v>5470</v>
       </c>
       <c r="AT61" s="11">
-        <v>5470</v>
+        <v>2705</v>
       </c>
       <c r="AU61" s="11">
-        <v>2705</v>
+        <v>7394</v>
       </c>
       <c r="AV61" s="11">
-        <v>7394</v>
+        <v>7795</v>
       </c>
       <c r="AW61" s="11">
-        <v>7795</v>
+        <v>8456</v>
       </c>
       <c r="AX61" s="11">
-        <v>8456</v>
+        <v>5417</v>
       </c>
       <c r="AY61" s="11">
-        <v>5417</v>
+        <v>7186</v>
       </c>
       <c r="AZ61" s="11">
-        <v>7186</v>
+        <v>9422</v>
       </c>
       <c r="BA61" s="11">
-        <v>9422</v>
+        <v>10239</v>
       </c>
       <c r="BB61" s="11">
-        <v>10239</v>
+        <v>46557</v>
       </c>
     </row>
     <row r="62" spans="2:54" x14ac:dyDescent="0.3">
@@ -7849,77 +7849,77 @@
       <c r="AD62" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AE62" s="15" t="s">
-        <v>58</v>
+      <c r="AE62" s="15">
+        <v>13884</v>
       </c>
       <c r="AF62" s="15">
-        <v>13884</v>
+        <v>12532</v>
       </c>
       <c r="AG62" s="15">
-        <v>12532</v>
+        <v>23898</v>
       </c>
       <c r="AH62" s="15">
-        <v>23898</v>
+        <v>6243</v>
       </c>
       <c r="AI62" s="15">
-        <v>6243</v>
+        <v>19423</v>
       </c>
       <c r="AJ62" s="15">
-        <v>19423</v>
+        <v>14021</v>
       </c>
       <c r="AK62" s="15">
-        <v>14021</v>
+        <v>10992</v>
       </c>
       <c r="AL62" s="15">
-        <v>10992</v>
+        <v>13065</v>
       </c>
       <c r="AM62" s="15">
-        <v>13065</v>
+        <v>15243</v>
       </c>
       <c r="AN62" s="15">
-        <v>15243</v>
+        <v>9552</v>
       </c>
       <c r="AO62" s="15">
-        <v>9552</v>
+        <v>2730</v>
       </c>
       <c r="AP62" s="15">
-        <v>2730</v>
+        <v>23960</v>
       </c>
       <c r="AQ62" s="15">
-        <v>23960</v>
+        <v>14514</v>
       </c>
       <c r="AR62" s="15">
-        <v>14514</v>
+        <v>5465</v>
       </c>
       <c r="AS62" s="15">
-        <v>5465</v>
+        <v>5470</v>
       </c>
       <c r="AT62" s="15">
-        <v>5470</v>
+        <v>2705</v>
       </c>
       <c r="AU62" s="15">
-        <v>2705</v>
+        <v>7394</v>
       </c>
       <c r="AV62" s="15">
-        <v>7394</v>
+        <v>7795</v>
       </c>
       <c r="AW62" s="15">
-        <v>7795</v>
+        <v>8456</v>
       </c>
       <c r="AX62" s="15">
-        <v>8456</v>
+        <v>5417</v>
       </c>
       <c r="AY62" s="15">
-        <v>5417</v>
+        <v>7186</v>
       </c>
       <c r="AZ62" s="15">
-        <v>7186</v>
+        <v>9422</v>
       </c>
       <c r="BA62" s="15">
-        <v>9422</v>
+        <v>10239</v>
       </c>
       <c r="BB62" s="15">
-        <v>10239</v>
+        <v>46557</v>
       </c>
     </row>
     <row r="63" spans="2:54" x14ac:dyDescent="0.3">
@@ -8065,8 +8065,8 @@
       <c r="AD64" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="AE64" s="17" t="s">
-        <v>58</v>
+      <c r="AE64" s="17">
+        <v>0</v>
       </c>
       <c r="AF64" s="17">
         <v>0</v>
@@ -8281,77 +8281,77 @@
       <c r="AD66" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE66" s="11" t="s">
-        <v>58</v>
+      <c r="AE66" s="11">
+        <v>0</v>
       </c>
       <c r="AF66" s="11">
-        <v>-31488</v>
+        <v>0</v>
       </c>
       <c r="AG66" s="11">
-        <v>-56009</v>
+        <v>-170103</v>
       </c>
       <c r="AH66" s="11">
-        <v>-82605</v>
+        <v>-11564</v>
       </c>
       <c r="AI66" s="11">
-        <v>-11564</v>
+        <v>-54416</v>
       </c>
       <c r="AJ66" s="11">
-        <v>-54416</v>
+        <v>-103909</v>
       </c>
       <c r="AK66" s="11">
-        <v>-103909</v>
+        <v>-235607</v>
       </c>
       <c r="AL66" s="11">
-        <v>-235607</v>
+        <v>-161691</v>
       </c>
       <c r="AM66" s="11">
-        <v>-161691</v>
+        <v>-119088</v>
       </c>
       <c r="AN66" s="11">
-        <v>-119088</v>
+        <v>-115277</v>
       </c>
       <c r="AO66" s="11">
-        <v>-115277</v>
+        <v>-112079</v>
       </c>
       <c r="AP66" s="11">
-        <v>-112079</v>
+        <v>-204882</v>
       </c>
       <c r="AQ66" s="11">
-        <v>-204882</v>
+        <v>-36995</v>
       </c>
       <c r="AR66" s="11">
-        <v>-36995</v>
+        <v>-45946</v>
       </c>
       <c r="AS66" s="11">
-        <v>-45946</v>
+        <v>-46192</v>
       </c>
       <c r="AT66" s="11">
-        <v>-46192</v>
+        <v>-16286</v>
       </c>
       <c r="AU66" s="11">
-        <v>-16286</v>
+        <v>-37502</v>
       </c>
       <c r="AV66" s="11">
-        <v>-37502</v>
+        <v>-16386</v>
       </c>
       <c r="AW66" s="11">
-        <v>-16386</v>
+        <v>-40513</v>
       </c>
       <c r="AX66" s="11">
-        <v>-40513</v>
+        <v>-35307</v>
       </c>
       <c r="AY66" s="11">
-        <v>-35307</v>
+        <v>-28490</v>
       </c>
       <c r="AZ66" s="11">
-        <v>-28490</v>
+        <v>-37223</v>
       </c>
       <c r="BA66" s="11">
-        <v>-37223</v>
+        <v>-53821</v>
       </c>
       <c r="BB66" s="11">
-        <v>-53821</v>
+        <v>-25696</v>
       </c>
     </row>
     <row r="67" spans="2:54" x14ac:dyDescent="0.3">
@@ -8439,76 +8439,76 @@
         <v>0</v>
       </c>
       <c r="AE67" s="15">
-        <v>0</v>
+        <v>1146498</v>
       </c>
       <c r="AF67" s="15">
-        <v>1115010</v>
+        <v>1900667</v>
       </c>
       <c r="AG67" s="15">
-        <v>1844658</v>
+        <v>2207948</v>
       </c>
       <c r="AH67" s="15">
-        <v>2295446</v>
+        <v>749262</v>
       </c>
       <c r="AI67" s="15">
-        <v>749262</v>
+        <v>1613692</v>
       </c>
       <c r="AJ67" s="15">
-        <v>1613692</v>
+        <v>1833734</v>
       </c>
       <c r="AK67" s="15">
-        <v>1833734</v>
+        <v>2084927</v>
       </c>
       <c r="AL67" s="15">
-        <v>2084927</v>
+        <v>1899594</v>
       </c>
       <c r="AM67" s="15">
-        <v>1899594</v>
+        <v>2917059</v>
       </c>
       <c r="AN67" s="15">
-        <v>2917059</v>
+        <v>2744607</v>
       </c>
       <c r="AO67" s="15">
-        <v>2744607</v>
+        <v>3040704</v>
       </c>
       <c r="AP67" s="15">
-        <v>3040704</v>
+        <v>2917357</v>
       </c>
       <c r="AQ67" s="15">
-        <v>2917357</v>
+        <v>754233</v>
       </c>
       <c r="AR67" s="15">
-        <v>754233</v>
+        <v>1307811</v>
       </c>
       <c r="AS67" s="15">
-        <v>1307811</v>
+        <v>2295082</v>
       </c>
       <c r="AT67" s="15">
-        <v>2295082</v>
+        <v>1380521</v>
       </c>
       <c r="AU67" s="15">
-        <v>1380521</v>
+        <v>1865037</v>
       </c>
       <c r="AV67" s="15">
-        <v>1865037</v>
+        <v>1370626</v>
       </c>
       <c r="AW67" s="15">
-        <v>1370626</v>
+        <v>2281198</v>
       </c>
       <c r="AX67" s="15">
-        <v>2450616</v>
+        <v>2651117</v>
       </c>
       <c r="AY67" s="15">
-        <v>2651117</v>
+        <v>1837684</v>
       </c>
       <c r="AZ67" s="15">
-        <v>1837684</v>
+        <v>1912722</v>
       </c>
       <c r="BA67" s="15">
-        <v>1912722</v>
+        <v>2731261</v>
       </c>
       <c r="BB67" s="15">
-        <v>2731260</v>
+        <v>2108249</v>
       </c>
     </row>
     <row r="68" spans="2:54" x14ac:dyDescent="0.3">
@@ -9031,77 +9031,77 @@
       <c r="AD74" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE74" s="11" t="s">
-        <v>58</v>
+      <c r="AE74" s="11">
+        <v>246964100</v>
       </c>
       <c r="AF74" s="11">
-        <v>246964100</v>
+        <v>228010922</v>
       </c>
       <c r="AG74" s="11">
-        <v>228010922</v>
+        <v>223274989</v>
       </c>
       <c r="AH74" s="11">
-        <v>223274989</v>
+        <v>255196415</v>
       </c>
       <c r="AI74" s="11">
-        <v>255196415</v>
+        <v>256047101</v>
       </c>
       <c r="AJ74" s="11">
-        <v>256047101</v>
+        <v>258818684</v>
       </c>
       <c r="AK74" s="11">
-        <v>258818684</v>
+        <v>274983753</v>
       </c>
       <c r="AL74" s="11">
-        <v>274983753</v>
+        <v>280741436</v>
       </c>
       <c r="AM74" s="11">
-        <v>280741436</v>
+        <v>295395122</v>
       </c>
       <c r="AN74" s="11">
-        <v>295395122</v>
+        <v>306271434</v>
       </c>
       <c r="AO74" s="11">
-        <v>306271434</v>
+        <v>310933011</v>
       </c>
       <c r="AP74" s="11">
-        <v>310933011</v>
+        <v>292719797</v>
       </c>
       <c r="AQ74" s="11">
-        <v>292719797</v>
+        <v>301944351</v>
       </c>
       <c r="AR74" s="11">
-        <v>301944351</v>
+        <v>332524290</v>
       </c>
       <c r="AS74" s="11">
-        <v>332524290</v>
+        <v>313678924</v>
       </c>
       <c r="AT74" s="11">
-        <v>313678924</v>
+        <v>346603653</v>
       </c>
       <c r="AU74" s="11">
-        <v>346603653</v>
+        <v>369603229</v>
       </c>
       <c r="AV74" s="11">
-        <v>369603229</v>
+        <v>516667286</v>
       </c>
       <c r="AW74" s="11">
-        <v>516667286</v>
+        <v>466457143</v>
       </c>
       <c r="AX74" s="11">
-        <v>466457143</v>
+        <v>441658133</v>
       </c>
       <c r="AY74" s="11">
-        <v>441658133</v>
+        <v>476613360</v>
       </c>
       <c r="AZ74" s="11">
-        <v>476613360</v>
+        <v>440256071</v>
       </c>
       <c r="BA74" s="11">
-        <v>440256071</v>
+        <v>423322075</v>
       </c>
       <c r="BB74" s="11">
-        <v>235406093</v>
+        <v>370891258</v>
       </c>
     </row>
     <row r="75" spans="2:54" x14ac:dyDescent="0.3">
@@ -9190,77 +9190,77 @@
       <c r="AD75" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE75" s="13" t="s">
-        <v>58</v>
+      <c r="AE75" s="13">
+        <v>154436508</v>
       </c>
       <c r="AF75" s="13">
-        <v>154436508</v>
+        <v>145118397</v>
       </c>
       <c r="AG75" s="13">
-        <v>145118397</v>
+        <v>146482898</v>
       </c>
       <c r="AH75" s="13">
-        <v>146482898</v>
+        <v>140683778</v>
       </c>
       <c r="AI75" s="13">
-        <v>140683778</v>
+        <v>147208322</v>
       </c>
       <c r="AJ75" s="13">
-        <v>147208322</v>
+        <v>145883300</v>
       </c>
       <c r="AK75" s="13">
-        <v>145883300</v>
+        <v>185293661</v>
       </c>
       <c r="AL75" s="13">
-        <v>185293661</v>
+        <v>178795403</v>
       </c>
       <c r="AM75" s="13">
-        <v>178795403</v>
+        <v>184886896</v>
       </c>
       <c r="AN75" s="13">
-        <v>184886896</v>
+        <v>180069812</v>
       </c>
       <c r="AO75" s="13">
-        <v>180069812</v>
+        <v>180135186</v>
       </c>
       <c r="AP75" s="13">
-        <v>180135186</v>
+        <v>171287755</v>
       </c>
       <c r="AQ75" s="13">
-        <v>171287755</v>
+        <v>153853695</v>
       </c>
       <c r="AR75" s="13">
-        <v>153853695</v>
+        <v>185379973</v>
       </c>
       <c r="AS75" s="13">
-        <v>185379973</v>
+        <v>189779889</v>
       </c>
       <c r="AT75" s="13">
-        <v>189779889</v>
+        <v>170227765</v>
       </c>
       <c r="AU75" s="13">
-        <v>170227765</v>
+        <v>167528732</v>
       </c>
       <c r="AV75" s="13">
-        <v>167528732</v>
+        <v>203721722</v>
       </c>
       <c r="AW75" s="13">
-        <v>203721722</v>
+        <v>248772225</v>
       </c>
       <c r="AX75" s="13">
-        <v>248772225</v>
+        <v>233063418</v>
       </c>
       <c r="AY75" s="13">
-        <v>233063418</v>
+        <v>222342857</v>
       </c>
       <c r="AZ75" s="13">
-        <v>222342857</v>
+        <v>216275468</v>
       </c>
       <c r="BA75" s="13">
-        <v>216275468</v>
+        <v>170135031</v>
       </c>
       <c r="BB75" s="13">
-        <v>423066908</v>
+        <v>213663015</v>
       </c>
     </row>
     <row r="76" spans="2:54" x14ac:dyDescent="0.3">
@@ -9349,77 +9349,77 @@
       <c r="AD76" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE76" s="11" t="s">
-        <v>58</v>
+      <c r="AE76" s="11">
+        <v>296683437</v>
       </c>
       <c r="AF76" s="11">
-        <v>296683437</v>
+        <v>297135369</v>
       </c>
       <c r="AG76" s="11">
-        <v>297135369</v>
+        <v>298762807</v>
       </c>
       <c r="AH76" s="11">
-        <v>298762807</v>
+        <v>297020378</v>
       </c>
       <c r="AI76" s="11">
-        <v>297020378</v>
+        <v>300937166</v>
       </c>
       <c r="AJ76" s="11">
-        <v>300937166</v>
+        <v>325573177</v>
       </c>
       <c r="AK76" s="11">
-        <v>325573177</v>
+        <v>369887624</v>
       </c>
       <c r="AL76" s="11">
-        <v>369887624</v>
+        <v>367435077</v>
       </c>
       <c r="AM76" s="11">
-        <v>367435077</v>
+        <v>371069414</v>
       </c>
       <c r="AN76" s="11">
-        <v>371069414</v>
+        <v>369078086</v>
       </c>
       <c r="AO76" s="11">
-        <v>369078086</v>
+        <v>367655750</v>
       </c>
       <c r="AP76" s="11">
-        <v>367655750</v>
+        <v>364499568</v>
       </c>
       <c r="AQ76" s="11">
-        <v>364499568</v>
+        <v>364804004</v>
       </c>
       <c r="AR76" s="11">
-        <v>364804004</v>
+        <v>370437252</v>
       </c>
       <c r="AS76" s="11">
-        <v>370437252</v>
+        <v>375195764</v>
       </c>
       <c r="AT76" s="11">
-        <v>375195764</v>
+        <v>371530888</v>
       </c>
       <c r="AU76" s="11">
-        <v>371530888</v>
+        <v>370621636</v>
       </c>
       <c r="AV76" s="11">
-        <v>370621636</v>
+        <v>452604353</v>
       </c>
       <c r="AW76" s="11">
-        <v>452604353</v>
+        <v>453764884</v>
       </c>
       <c r="AX76" s="11">
-        <v>453764884</v>
+        <v>453427466</v>
       </c>
       <c r="AY76" s="11">
-        <v>453427466</v>
+        <v>462092822</v>
       </c>
       <c r="AZ76" s="11">
-        <v>462092822</v>
+        <v>501605348</v>
       </c>
       <c r="BA76" s="11">
-        <v>501605348</v>
+        <v>542094270</v>
       </c>
       <c r="BB76" s="11">
-        <v>542094270</v>
+        <v>547154611</v>
       </c>
     </row>
     <row r="77" spans="2:54" x14ac:dyDescent="0.3">
@@ -9565,77 +9565,77 @@
       <c r="AD78" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE78" s="11" t="s">
-        <v>58</v>
+      <c r="AE78" s="11">
+        <v>240860577</v>
       </c>
       <c r="AF78" s="11">
-        <v>240860577</v>
+        <v>272181250</v>
       </c>
       <c r="AG78" s="11">
-        <v>272181250</v>
+        <v>194163291</v>
       </c>
       <c r="AH78" s="11">
-        <v>194163291</v>
+        <v>223367284</v>
       </c>
       <c r="AI78" s="11">
-        <v>223367284</v>
+        <v>154286089</v>
       </c>
       <c r="AJ78" s="11">
-        <v>154286089</v>
+        <v>204588137</v>
       </c>
       <c r="AK78" s="11">
-        <v>204588137</v>
+        <v>254342025</v>
       </c>
       <c r="AL78" s="11">
-        <v>254342025</v>
+        <v>260137931</v>
       </c>
       <c r="AM78" s="11">
-        <v>260137931</v>
+        <v>260867424</v>
       </c>
       <c r="AN78" s="11">
-        <v>260867424</v>
+        <v>221860197</v>
       </c>
       <c r="AO78" s="11">
-        <v>221860197</v>
+        <v>149346734</v>
       </c>
       <c r="AP78" s="11">
-        <v>149346734</v>
+        <v>125745314</v>
       </c>
       <c r="AQ78" s="11">
-        <v>125745314</v>
+        <v>277234086</v>
       </c>
       <c r="AR78" s="11">
-        <v>277234086</v>
+        <v>293397260</v>
       </c>
       <c r="AS78" s="11">
-        <v>293397260</v>
+        <v>243955992</v>
       </c>
       <c r="AT78" s="11">
-        <v>243955992</v>
+        <v>284551495</v>
       </c>
       <c r="AU78" s="11">
-        <v>284551495</v>
+        <v>286203390</v>
       </c>
       <c r="AV78" s="11">
-        <v>286203390</v>
+        <v>203284768</v>
       </c>
       <c r="AW78" s="11">
-        <v>203284768</v>
+        <v>268288998</v>
       </c>
       <c r="AX78" s="11">
-        <v>268288998</v>
+        <v>324761905</v>
       </c>
       <c r="AY78" s="11">
-        <v>324761905</v>
+        <v>131238208</v>
       </c>
       <c r="AZ78" s="11">
-        <v>131238208</v>
+        <v>135839552</v>
       </c>
       <c r="BA78" s="11">
-        <v>135839552</v>
+        <v>17304738</v>
       </c>
       <c r="BB78" s="11">
-        <v>88968266</v>
+        <v>62437789</v>
       </c>
     </row>
     <row r="79" spans="2:54" x14ac:dyDescent="0.3">
@@ -9724,77 +9724,77 @@
       <c r="AD79" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE79" s="13" t="s">
-        <v>58</v>
+      <c r="AE79" s="13">
+        <v>50642487</v>
       </c>
       <c r="AF79" s="13">
-        <v>50642487</v>
+        <v>49980930</v>
       </c>
       <c r="AG79" s="13">
-        <v>49980930</v>
+        <v>57324012</v>
       </c>
       <c r="AH79" s="13">
-        <v>57324012</v>
+        <v>58365979</v>
       </c>
       <c r="AI79" s="13">
-        <v>58365979</v>
+        <v>57032967</v>
       </c>
       <c r="AJ79" s="13">
-        <v>57032967</v>
+        <v>62145926</v>
       </c>
       <c r="AK79" s="13">
-        <v>62145926</v>
+        <v>65768077</v>
       </c>
       <c r="AL79" s="13">
-        <v>65768077</v>
+        <v>68960033</v>
       </c>
       <c r="AM79" s="13">
-        <v>68960033</v>
+        <v>64857302</v>
       </c>
       <c r="AN79" s="13">
-        <v>64857302</v>
+        <v>66810127</v>
       </c>
       <c r="AO79" s="13">
-        <v>66810127</v>
+        <v>70891419</v>
       </c>
       <c r="AP79" s="13">
-        <v>70891419</v>
+        <v>71946270</v>
       </c>
       <c r="AQ79" s="13">
-        <v>71946270</v>
+        <v>84467836</v>
       </c>
       <c r="AR79" s="13">
-        <v>84467836</v>
+        <v>68055906</v>
       </c>
       <c r="AS79" s="13">
-        <v>68055906</v>
+        <v>63964270</v>
       </c>
       <c r="AT79" s="13">
-        <v>63964270</v>
+        <v>68719751</v>
       </c>
       <c r="AU79" s="13">
-        <v>68719751</v>
+        <v>4621733</v>
       </c>
       <c r="AV79" s="13">
-        <v>52092334</v>
+        <v>91116745</v>
       </c>
       <c r="AW79" s="13">
-        <v>91116745</v>
+        <v>49961380</v>
       </c>
       <c r="AX79" s="13">
-        <v>84950640</v>
+        <v>83339026</v>
       </c>
       <c r="AY79" s="13">
-        <v>83339026</v>
+        <v>81695125</v>
       </c>
       <c r="AZ79" s="13">
-        <v>81695125</v>
+        <v>89004841</v>
       </c>
       <c r="BA79" s="13">
-        <v>89004841</v>
+        <v>77555641</v>
       </c>
       <c r="BB79" s="13">
-        <v>176282609</v>
+        <v>390224236</v>
       </c>
     </row>
     <row r="80" spans="2:54" x14ac:dyDescent="0.3">
@@ -9889,71 +9889,71 @@
       <c r="AF80" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AG80" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH80" s="11">
+      <c r="AG80" s="11">
         <v>175478261</v>
       </c>
+      <c r="AH80" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AI80" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ80" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK80" s="11">
+      <c r="AJ80" s="11">
         <v>237777778</v>
       </c>
-      <c r="AL80" s="11" t="s">
-        <v>58</v>
+      <c r="AK80" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL80" s="11">
+        <v>219040541</v>
       </c>
       <c r="AM80" s="11">
-        <v>219040541</v>
+        <v>347689655</v>
       </c>
       <c r="AN80" s="11">
-        <v>347689655</v>
+        <v>260384615</v>
       </c>
       <c r="AO80" s="11">
-        <v>260384615</v>
+        <v>257812030</v>
       </c>
       <c r="AP80" s="11">
-        <v>257812030</v>
-      </c>
-      <c r="AQ80" s="11">
         <v>320625767</v>
       </c>
-      <c r="AR80" s="11" t="s">
-        <v>58</v>
+      <c r="AQ80" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR80" s="11">
+        <v>341133333</v>
       </c>
       <c r="AS80" s="11">
-        <v>341133333</v>
+        <v>321350000</v>
       </c>
       <c r="AT80" s="11">
-        <v>321350000</v>
+        <v>308877778</v>
       </c>
       <c r="AU80" s="11">
-        <v>308877778</v>
+        <v>286923077</v>
       </c>
       <c r="AV80" s="11">
-        <v>286923077</v>
+        <v>421995614</v>
       </c>
       <c r="AW80" s="11">
-        <v>421995614</v>
+        <v>471577500</v>
       </c>
       <c r="AX80" s="11">
-        <v>471577500</v>
+        <v>401218905</v>
       </c>
       <c r="AY80" s="11">
-        <v>401218905</v>
+        <v>363166667</v>
       </c>
       <c r="AZ80" s="11">
-        <v>363166667</v>
+        <v>469200000</v>
       </c>
       <c r="BA80" s="11">
-        <v>469200000</v>
+        <v>419687500</v>
       </c>
       <c r="BB80" s="11">
-        <v>419687500</v>
+        <v>443157895</v>
       </c>
     </row>
     <row r="81" spans="2:54" x14ac:dyDescent="0.3">
@@ -10099,77 +10099,77 @@
       <c r="AD82" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE82" s="11" t="s">
-        <v>58</v>
+      <c r="AE82" s="11">
+        <v>19229917</v>
       </c>
       <c r="AF82" s="11">
-        <v>19229917</v>
+        <v>19369397</v>
       </c>
       <c r="AG82" s="11">
-        <v>19369397</v>
+        <v>28586124</v>
       </c>
       <c r="AH82" s="11">
-        <v>28586124</v>
+        <v>24773810</v>
       </c>
       <c r="AI82" s="11">
-        <v>24773810</v>
+        <v>25828457</v>
       </c>
       <c r="AJ82" s="11">
-        <v>25828457</v>
+        <v>25354430</v>
       </c>
       <c r="AK82" s="11">
-        <v>25354430</v>
+        <v>27411471</v>
       </c>
       <c r="AL82" s="11">
-        <v>27411471</v>
+        <v>25974155</v>
       </c>
       <c r="AM82" s="11">
-        <v>25974155</v>
+        <v>26509565</v>
       </c>
       <c r="AN82" s="11">
-        <v>26509565</v>
+        <v>27136364</v>
       </c>
       <c r="AO82" s="11">
-        <v>27136364</v>
+        <v>26504854</v>
       </c>
       <c r="AP82" s="11">
-        <v>26504854</v>
+        <v>26504425</v>
       </c>
       <c r="AQ82" s="11">
-        <v>26504425</v>
+        <v>27436673</v>
       </c>
       <c r="AR82" s="11">
-        <v>27436673</v>
+        <v>34588608</v>
       </c>
       <c r="AS82" s="11">
-        <v>34588608</v>
+        <v>34402516</v>
       </c>
       <c r="AT82" s="11">
-        <v>34402516</v>
+        <v>34679487</v>
       </c>
       <c r="AU82" s="11">
-        <v>34679487</v>
+        <v>34551402</v>
       </c>
       <c r="AV82" s="11">
-        <v>34551402</v>
+        <v>34491150</v>
       </c>
       <c r="AW82" s="11">
-        <v>34491150</v>
+        <v>34655738</v>
       </c>
       <c r="AX82" s="11">
-        <v>34655738</v>
+        <v>34724359</v>
       </c>
       <c r="AY82" s="11">
-        <v>34724359</v>
+        <v>34548077</v>
       </c>
       <c r="AZ82" s="11">
-        <v>34548077</v>
+        <v>34512821</v>
       </c>
       <c r="BA82" s="11">
-        <v>34512821</v>
+        <v>34474747</v>
       </c>
       <c r="BB82" s="11">
-        <v>34474747</v>
+        <v>215541667</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/shoyande/shepaksa/product/monthly_seprated.xlsx
+++ b/database/industries/shoyande/shepaksa/product/monthly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\shoyande\shepaksa\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\shoyande\shepaksa\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F13EBDB-74C8-4577-B8C1-1FBFB78158FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51FDA7A6-ECA7-4FEA-898C-CF400B19CD5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="87">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 11 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 12 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 1 منتهی به 1397/10</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 12 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 1 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 2 منتهی به 1401/11</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -763,12 +763,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -823,7 +823,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -880,7 +880,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -937,7 +937,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -992,7 +992,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1049,7 +1049,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1106,7 +1106,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1161,7 +1161,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1373,7 +1373,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>55</v>
       </c>
@@ -1430,7 +1430,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>56</v>
       </c>
@@ -1510,86 +1510,86 @@
       <c r="AB11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD11" s="11" t="s">
-        <v>58</v>
+      <c r="AC11" s="11">
+        <v>1324</v>
+      </c>
+      <c r="AD11" s="11">
+        <v>2059</v>
       </c>
       <c r="AE11" s="11">
-        <v>1324</v>
+        <v>1818</v>
       </c>
       <c r="AF11" s="11">
-        <v>2059</v>
+        <v>1390</v>
       </c>
       <c r="AG11" s="11">
-        <v>1818</v>
+        <v>1496</v>
       </c>
       <c r="AH11" s="11">
-        <v>1390</v>
+        <v>2416</v>
       </c>
       <c r="AI11" s="11">
-        <v>1496</v>
+        <v>2046</v>
       </c>
       <c r="AJ11" s="11">
-        <v>2416</v>
+        <v>1935</v>
       </c>
       <c r="AK11" s="11">
-        <v>2046</v>
+        <v>2030</v>
       </c>
       <c r="AL11" s="11">
-        <v>1935</v>
+        <v>2525</v>
       </c>
       <c r="AM11" s="11">
-        <v>2030</v>
+        <v>3829</v>
       </c>
       <c r="AN11" s="11">
-        <v>2525</v>
+        <v>4690</v>
       </c>
       <c r="AO11" s="11">
-        <v>3829</v>
+        <v>350</v>
       </c>
       <c r="AP11" s="11">
-        <v>4690</v>
+        <v>564</v>
       </c>
       <c r="AQ11" s="11">
-        <v>350</v>
+        <v>1330</v>
       </c>
       <c r="AR11" s="11">
-        <v>564</v>
+        <v>1074</v>
       </c>
       <c r="AS11" s="11">
-        <v>1330</v>
+        <v>1165</v>
       </c>
       <c r="AT11" s="11">
-        <v>1074</v>
+        <v>722</v>
       </c>
       <c r="AU11" s="11">
-        <v>1165</v>
+        <v>793</v>
       </c>
       <c r="AV11" s="11">
-        <v>722</v>
+        <v>1897</v>
       </c>
       <c r="AW11" s="11">
-        <v>793</v>
+        <v>969</v>
       </c>
       <c r="AX11" s="11">
-        <v>1897</v>
+        <v>794</v>
       </c>
       <c r="AY11" s="11">
-        <v>969</v>
+        <v>2520</v>
       </c>
       <c r="AZ11" s="11">
-        <v>794</v>
+        <v>978</v>
       </c>
       <c r="BA11" s="11">
-        <v>1706</v>
+        <v>731</v>
       </c>
       <c r="BB11" s="11">
-        <v>978</v>
+        <v>988</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>59</v>
       </c>
@@ -1669,86 +1669,86 @@
       <c r="AB12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD12" s="13" t="s">
-        <v>58</v>
+      <c r="AC12" s="13">
+        <v>3171</v>
+      </c>
+      <c r="AD12" s="13">
+        <v>1807</v>
       </c>
       <c r="AE12" s="13">
-        <v>3171</v>
+        <v>3891</v>
       </c>
       <c r="AF12" s="13">
-        <v>1807</v>
+        <v>2500</v>
       </c>
       <c r="AG12" s="13">
-        <v>3891</v>
+        <v>2240</v>
       </c>
       <c r="AH12" s="13">
-        <v>2500</v>
+        <v>953</v>
       </c>
       <c r="AI12" s="13">
-        <v>2240</v>
+        <v>5806</v>
       </c>
       <c r="AJ12" s="13">
-        <v>953</v>
+        <v>3417</v>
       </c>
       <c r="AK12" s="13">
-        <v>5806</v>
+        <v>4765</v>
       </c>
       <c r="AL12" s="13">
-        <v>3417</v>
+        <v>5343</v>
       </c>
       <c r="AM12" s="13">
-        <v>4765</v>
+        <v>4864</v>
       </c>
       <c r="AN12" s="13">
-        <v>5343</v>
+        <v>5793</v>
       </c>
       <c r="AO12" s="13">
-        <v>4864</v>
+        <v>1518</v>
       </c>
       <c r="AP12" s="13">
-        <v>5793</v>
+        <v>949</v>
       </c>
       <c r="AQ12" s="13">
-        <v>1518</v>
+        <v>2964</v>
       </c>
       <c r="AR12" s="13">
-        <v>949</v>
+        <v>1361</v>
       </c>
       <c r="AS12" s="13">
-        <v>2964</v>
+        <v>2161</v>
       </c>
       <c r="AT12" s="13">
-        <v>1361</v>
+        <v>2324</v>
       </c>
       <c r="AU12" s="13">
-        <v>2161</v>
+        <v>1381</v>
       </c>
       <c r="AV12" s="13">
-        <v>2324</v>
+        <v>1722</v>
       </c>
       <c r="AW12" s="13">
-        <v>1381</v>
+        <v>3334</v>
       </c>
       <c r="AX12" s="13">
-        <v>1722</v>
+        <v>2308</v>
       </c>
       <c r="AY12" s="13">
-        <v>3334</v>
+        <v>1708</v>
       </c>
       <c r="AZ12" s="13">
-        <v>2308</v>
+        <v>2839</v>
       </c>
       <c r="BA12" s="13">
-        <v>2521</v>
+        <v>2108</v>
       </c>
       <c r="BB12" s="13">
-        <v>2839</v>
+        <v>2464</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>60</v>
       </c>
@@ -1828,86 +1828,86 @@
       <c r="AB13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD13" s="11" t="s">
-        <v>58</v>
+      <c r="AC13" s="11">
+        <v>2136</v>
+      </c>
+      <c r="AD13" s="11">
+        <v>2369</v>
       </c>
       <c r="AE13" s="11">
-        <v>2136</v>
+        <v>1960</v>
       </c>
       <c r="AF13" s="11">
-        <v>2369</v>
+        <v>1436</v>
       </c>
       <c r="AG13" s="11">
-        <v>1960</v>
+        <v>1462</v>
       </c>
       <c r="AH13" s="11">
-        <v>1436</v>
+        <v>1577</v>
       </c>
       <c r="AI13" s="11">
-        <v>1462</v>
+        <v>2373</v>
       </c>
       <c r="AJ13" s="11">
-        <v>1577</v>
+        <v>1691</v>
       </c>
       <c r="AK13" s="11">
-        <v>2373</v>
+        <v>2480</v>
       </c>
       <c r="AL13" s="11">
-        <v>1691</v>
+        <v>2456</v>
       </c>
       <c r="AM13" s="11">
-        <v>2480</v>
+        <v>2796</v>
       </c>
       <c r="AN13" s="11">
-        <v>2456</v>
+        <v>3044</v>
       </c>
       <c r="AO13" s="11">
-        <v>2796</v>
+        <v>798</v>
       </c>
       <c r="AP13" s="11">
-        <v>3044</v>
+        <v>1082</v>
       </c>
       <c r="AQ13" s="11">
-        <v>798</v>
+        <v>1610</v>
       </c>
       <c r="AR13" s="11">
-        <v>1082</v>
+        <v>1122</v>
       </c>
       <c r="AS13" s="11">
-        <v>1610</v>
+        <v>904</v>
       </c>
       <c r="AT13" s="11">
-        <v>1122</v>
+        <v>1727</v>
       </c>
       <c r="AU13" s="11">
-        <v>904</v>
+        <v>2075</v>
       </c>
       <c r="AV13" s="11">
-        <v>1727</v>
+        <v>1300</v>
       </c>
       <c r="AW13" s="11">
-        <v>2075</v>
+        <v>851</v>
       </c>
       <c r="AX13" s="11">
-        <v>1300</v>
+        <v>874</v>
       </c>
       <c r="AY13" s="11">
-        <v>851</v>
+        <v>2328</v>
       </c>
       <c r="AZ13" s="11">
-        <v>874</v>
+        <v>2193</v>
       </c>
       <c r="BA13" s="11">
-        <v>2328</v>
+        <v>872</v>
       </c>
       <c r="BB13" s="11">
-        <v>2193</v>
+        <v>1255</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
         <v>61</v>
       </c>
@@ -1986,85 +1986,85 @@
         <v>0</v>
       </c>
       <c r="AC14" s="15">
-        <v>0</v>
+        <v>6631</v>
       </c>
       <c r="AD14" s="15">
-        <v>0</v>
+        <v>6235</v>
       </c>
       <c r="AE14" s="15">
-        <v>6631</v>
+        <v>7669</v>
       </c>
       <c r="AF14" s="15">
-        <v>6235</v>
+        <v>5326</v>
       </c>
       <c r="AG14" s="15">
-        <v>7669</v>
+        <v>5198</v>
       </c>
       <c r="AH14" s="15">
-        <v>5326</v>
+        <v>4946</v>
       </c>
       <c r="AI14" s="15">
-        <v>5198</v>
+        <v>10225</v>
       </c>
       <c r="AJ14" s="15">
-        <v>4946</v>
+        <v>7043</v>
       </c>
       <c r="AK14" s="15">
-        <v>10225</v>
+        <v>9275</v>
       </c>
       <c r="AL14" s="15">
-        <v>7043</v>
+        <v>10324</v>
       </c>
       <c r="AM14" s="15">
-        <v>9275</v>
+        <v>11489</v>
       </c>
       <c r="AN14" s="15">
-        <v>10324</v>
+        <v>13527</v>
       </c>
       <c r="AO14" s="15">
-        <v>11489</v>
+        <v>2666</v>
       </c>
       <c r="AP14" s="15">
-        <v>13527</v>
+        <v>2595</v>
       </c>
       <c r="AQ14" s="15">
-        <v>2666</v>
+        <v>5904</v>
       </c>
       <c r="AR14" s="15">
-        <v>2595</v>
+        <v>3557</v>
       </c>
       <c r="AS14" s="15">
-        <v>5904</v>
+        <v>4230</v>
       </c>
       <c r="AT14" s="15">
-        <v>3557</v>
+        <v>4773</v>
       </c>
       <c r="AU14" s="15">
-        <v>4230</v>
+        <v>4249</v>
       </c>
       <c r="AV14" s="15">
-        <v>4773</v>
+        <v>4919</v>
       </c>
       <c r="AW14" s="15">
-        <v>4249</v>
+        <v>5154</v>
       </c>
       <c r="AX14" s="15">
-        <v>4919</v>
+        <v>3976</v>
       </c>
       <c r="AY14" s="15">
-        <v>5154</v>
+        <v>6556</v>
       </c>
       <c r="AZ14" s="15">
-        <v>3976</v>
+        <v>6010</v>
       </c>
       <c r="BA14" s="15">
-        <v>6555</v>
+        <v>3711</v>
       </c>
       <c r="BB14" s="15">
-        <v>6010</v>
+        <v>4707</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
         <v>62</v>
       </c>
@@ -2121,7 +2121,7 @@
       <c r="BA15" s="9"/>
       <c r="BB15" s="9"/>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>56</v>
       </c>
@@ -2201,86 +2201,86 @@
       <c r="AB16" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC16" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD16" s="11" t="s">
-        <v>58</v>
+      <c r="AC16" s="11">
+        <v>263</v>
+      </c>
+      <c r="AD16" s="11">
+        <v>501</v>
       </c>
       <c r="AE16" s="11">
-        <v>263</v>
+        <v>731</v>
       </c>
       <c r="AF16" s="11">
-        <v>501</v>
+        <v>432</v>
       </c>
       <c r="AG16" s="11">
-        <v>731</v>
+        <v>664</v>
       </c>
       <c r="AH16" s="11">
-        <v>432</v>
+        <v>1119</v>
       </c>
       <c r="AI16" s="11">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="AJ16" s="11">
-        <v>1119</v>
+        <v>406</v>
       </c>
       <c r="AK16" s="11">
-        <v>671</v>
+        <v>1126</v>
       </c>
       <c r="AL16" s="11">
-        <v>406</v>
+        <v>559</v>
       </c>
       <c r="AM16" s="11">
-        <v>1126</v>
+        <v>296</v>
       </c>
       <c r="AN16" s="11">
-        <v>559</v>
+        <v>933</v>
       </c>
       <c r="AO16" s="11">
-        <v>296</v>
+        <v>445</v>
       </c>
       <c r="AP16" s="11">
-        <v>933</v>
+        <v>802</v>
       </c>
       <c r="AQ16" s="11">
+        <v>1349</v>
+      </c>
+      <c r="AR16" s="11">
+        <v>382</v>
+      </c>
+      <c r="AS16" s="11">
         <v>445</v>
       </c>
-      <c r="AR16" s="11">
-        <v>802</v>
-      </c>
-      <c r="AS16" s="11">
-        <v>1349</v>
-      </c>
       <c r="AT16" s="11">
-        <v>382</v>
+        <v>492</v>
       </c>
       <c r="AU16" s="11">
-        <v>445</v>
+        <v>531</v>
       </c>
       <c r="AV16" s="11">
-        <v>492</v>
+        <v>628</v>
       </c>
       <c r="AW16" s="11">
-        <v>531</v>
+        <v>450</v>
       </c>
       <c r="AX16" s="11">
-        <v>628</v>
+        <v>307</v>
       </c>
       <c r="AY16" s="11">
-        <v>450</v>
+        <v>3280</v>
       </c>
       <c r="AZ16" s="11">
-        <v>307</v>
+        <v>407</v>
       </c>
       <c r="BA16" s="11">
-        <v>448</v>
+        <v>181</v>
       </c>
       <c r="BB16" s="11">
-        <v>407</v>
+        <v>616</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
         <v>59</v>
       </c>
@@ -2360,86 +2360,86 @@
       <c r="AB17" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC17" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD17" s="13" t="s">
-        <v>58</v>
+      <c r="AC17" s="13">
+        <v>1552</v>
+      </c>
+      <c r="AD17" s="13">
+        <v>2935</v>
       </c>
       <c r="AE17" s="13">
-        <v>1552</v>
+        <v>1955</v>
       </c>
       <c r="AF17" s="13">
-        <v>2935</v>
+        <v>1113</v>
       </c>
       <c r="AG17" s="13">
-        <v>1955</v>
+        <v>1977</v>
       </c>
       <c r="AH17" s="13">
-        <v>1113</v>
+        <v>4279</v>
       </c>
       <c r="AI17" s="13">
-        <v>1977</v>
+        <v>943</v>
       </c>
       <c r="AJ17" s="13">
-        <v>4279</v>
+        <v>1845</v>
       </c>
       <c r="AK17" s="13">
-        <v>943</v>
+        <v>2023</v>
       </c>
       <c r="AL17" s="13">
-        <v>1845</v>
+        <v>843</v>
       </c>
       <c r="AM17" s="13">
-        <v>2023</v>
+        <v>2601</v>
       </c>
       <c r="AN17" s="13">
-        <v>843</v>
+        <v>1792</v>
       </c>
       <c r="AO17" s="13">
-        <v>2601</v>
+        <v>659</v>
       </c>
       <c r="AP17" s="13">
-        <v>1792</v>
+        <v>1561</v>
       </c>
       <c r="AQ17" s="13">
-        <v>659</v>
+        <v>2926</v>
       </c>
       <c r="AR17" s="13">
-        <v>1561</v>
+        <v>1941</v>
       </c>
       <c r="AS17" s="13">
-        <v>2926</v>
+        <v>1870</v>
       </c>
       <c r="AT17" s="13">
-        <v>1941</v>
+        <v>3377</v>
       </c>
       <c r="AU17" s="13">
-        <v>1870</v>
+        <v>5412</v>
       </c>
       <c r="AV17" s="13">
-        <v>3377</v>
+        <v>5247</v>
       </c>
       <c r="AW17" s="13">
-        <v>5412</v>
+        <v>3035</v>
       </c>
       <c r="AX17" s="13">
-        <v>5247</v>
+        <v>3493</v>
       </c>
       <c r="AY17" s="13">
-        <v>3035</v>
+        <v>449</v>
       </c>
       <c r="AZ17" s="13">
-        <v>3493</v>
+        <v>2274</v>
       </c>
       <c r="BA17" s="13">
-        <v>3281</v>
+        <v>582</v>
       </c>
       <c r="BB17" s="13">
-        <v>2274</v>
+        <v>2302</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
         <v>60</v>
       </c>
@@ -2519,11 +2519,11 @@
       <c r="AB18" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC18" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD18" s="11" t="s">
-        <v>58</v>
+      <c r="AC18" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="11">
+        <v>0</v>
       </c>
       <c r="AE18" s="11">
         <v>0</v>
@@ -2538,67 +2538,67 @@
         <v>0</v>
       </c>
       <c r="AI18" s="11">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="AJ18" s="11">
         <v>0</v>
       </c>
       <c r="AK18" s="11">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="AL18" s="11">
         <v>0</v>
       </c>
       <c r="AM18" s="11">
-        <v>25</v>
+        <v>168</v>
       </c>
       <c r="AN18" s="11">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AO18" s="11">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="AP18" s="11">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AQ18" s="11">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="AR18" s="11">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="AS18" s="11">
-        <v>147</v>
+        <v>407</v>
       </c>
       <c r="AT18" s="11">
-        <v>62</v>
+        <v>151</v>
       </c>
       <c r="AU18" s="11">
-        <v>407</v>
+        <v>357</v>
       </c>
       <c r="AV18" s="11">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="AW18" s="11">
-        <v>357</v>
+        <v>0</v>
       </c>
       <c r="AX18" s="11">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="11">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="AZ18" s="11">
         <v>0</v>
       </c>
       <c r="BA18" s="11">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="BB18" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
         <v>63</v>
       </c>
@@ -2677,85 +2677,85 @@
         <v>0</v>
       </c>
       <c r="AC19" s="15">
-        <v>0</v>
+        <v>1815</v>
       </c>
       <c r="AD19" s="15">
-        <v>0</v>
+        <v>3436</v>
       </c>
       <c r="AE19" s="15">
-        <v>1815</v>
+        <v>2686</v>
       </c>
       <c r="AF19" s="15">
-        <v>3436</v>
+        <v>1545</v>
       </c>
       <c r="AG19" s="15">
-        <v>2686</v>
+        <v>2641</v>
       </c>
       <c r="AH19" s="15">
-        <v>1545</v>
+        <v>5398</v>
       </c>
       <c r="AI19" s="15">
-        <v>2641</v>
+        <v>1745</v>
       </c>
       <c r="AJ19" s="15">
-        <v>5398</v>
+        <v>2251</v>
       </c>
       <c r="AK19" s="15">
-        <v>1745</v>
+        <v>3174</v>
       </c>
       <c r="AL19" s="15">
-        <v>2251</v>
+        <v>1402</v>
       </c>
       <c r="AM19" s="15">
-        <v>3174</v>
+        <v>3065</v>
       </c>
       <c r="AN19" s="15">
-        <v>1402</v>
+        <v>2747</v>
       </c>
       <c r="AO19" s="15">
-        <v>3065</v>
+        <v>1104</v>
       </c>
       <c r="AP19" s="15">
-        <v>2747</v>
+        <v>2363</v>
       </c>
       <c r="AQ19" s="15">
-        <v>1104</v>
+        <v>4422</v>
       </c>
       <c r="AR19" s="15">
-        <v>2363</v>
+        <v>2385</v>
       </c>
       <c r="AS19" s="15">
-        <v>4422</v>
+        <v>2722</v>
       </c>
       <c r="AT19" s="15">
-        <v>2385</v>
+        <v>4020</v>
       </c>
       <c r="AU19" s="15">
-        <v>2722</v>
+        <v>6300</v>
       </c>
       <c r="AV19" s="15">
-        <v>4020</v>
+        <v>6018</v>
       </c>
       <c r="AW19" s="15">
-        <v>6300</v>
+        <v>3485</v>
       </c>
       <c r="AX19" s="15">
-        <v>6018</v>
+        <v>3800</v>
       </c>
       <c r="AY19" s="15">
-        <v>3485</v>
+        <v>3831</v>
       </c>
       <c r="AZ19" s="15">
-        <v>3800</v>
+        <v>2681</v>
       </c>
       <c r="BA19" s="15">
-        <v>3831</v>
+        <v>763</v>
       </c>
       <c r="BB19" s="15">
-        <v>2681</v>
+        <v>2918</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
         <v>64</v>
       </c>
@@ -2812,7 +2812,7 @@
       <c r="BA20" s="9"/>
       <c r="BB20" s="9"/>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>56</v>
       </c>
@@ -2892,86 +2892,86 @@
       <c r="AB21" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC21" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD21" s="11" t="s">
-        <v>58</v>
+      <c r="AC21" s="11">
+        <v>723</v>
+      </c>
+      <c r="AD21" s="11">
+        <v>647</v>
       </c>
       <c r="AE21" s="11">
-        <v>723</v>
+        <v>836</v>
       </c>
       <c r="AF21" s="11">
-        <v>647</v>
+        <v>252</v>
       </c>
       <c r="AG21" s="11">
-        <v>836</v>
+        <v>752</v>
       </c>
       <c r="AH21" s="11">
-        <v>252</v>
+        <v>563</v>
       </c>
       <c r="AI21" s="11">
-        <v>752</v>
+        <v>482</v>
       </c>
       <c r="AJ21" s="11">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="AK21" s="11">
-        <v>482</v>
+        <v>575</v>
       </c>
       <c r="AL21" s="11">
-        <v>556</v>
+        <v>420</v>
       </c>
       <c r="AM21" s="11">
-        <v>575</v>
+        <v>160</v>
       </c>
       <c r="AN21" s="11">
-        <v>420</v>
+        <v>636</v>
       </c>
       <c r="AO21" s="11">
-        <v>160</v>
+        <v>529</v>
       </c>
       <c r="AP21" s="11">
-        <v>636</v>
+        <v>159</v>
       </c>
       <c r="AQ21" s="11">
-        <v>529</v>
+        <v>159</v>
       </c>
       <c r="AR21" s="11">
-        <v>159</v>
+        <v>77</v>
       </c>
       <c r="AS21" s="11">
-        <v>159</v>
+        <v>214</v>
       </c>
       <c r="AT21" s="11">
-        <v>77</v>
+        <v>226</v>
       </c>
       <c r="AU21" s="11">
-        <v>214</v>
+        <v>244</v>
       </c>
       <c r="AV21" s="11">
-        <v>226</v>
+        <v>156</v>
       </c>
       <c r="AW21" s="11">
-        <v>244</v>
+        <v>208</v>
       </c>
       <c r="AX21" s="11">
-        <v>156</v>
+        <v>273</v>
       </c>
       <c r="AY21" s="11">
-        <v>208</v>
+        <v>297</v>
       </c>
       <c r="AZ21" s="11">
-        <v>273</v>
+        <v>216</v>
       </c>
       <c r="BA21" s="11">
-        <v>297</v>
+        <v>373</v>
       </c>
       <c r="BB21" s="11">
-        <v>216</v>
+        <v>663</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
         <v>65</v>
       </c>
@@ -3049,11 +3049,11 @@
       <c r="AB22" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AC22" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD22" s="15" t="s">
-        <v>58</v>
+      <c r="AC22" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="15">
+        <v>0</v>
       </c>
       <c r="AE22" s="15">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="16" t="s">
         <v>66</v>
       </c>
@@ -3207,85 +3207,85 @@
         <v>0</v>
       </c>
       <c r="AC23" s="17">
-        <v>0</v>
+        <v>9169</v>
       </c>
       <c r="AD23" s="17">
-        <v>0</v>
+        <v>10318</v>
       </c>
       <c r="AE23" s="17">
-        <v>9169</v>
+        <v>11191</v>
       </c>
       <c r="AF23" s="17">
-        <v>10318</v>
+        <v>7123</v>
       </c>
       <c r="AG23" s="17">
-        <v>11191</v>
+        <v>8591</v>
       </c>
       <c r="AH23" s="17">
-        <v>7123</v>
+        <v>10907</v>
       </c>
       <c r="AI23" s="17">
-        <v>8591</v>
+        <v>12452</v>
       </c>
       <c r="AJ23" s="17">
-        <v>10907</v>
+        <v>9850</v>
       </c>
       <c r="AK23" s="17">
-        <v>12452</v>
+        <v>13024</v>
       </c>
       <c r="AL23" s="17">
-        <v>9850</v>
+        <v>12146</v>
       </c>
       <c r="AM23" s="17">
-        <v>13024</v>
+        <v>14714</v>
       </c>
       <c r="AN23" s="17">
-        <v>12146</v>
+        <v>16910</v>
       </c>
       <c r="AO23" s="17">
-        <v>14714</v>
+        <v>4299</v>
       </c>
       <c r="AP23" s="17">
-        <v>16910</v>
+        <v>5117</v>
       </c>
       <c r="AQ23" s="17">
-        <v>4299</v>
+        <v>10485</v>
       </c>
       <c r="AR23" s="17">
-        <v>5117</v>
+        <v>6019</v>
       </c>
       <c r="AS23" s="17">
-        <v>10485</v>
+        <v>7166</v>
       </c>
       <c r="AT23" s="17">
-        <v>6019</v>
+        <v>9019</v>
       </c>
       <c r="AU23" s="17">
-        <v>7166</v>
+        <v>10793</v>
       </c>
       <c r="AV23" s="17">
-        <v>9019</v>
+        <v>11093</v>
       </c>
       <c r="AW23" s="17">
-        <v>10793</v>
+        <v>8847</v>
       </c>
       <c r="AX23" s="17">
-        <v>11093</v>
+        <v>8049</v>
       </c>
       <c r="AY23" s="17">
-        <v>8847</v>
+        <v>10684</v>
       </c>
       <c r="AZ23" s="17">
-        <v>8049</v>
+        <v>8907</v>
       </c>
       <c r="BA23" s="17">
-        <v>10683</v>
+        <v>4847</v>
       </c>
       <c r="BB23" s="17">
-        <v>8907</v>
+        <v>8288</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -3340,7 +3340,7 @@
       <c r="BA24" s="1"/>
       <c r="BB24" s="1"/>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -3395,7 +3395,7 @@
       <c r="BA25" s="1"/>
       <c r="BB25" s="1"/>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -3450,7 +3450,7 @@
       <c r="BA26" s="1"/>
       <c r="BB26" s="1"/>
     </row>
-    <row r="27" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
         <v>67</v>
       </c>
@@ -3607,7 +3607,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -3662,7 +3662,7 @@
       <c r="BA28" s="1"/>
       <c r="BB28" s="1"/>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
         <v>68</v>
       </c>
@@ -3719,7 +3719,7 @@
       <c r="BA29" s="9"/>
       <c r="BB29" s="9"/>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
         <v>56</v>
       </c>
@@ -3799,86 +3799,86 @@
       <c r="AB30" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC30" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD30" s="11" t="s">
-        <v>58</v>
+      <c r="AC30" s="11">
+        <v>1727</v>
+      </c>
+      <c r="AD30" s="11">
+        <v>2472</v>
       </c>
       <c r="AE30" s="11">
-        <v>1727</v>
+        <v>2251</v>
       </c>
       <c r="AF30" s="11">
-        <v>2472</v>
+        <v>1339</v>
       </c>
       <c r="AG30" s="11">
-        <v>2251</v>
+        <v>1656</v>
       </c>
       <c r="AH30" s="11">
-        <v>1339</v>
+        <v>2355</v>
       </c>
       <c r="AI30" s="11">
-        <v>1656</v>
+        <v>1908</v>
       </c>
       <c r="AJ30" s="11">
-        <v>2355</v>
+        <v>1810</v>
       </c>
       <c r="AK30" s="11">
-        <v>1908</v>
+        <v>2460</v>
       </c>
       <c r="AL30" s="11">
-        <v>1810</v>
+        <v>2601</v>
       </c>
       <c r="AM30" s="11">
-        <v>2460</v>
+        <v>3314</v>
       </c>
       <c r="AN30" s="11">
-        <v>2601</v>
+        <v>3344</v>
       </c>
       <c r="AO30" s="11">
-        <v>3314</v>
+        <v>593</v>
       </c>
       <c r="AP30" s="11">
-        <v>3344</v>
+        <v>1091</v>
       </c>
       <c r="AQ30" s="11">
-        <v>593</v>
+        <v>1822</v>
       </c>
       <c r="AR30" s="11">
-        <v>1091</v>
+        <v>1095</v>
       </c>
       <c r="AS30" s="11">
-        <v>1822</v>
+        <v>1177</v>
       </c>
       <c r="AT30" s="11">
-        <v>1095</v>
+        <v>538</v>
       </c>
       <c r="AU30" s="11">
-        <v>1177</v>
+        <v>840</v>
       </c>
       <c r="AV30" s="11">
-        <v>538</v>
+        <v>1992</v>
       </c>
       <c r="AW30" s="11">
-        <v>840</v>
+        <v>988</v>
       </c>
       <c r="AX30" s="11">
-        <v>1992</v>
+        <v>906</v>
       </c>
       <c r="AY30" s="11">
-        <v>988</v>
+        <v>2593</v>
       </c>
       <c r="AZ30" s="11">
-        <v>906</v>
+        <v>938</v>
       </c>
       <c r="BA30" s="11">
-        <v>1658</v>
+        <v>773</v>
       </c>
       <c r="BB30" s="11">
-        <v>938</v>
+        <v>1024</v>
       </c>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="12" t="s">
         <v>59</v>
       </c>
@@ -3958,86 +3958,86 @@
       <c r="AB31" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC31" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD31" s="13" t="s">
-        <v>58</v>
+      <c r="AC31" s="13">
+        <v>1386</v>
+      </c>
+      <c r="AD31" s="13">
+        <v>3294</v>
       </c>
       <c r="AE31" s="13">
-        <v>1386</v>
+        <v>4941</v>
       </c>
       <c r="AF31" s="13">
-        <v>3294</v>
+        <v>487</v>
       </c>
       <c r="AG31" s="13">
-        <v>4941</v>
+        <v>3581</v>
       </c>
       <c r="AH31" s="13">
-        <v>487</v>
+        <v>1491</v>
       </c>
       <c r="AI31" s="13">
-        <v>3581</v>
+        <v>3865</v>
       </c>
       <c r="AJ31" s="13">
-        <v>1491</v>
+        <v>4003</v>
       </c>
       <c r="AK31" s="13">
-        <v>3865</v>
+        <v>4739</v>
       </c>
       <c r="AL31" s="13">
-        <v>4003</v>
+        <v>5171</v>
       </c>
       <c r="AM31" s="13">
-        <v>4739</v>
+        <v>4823</v>
       </c>
       <c r="AN31" s="13">
-        <v>5171</v>
+        <v>5251</v>
       </c>
       <c r="AO31" s="13">
-        <v>4823</v>
+        <v>663</v>
       </c>
       <c r="AP31" s="13">
-        <v>5251</v>
+        <v>2187</v>
       </c>
       <c r="AQ31" s="13">
-        <v>663</v>
+        <v>2894</v>
       </c>
       <c r="AR31" s="13">
-        <v>2187</v>
+        <v>2125</v>
       </c>
       <c r="AS31" s="13">
-        <v>2894</v>
+        <v>3550</v>
       </c>
       <c r="AT31" s="13">
-        <v>2125</v>
+        <v>1556</v>
       </c>
       <c r="AU31" s="13">
-        <v>3550</v>
+        <v>1721</v>
       </c>
       <c r="AV31" s="13">
-        <v>1556</v>
+        <v>1703</v>
       </c>
       <c r="AW31" s="13">
-        <v>1721</v>
+        <v>2730</v>
       </c>
       <c r="AX31" s="13">
-        <v>1703</v>
+        <v>2886</v>
       </c>
       <c r="AY31" s="13">
-        <v>2730</v>
+        <v>1659</v>
       </c>
       <c r="AZ31" s="13">
-        <v>2886</v>
+        <v>2647</v>
       </c>
       <c r="BA31" s="13">
-        <v>2592</v>
+        <v>2292</v>
       </c>
       <c r="BB31" s="13">
-        <v>2647</v>
+        <v>2328</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
         <v>60</v>
       </c>
@@ -4117,86 +4117,86 @@
       <c r="AB32" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC32" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD32" s="11" t="s">
-        <v>58</v>
+      <c r="AC32" s="11">
+        <v>1292</v>
+      </c>
+      <c r="AD32" s="11">
+        <v>2194</v>
       </c>
       <c r="AE32" s="11">
-        <v>1292</v>
+        <v>2850</v>
       </c>
       <c r="AF32" s="11">
-        <v>2194</v>
+        <v>687</v>
       </c>
       <c r="AG32" s="11">
-        <v>2850</v>
+        <v>1496</v>
       </c>
       <c r="AH32" s="11">
-        <v>687</v>
+        <v>2043</v>
       </c>
       <c r="AI32" s="11">
-        <v>1496</v>
+        <v>2109</v>
       </c>
       <c r="AJ32" s="11">
-        <v>2043</v>
+        <v>1625</v>
       </c>
       <c r="AK32" s="11">
-        <v>2109</v>
+        <v>2766</v>
       </c>
       <c r="AL32" s="11">
-        <v>1625</v>
+        <v>2382</v>
       </c>
       <c r="AM32" s="11">
-        <v>2766</v>
+        <v>2626</v>
       </c>
       <c r="AN32" s="11">
-        <v>2382</v>
+        <v>2314</v>
       </c>
       <c r="AO32" s="11">
-        <v>2626</v>
+        <v>949</v>
       </c>
       <c r="AP32" s="11">
-        <v>2314</v>
+        <v>757</v>
       </c>
       <c r="AQ32" s="11">
-        <v>949</v>
+        <v>1747</v>
       </c>
       <c r="AR32" s="11">
-        <v>757</v>
+        <v>1036</v>
       </c>
       <c r="AS32" s="11">
-        <v>1747</v>
+        <v>1932</v>
       </c>
       <c r="AT32" s="11">
-        <v>1036</v>
+        <v>781</v>
       </c>
       <c r="AU32" s="11">
-        <v>1932</v>
+        <v>1982</v>
       </c>
       <c r="AV32" s="11">
-        <v>781</v>
+        <v>1551</v>
       </c>
       <c r="AW32" s="11">
-        <v>1982</v>
+        <v>808</v>
       </c>
       <c r="AX32" s="11">
-        <v>1551</v>
+        <v>1234</v>
       </c>
       <c r="AY32" s="11">
-        <v>808</v>
+        <v>2164</v>
       </c>
       <c r="AZ32" s="11">
-        <v>1234</v>
+        <v>1106</v>
       </c>
       <c r="BA32" s="11">
-        <v>2164</v>
+        <v>1352</v>
       </c>
       <c r="BB32" s="11">
-        <v>1106</v>
+        <v>1561</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="14" t="s">
         <v>69</v>
       </c>
@@ -4275,85 +4275,85 @@
         <v>0</v>
       </c>
       <c r="AC33" s="15">
-        <v>0</v>
+        <v>4405</v>
       </c>
       <c r="AD33" s="15">
-        <v>0</v>
+        <v>7960</v>
       </c>
       <c r="AE33" s="15">
-        <v>4405</v>
+        <v>10042</v>
       </c>
       <c r="AF33" s="15">
-        <v>7960</v>
+        <v>2513</v>
       </c>
       <c r="AG33" s="15">
-        <v>10042</v>
+        <v>6733</v>
       </c>
       <c r="AH33" s="15">
-        <v>2513</v>
+        <v>5889</v>
       </c>
       <c r="AI33" s="15">
-        <v>6733</v>
+        <v>7882</v>
       </c>
       <c r="AJ33" s="15">
-        <v>5889</v>
+        <v>7438</v>
       </c>
       <c r="AK33" s="15">
-        <v>7882</v>
+        <v>9965</v>
       </c>
       <c r="AL33" s="15">
-        <v>7438</v>
+        <v>10154</v>
       </c>
       <c r="AM33" s="15">
-        <v>9965</v>
+        <v>10763</v>
       </c>
       <c r="AN33" s="15">
-        <v>10154</v>
+        <v>10909</v>
       </c>
       <c r="AO33" s="15">
-        <v>10763</v>
+        <v>2205</v>
       </c>
       <c r="AP33" s="15">
-        <v>10909</v>
+        <v>4035</v>
       </c>
       <c r="AQ33" s="15">
-        <v>2205</v>
+        <v>6463</v>
       </c>
       <c r="AR33" s="15">
-        <v>4035</v>
+        <v>4256</v>
       </c>
       <c r="AS33" s="15">
-        <v>6463</v>
+        <v>6659</v>
       </c>
       <c r="AT33" s="15">
-        <v>4256</v>
+        <v>2875</v>
       </c>
       <c r="AU33" s="15">
-        <v>6659</v>
+        <v>4543</v>
       </c>
       <c r="AV33" s="15">
-        <v>2875</v>
+        <v>5246</v>
       </c>
       <c r="AW33" s="15">
-        <v>4543</v>
+        <v>4526</v>
       </c>
       <c r="AX33" s="15">
-        <v>5246</v>
+        <v>5026</v>
       </c>
       <c r="AY33" s="15">
-        <v>4526</v>
+        <v>6416</v>
       </c>
       <c r="AZ33" s="15">
-        <v>5026</v>
+        <v>4691</v>
       </c>
       <c r="BA33" s="15">
-        <v>6414</v>
+        <v>4417</v>
       </c>
       <c r="BB33" s="15">
-        <v>4691</v>
+        <v>4913</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
         <v>70</v>
       </c>
@@ -4410,7 +4410,7 @@
       <c r="BA34" s="9"/>
       <c r="BB34" s="9"/>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
         <v>56</v>
       </c>
@@ -4490,86 +4490,86 @@
       <c r="AB35" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC35" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD35" s="11" t="s">
-        <v>58</v>
+      <c r="AC35" s="11">
+        <v>208</v>
+      </c>
+      <c r="AD35" s="11">
+        <v>320</v>
       </c>
       <c r="AE35" s="11">
-        <v>208</v>
+        <v>790</v>
       </c>
       <c r="AF35" s="11">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AG35" s="11">
-        <v>790</v>
+        <v>762</v>
       </c>
       <c r="AH35" s="11">
-        <v>324</v>
+        <v>1197</v>
       </c>
       <c r="AI35" s="11">
-        <v>762</v>
+        <v>652</v>
       </c>
       <c r="AJ35" s="11">
-        <v>1197</v>
+        <v>493</v>
       </c>
       <c r="AK35" s="11">
-        <v>652</v>
+        <v>792</v>
       </c>
       <c r="AL35" s="11">
-        <v>493</v>
+        <v>608</v>
       </c>
       <c r="AM35" s="11">
-        <v>792</v>
+        <v>597</v>
       </c>
       <c r="AN35" s="11">
-        <v>608</v>
+        <v>907</v>
       </c>
       <c r="AO35" s="11">
-        <v>597</v>
+        <v>487</v>
       </c>
       <c r="AP35" s="11">
-        <v>907</v>
+        <v>657</v>
       </c>
       <c r="AQ35" s="11">
-        <v>487</v>
+        <v>1477</v>
       </c>
       <c r="AR35" s="11">
-        <v>657</v>
+        <v>301</v>
       </c>
       <c r="AS35" s="11">
-        <v>1477</v>
+        <v>531</v>
       </c>
       <c r="AT35" s="11">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AU35" s="11">
-        <v>531</v>
+        <v>609</v>
       </c>
       <c r="AV35" s="11">
-        <v>302</v>
+        <v>588</v>
       </c>
       <c r="AW35" s="11">
-        <v>609</v>
+        <v>424</v>
       </c>
       <c r="AX35" s="11">
-        <v>588</v>
+        <v>268</v>
       </c>
       <c r="AY35" s="11">
-        <v>424</v>
+        <v>2647</v>
       </c>
       <c r="AZ35" s="11">
-        <v>268</v>
+        <v>3456</v>
       </c>
       <c r="BA35" s="11">
-        <v>-2343</v>
+        <v>139</v>
       </c>
       <c r="BB35" s="11">
-        <v>3456</v>
+        <v>534</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
         <v>59</v>
       </c>
@@ -4649,86 +4649,86 @@
       <c r="AB36" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC36" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD36" s="13" t="s">
-        <v>58</v>
+      <c r="AC36" s="13">
+        <v>1158</v>
+      </c>
+      <c r="AD36" s="13">
+        <v>2150</v>
       </c>
       <c r="AE36" s="13">
-        <v>1158</v>
+        <v>2074</v>
       </c>
       <c r="AF36" s="13">
-        <v>2150</v>
+        <v>1164</v>
       </c>
       <c r="AG36" s="13">
-        <v>2074</v>
+        <v>2275</v>
       </c>
       <c r="AH36" s="13">
-        <v>1164</v>
+        <v>2933</v>
       </c>
       <c r="AI36" s="13">
-        <v>2275</v>
+        <v>1867</v>
       </c>
       <c r="AJ36" s="13">
-        <v>2933</v>
+        <v>1201</v>
       </c>
       <c r="AK36" s="13">
-        <v>1867</v>
+        <v>2698</v>
       </c>
       <c r="AL36" s="13">
-        <v>1201</v>
+        <v>1422</v>
       </c>
       <c r="AM36" s="13">
-        <v>2698</v>
+        <v>2284</v>
       </c>
       <c r="AN36" s="13">
-        <v>1422</v>
+        <v>2922</v>
       </c>
       <c r="AO36" s="13">
-        <v>2284</v>
+        <v>171</v>
       </c>
       <c r="AP36" s="13">
-        <v>2922</v>
+        <v>1270</v>
       </c>
       <c r="AQ36" s="13">
-        <v>171</v>
+        <v>2211</v>
       </c>
       <c r="AR36" s="13">
-        <v>1270</v>
+        <v>2248</v>
       </c>
       <c r="AS36" s="13">
-        <v>2211</v>
+        <v>2181</v>
       </c>
       <c r="AT36" s="13">
-        <v>2248</v>
+        <v>2998</v>
       </c>
       <c r="AU36" s="13">
-        <v>2181</v>
+        <v>4842</v>
       </c>
       <c r="AV36" s="13">
-        <v>2998</v>
+        <v>5153</v>
       </c>
       <c r="AW36" s="13">
-        <v>4842</v>
+        <v>4123</v>
       </c>
       <c r="AX36" s="13">
-        <v>5153</v>
+        <v>2892</v>
       </c>
       <c r="AY36" s="13">
-        <v>4123</v>
+        <v>230</v>
       </c>
       <c r="AZ36" s="13">
-        <v>2892</v>
+        <v>883</v>
       </c>
       <c r="BA36" s="13">
-        <v>5221</v>
+        <v>1669</v>
       </c>
       <c r="BB36" s="13">
-        <v>883</v>
+        <v>1712</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
         <v>60</v>
       </c>
@@ -4808,86 +4808,86 @@
       <c r="AB37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC37" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD37" s="11" t="s">
-        <v>58</v>
+      <c r="AC37" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="11">
+        <v>0</v>
       </c>
       <c r="AE37" s="11">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AF37" s="11">
         <v>0</v>
       </c>
       <c r="AG37" s="11">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AH37" s="11">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AI37" s="11">
         <v>0</v>
       </c>
       <c r="AJ37" s="11">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="AK37" s="11">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AL37" s="11">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="AM37" s="11">
-        <v>29</v>
+        <v>133</v>
       </c>
       <c r="AN37" s="11">
-        <v>52</v>
+        <v>163</v>
       </c>
       <c r="AO37" s="11">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="AP37" s="11">
-        <v>163</v>
+        <v>60</v>
       </c>
       <c r="AQ37" s="11">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AR37" s="11">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AS37" s="11">
-        <v>180</v>
+        <v>26</v>
       </c>
       <c r="AT37" s="11">
-        <v>90</v>
+        <v>228</v>
       </c>
       <c r="AU37" s="11">
-        <v>26</v>
+        <v>400</v>
       </c>
       <c r="AV37" s="11">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="AW37" s="11">
-        <v>400</v>
+        <v>42</v>
       </c>
       <c r="AX37" s="11">
-        <v>201</v>
+        <v>10</v>
       </c>
       <c r="AY37" s="11">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="AZ37" s="11">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="BA37" s="11">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="BB37" s="11">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="14" t="s">
         <v>71</v>
       </c>
@@ -4966,85 +4966,85 @@
         <v>0</v>
       </c>
       <c r="AC38" s="15">
-        <v>0</v>
+        <v>1366</v>
       </c>
       <c r="AD38" s="15">
-        <v>0</v>
+        <v>2470</v>
       </c>
       <c r="AE38" s="15">
-        <v>1366</v>
+        <v>2887</v>
       </c>
       <c r="AF38" s="15">
-        <v>2470</v>
+        <v>1488</v>
       </c>
       <c r="AG38" s="15">
-        <v>2887</v>
+        <v>3037</v>
       </c>
       <c r="AH38" s="15">
-        <v>1488</v>
+        <v>4148</v>
       </c>
       <c r="AI38" s="15">
-        <v>3037</v>
+        <v>2519</v>
       </c>
       <c r="AJ38" s="15">
-        <v>4148</v>
+        <v>1768</v>
       </c>
       <c r="AK38" s="15">
-        <v>2519</v>
+        <v>3519</v>
       </c>
       <c r="AL38" s="15">
-        <v>1768</v>
+        <v>2082</v>
       </c>
       <c r="AM38" s="15">
-        <v>3519</v>
+        <v>3014</v>
       </c>
       <c r="AN38" s="15">
-        <v>2082</v>
+        <v>3992</v>
       </c>
       <c r="AO38" s="15">
-        <v>3014</v>
+        <v>658</v>
       </c>
       <c r="AP38" s="15">
-        <v>3992</v>
+        <v>1987</v>
       </c>
       <c r="AQ38" s="15">
-        <v>658</v>
+        <v>3868</v>
       </c>
       <c r="AR38" s="15">
-        <v>1987</v>
+        <v>2639</v>
       </c>
       <c r="AS38" s="15">
-        <v>3868</v>
+        <v>2738</v>
       </c>
       <c r="AT38" s="15">
-        <v>2639</v>
+        <v>3528</v>
       </c>
       <c r="AU38" s="15">
-        <v>2738</v>
+        <v>5851</v>
       </c>
       <c r="AV38" s="15">
-        <v>3528</v>
+        <v>5942</v>
       </c>
       <c r="AW38" s="15">
-        <v>5851</v>
+        <v>4589</v>
       </c>
       <c r="AX38" s="15">
-        <v>5942</v>
+        <v>3170</v>
       </c>
       <c r="AY38" s="15">
-        <v>4589</v>
+        <v>2909</v>
       </c>
       <c r="AZ38" s="15">
-        <v>3170</v>
+        <v>4358</v>
       </c>
       <c r="BA38" s="15">
-        <v>2910</v>
+        <v>1809</v>
       </c>
       <c r="BB38" s="15">
-        <v>4358</v>
+        <v>2259</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
         <v>64</v>
       </c>
@@ -5101,7 +5101,7 @@
       <c r="BA39" s="9"/>
       <c r="BB39" s="9"/>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
         <v>56</v>
       </c>
@@ -5181,86 +5181,86 @@
       <c r="AB40" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC40" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD40" s="11" t="s">
-        <v>58</v>
+      <c r="AC40" s="11">
+        <v>722</v>
+      </c>
+      <c r="AD40" s="11">
+        <v>647</v>
       </c>
       <c r="AE40" s="11">
-        <v>722</v>
+        <v>836</v>
       </c>
       <c r="AF40" s="11">
-        <v>647</v>
+        <v>252</v>
       </c>
       <c r="AG40" s="11">
-        <v>836</v>
+        <v>752</v>
       </c>
       <c r="AH40" s="11">
-        <v>252</v>
+        <v>553</v>
       </c>
       <c r="AI40" s="11">
-        <v>752</v>
+        <v>401</v>
       </c>
       <c r="AJ40" s="11">
-        <v>553</v>
+        <v>503</v>
       </c>
       <c r="AK40" s="11">
-        <v>401</v>
+        <v>575</v>
       </c>
       <c r="AL40" s="11">
-        <v>503</v>
+        <v>352</v>
       </c>
       <c r="AM40" s="11">
-        <v>575</v>
+        <v>103</v>
       </c>
       <c r="AN40" s="11">
-        <v>352</v>
+        <v>904</v>
       </c>
       <c r="AO40" s="11">
-        <v>103</v>
+        <v>529</v>
       </c>
       <c r="AP40" s="11">
-        <v>904</v>
+        <v>158</v>
       </c>
       <c r="AQ40" s="11">
-        <v>529</v>
+        <v>159</v>
       </c>
       <c r="AR40" s="11">
-        <v>158</v>
+        <v>78</v>
       </c>
       <c r="AS40" s="11">
-        <v>159</v>
+        <v>214</v>
       </c>
       <c r="AT40" s="11">
-        <v>78</v>
+        <v>226</v>
       </c>
       <c r="AU40" s="11">
-        <v>214</v>
+        <v>244</v>
       </c>
       <c r="AV40" s="11">
-        <v>226</v>
+        <v>156</v>
       </c>
       <c r="AW40" s="11">
-        <v>244</v>
+        <v>208</v>
       </c>
       <c r="AX40" s="11">
-        <v>156</v>
+        <v>273</v>
       </c>
       <c r="AY40" s="11">
-        <v>208</v>
+        <v>297</v>
       </c>
       <c r="AZ40" s="11">
-        <v>273</v>
+        <v>216</v>
       </c>
       <c r="BA40" s="11">
-        <v>297</v>
+        <v>373</v>
       </c>
       <c r="BB40" s="11">
-        <v>216</v>
+        <v>663</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
         <v>65</v>
       </c>
@@ -5338,86 +5338,86 @@
       <c r="AB41" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AC41" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD41" s="15" t="s">
-        <v>58</v>
+      <c r="AC41" s="15">
+        <v>722</v>
+      </c>
+      <c r="AD41" s="15">
+        <v>647</v>
       </c>
       <c r="AE41" s="15">
-        <v>722</v>
+        <v>836</v>
       </c>
       <c r="AF41" s="15">
-        <v>647</v>
+        <v>252</v>
       </c>
       <c r="AG41" s="15">
-        <v>836</v>
+        <v>752</v>
       </c>
       <c r="AH41" s="15">
-        <v>252</v>
+        <v>553</v>
       </c>
       <c r="AI41" s="15">
-        <v>752</v>
+        <v>401</v>
       </c>
       <c r="AJ41" s="15">
-        <v>553</v>
+        <v>503</v>
       </c>
       <c r="AK41" s="15">
-        <v>401</v>
+        <v>575</v>
       </c>
       <c r="AL41" s="15">
-        <v>503</v>
+        <v>352</v>
       </c>
       <c r="AM41" s="15">
-        <v>575</v>
+        <v>103</v>
       </c>
       <c r="AN41" s="15">
-        <v>352</v>
+        <v>904</v>
       </c>
       <c r="AO41" s="15">
-        <v>103</v>
+        <v>529</v>
       </c>
       <c r="AP41" s="15">
-        <v>904</v>
+        <v>158</v>
       </c>
       <c r="AQ41" s="15">
-        <v>529</v>
+        <v>159</v>
       </c>
       <c r="AR41" s="15">
-        <v>158</v>
+        <v>78</v>
       </c>
       <c r="AS41" s="15">
-        <v>159</v>
+        <v>214</v>
       </c>
       <c r="AT41" s="15">
-        <v>78</v>
+        <v>226</v>
       </c>
       <c r="AU41" s="15">
-        <v>214</v>
+        <v>244</v>
       </c>
       <c r="AV41" s="15">
-        <v>226</v>
+        <v>156</v>
       </c>
       <c r="AW41" s="15">
-        <v>244</v>
+        <v>208</v>
       </c>
       <c r="AX41" s="15">
-        <v>156</v>
+        <v>273</v>
       </c>
       <c r="AY41" s="15">
-        <v>208</v>
+        <v>297</v>
       </c>
       <c r="AZ41" s="15">
-        <v>273</v>
+        <v>216</v>
       </c>
       <c r="BA41" s="15">
-        <v>297</v>
+        <v>373</v>
       </c>
       <c r="BB41" s="15">
-        <v>216</v>
+        <v>663</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="s">
         <v>72</v>
       </c>
@@ -5474,7 +5474,7 @@
       <c r="BA42" s="19"/>
       <c r="BB42" s="19"/>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="16" t="s">
         <v>73</v>
       </c>
@@ -5552,11 +5552,11 @@
       <c r="AB43" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="AC43" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD43" s="17" t="s">
-        <v>58</v>
+      <c r="AC43" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="17">
+        <v>0</v>
       </c>
       <c r="AE43" s="17">
         <v>0</v>
@@ -5631,7 +5631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="14" t="s">
         <v>66</v>
       </c>
@@ -5710,85 +5710,85 @@
         <v>0</v>
       </c>
       <c r="AC44" s="15">
-        <v>0</v>
+        <v>6493</v>
       </c>
       <c r="AD44" s="15">
-        <v>0</v>
+        <v>11077</v>
       </c>
       <c r="AE44" s="15">
-        <v>6493</v>
+        <v>13765</v>
       </c>
       <c r="AF44" s="15">
-        <v>11077</v>
+        <v>4253</v>
       </c>
       <c r="AG44" s="15">
-        <v>13765</v>
+        <v>10522</v>
       </c>
       <c r="AH44" s="15">
-        <v>4253</v>
+        <v>10590</v>
       </c>
       <c r="AI44" s="15">
-        <v>10522</v>
+        <v>10802</v>
       </c>
       <c r="AJ44" s="15">
-        <v>10590</v>
+        <v>9709</v>
       </c>
       <c r="AK44" s="15">
-        <v>10802</v>
+        <v>14059</v>
       </c>
       <c r="AL44" s="15">
-        <v>9709</v>
+        <v>12588</v>
       </c>
       <c r="AM44" s="15">
-        <v>14059</v>
+        <v>13880</v>
       </c>
       <c r="AN44" s="15">
-        <v>12588</v>
+        <v>15805</v>
       </c>
       <c r="AO44" s="15">
-        <v>13880</v>
+        <v>3392</v>
       </c>
       <c r="AP44" s="15">
-        <v>15805</v>
+        <v>6180</v>
       </c>
       <c r="AQ44" s="15">
-        <v>3392</v>
+        <v>10490</v>
       </c>
       <c r="AR44" s="15">
-        <v>6180</v>
+        <v>6973</v>
       </c>
       <c r="AS44" s="15">
-        <v>10490</v>
+        <v>9611</v>
       </c>
       <c r="AT44" s="15">
-        <v>6973</v>
+        <v>6629</v>
       </c>
       <c r="AU44" s="15">
-        <v>9611</v>
+        <v>10638</v>
       </c>
       <c r="AV44" s="15">
-        <v>6629</v>
+        <v>11344</v>
       </c>
       <c r="AW44" s="15">
-        <v>10638</v>
+        <v>9323</v>
       </c>
       <c r="AX44" s="15">
-        <v>11344</v>
+        <v>8469</v>
       </c>
       <c r="AY44" s="15">
-        <v>9323</v>
+        <v>9622</v>
       </c>
       <c r="AZ44" s="15">
-        <v>8469</v>
+        <v>9265</v>
       </c>
       <c r="BA44" s="15">
-        <v>9621</v>
+        <v>6599</v>
       </c>
       <c r="BB44" s="15">
-        <v>9265</v>
+        <v>7835</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -5843,7 +5843,7 @@
       <c r="BA45" s="1"/>
       <c r="BB45" s="1"/>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -5898,7 +5898,7 @@
       <c r="BA46" s="1"/>
       <c r="BB46" s="1"/>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -5953,7 +5953,7 @@
       <c r="BA47" s="1"/>
       <c r="BB47" s="1"/>
     </row>
-    <row r="48" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B48" s="7" t="s">
         <v>74</v>
       </c>
@@ -6110,7 +6110,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -6165,7 +6165,7 @@
       <c r="BA49" s="1"/>
       <c r="BB49" s="1"/>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
         <v>75</v>
       </c>
@@ -6222,7 +6222,7 @@
       <c r="BA50" s="9"/>
       <c r="BB50" s="9"/>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
         <v>56</v>
       </c>
@@ -6302,86 +6302,86 @@
       <c r="AB51" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC51" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD51" s="11" t="s">
-        <v>58</v>
+      <c r="AC51" s="11">
+        <v>426507</v>
+      </c>
+      <c r="AD51" s="11">
+        <v>563643</v>
       </c>
       <c r="AE51" s="11">
-        <v>426507</v>
+        <v>502592</v>
       </c>
       <c r="AF51" s="11">
-        <v>563643</v>
+        <v>341708</v>
       </c>
       <c r="AG51" s="11">
-        <v>502592</v>
+        <v>424014</v>
       </c>
       <c r="AH51" s="11">
-        <v>341708</v>
+        <v>609518</v>
       </c>
       <c r="AI51" s="11">
-        <v>424014</v>
+        <v>524669</v>
       </c>
       <c r="AJ51" s="11">
-        <v>609518</v>
+        <v>508142</v>
       </c>
       <c r="AK51" s="11">
-        <v>524669</v>
+        <v>726672</v>
       </c>
       <c r="AL51" s="11">
-        <v>508142</v>
+        <v>796612</v>
       </c>
       <c r="AM51" s="11">
-        <v>726672</v>
+        <v>1030432</v>
       </c>
       <c r="AN51" s="11">
-        <v>796612</v>
+        <v>978855</v>
       </c>
       <c r="AO51" s="11">
-        <v>1030432</v>
+        <v>179053</v>
       </c>
       <c r="AP51" s="11">
-        <v>978855</v>
+        <v>362784</v>
       </c>
       <c r="AQ51" s="11">
-        <v>179053</v>
+        <v>571523</v>
       </c>
       <c r="AR51" s="11">
-        <v>362784</v>
+        <v>379531</v>
       </c>
       <c r="AS51" s="11">
-        <v>571523</v>
+        <v>435023</v>
       </c>
       <c r="AT51" s="11">
-        <v>379531</v>
+        <v>277967</v>
       </c>
       <c r="AU51" s="11">
-        <v>435023</v>
+        <v>391824</v>
       </c>
       <c r="AV51" s="11">
-        <v>277967</v>
+        <v>879783</v>
       </c>
       <c r="AW51" s="11">
-        <v>391824</v>
+        <v>470894</v>
       </c>
       <c r="AX51" s="11">
-        <v>879783</v>
+        <v>398872</v>
       </c>
       <c r="AY51" s="11">
-        <v>470894</v>
+        <v>610408</v>
       </c>
       <c r="AZ51" s="11">
-        <v>398872</v>
+        <v>347896</v>
       </c>
       <c r="BA51" s="11">
-        <v>701868</v>
+        <v>263652</v>
       </c>
       <c r="BB51" s="11">
-        <v>347896</v>
+        <v>343455</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="12" t="s">
         <v>59</v>
       </c>
@@ -6461,86 +6461,86 @@
       <c r="AB52" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC52" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD52" s="13" t="s">
-        <v>58</v>
+      <c r="AC52" s="13">
+        <v>214049</v>
+      </c>
+      <c r="AD52" s="13">
+        <v>478020</v>
       </c>
       <c r="AE52" s="13">
-        <v>214049</v>
+        <v>723772</v>
       </c>
       <c r="AF52" s="13">
-        <v>478020</v>
+        <v>68513</v>
       </c>
       <c r="AG52" s="13">
-        <v>723772</v>
+        <v>527153</v>
       </c>
       <c r="AH52" s="13">
-        <v>68513</v>
+        <v>217512</v>
       </c>
       <c r="AI52" s="13">
-        <v>527153</v>
+        <v>716160</v>
       </c>
       <c r="AJ52" s="13">
-        <v>217512</v>
+        <v>715718</v>
       </c>
       <c r="AK52" s="13">
-        <v>716160</v>
+        <v>876179</v>
       </c>
       <c r="AL52" s="13">
-        <v>715718</v>
+        <v>931141</v>
       </c>
       <c r="AM52" s="13">
-        <v>876179</v>
+        <v>868792</v>
       </c>
       <c r="AN52" s="13">
-        <v>931141</v>
+        <v>899432</v>
       </c>
       <c r="AO52" s="13">
-        <v>868792</v>
+        <v>102005</v>
       </c>
       <c r="AP52" s="13">
-        <v>899432</v>
+        <v>405426</v>
       </c>
       <c r="AQ52" s="13">
-        <v>102005</v>
+        <v>549223</v>
       </c>
       <c r="AR52" s="13">
-        <v>405426</v>
+        <v>361734</v>
       </c>
       <c r="AS52" s="13">
-        <v>549223</v>
+        <v>594727</v>
       </c>
       <c r="AT52" s="13">
-        <v>361734</v>
+        <v>316991</v>
       </c>
       <c r="AU52" s="13">
-        <v>594727</v>
+        <v>428137</v>
       </c>
       <c r="AV52" s="13">
-        <v>316991</v>
+        <v>396907</v>
       </c>
       <c r="AW52" s="13">
-        <v>428137</v>
+        <v>606996</v>
       </c>
       <c r="AX52" s="13">
-        <v>396907</v>
+        <v>624171</v>
       </c>
       <c r="AY52" s="13">
-        <v>606996</v>
+        <v>701868</v>
       </c>
       <c r="AZ52" s="13">
-        <v>624171</v>
+        <v>565566</v>
       </c>
       <c r="BA52" s="13">
-        <v>440990</v>
+        <v>510481</v>
       </c>
       <c r="BB52" s="13">
-        <v>565566</v>
+        <v>513229</v>
       </c>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
         <v>60</v>
       </c>
@@ -6620,86 +6620,86 @@
       <c r="AB53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC53" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD53" s="11" t="s">
-        <v>58</v>
+      <c r="AC53" s="11">
+        <v>383315</v>
+      </c>
+      <c r="AD53" s="11">
+        <v>651915</v>
       </c>
       <c r="AE53" s="11">
-        <v>383315</v>
+        <v>851474</v>
       </c>
       <c r="AF53" s="11">
-        <v>651915</v>
+        <v>204053</v>
       </c>
       <c r="AG53" s="11">
-        <v>851474</v>
+        <v>450202</v>
       </c>
       <c r="AH53" s="11">
-        <v>204053</v>
+        <v>665146</v>
       </c>
       <c r="AI53" s="11">
-        <v>450202</v>
+        <v>780093</v>
       </c>
       <c r="AJ53" s="11">
-        <v>665146</v>
+        <v>597082</v>
       </c>
       <c r="AK53" s="11">
-        <v>780093</v>
+        <v>1026378</v>
       </c>
       <c r="AL53" s="11">
-        <v>597082</v>
+        <v>879144</v>
       </c>
       <c r="AM53" s="11">
-        <v>1026378</v>
+        <v>965464</v>
       </c>
       <c r="AN53" s="11">
-        <v>879144</v>
+        <v>843452</v>
       </c>
       <c r="AO53" s="11">
-        <v>965464</v>
+        <v>346199</v>
       </c>
       <c r="AP53" s="11">
-        <v>843452</v>
+        <v>280421</v>
       </c>
       <c r="AQ53" s="11">
-        <v>346199</v>
+        <v>655467</v>
       </c>
       <c r="AR53" s="11">
-        <v>280421</v>
+        <v>384906</v>
       </c>
       <c r="AS53" s="11">
-        <v>655467</v>
+        <v>716041</v>
       </c>
       <c r="AT53" s="11">
-        <v>384906</v>
+        <v>353484</v>
       </c>
       <c r="AU53" s="11">
-        <v>716041</v>
+        <v>899362</v>
       </c>
       <c r="AV53" s="11">
-        <v>353484</v>
+        <v>703266</v>
       </c>
       <c r="AW53" s="11">
-        <v>899362</v>
+        <v>373371</v>
       </c>
       <c r="AX53" s="11">
-        <v>703266</v>
+        <v>618981</v>
       </c>
       <c r="AY53" s="11">
-        <v>373371</v>
+        <v>1173092</v>
       </c>
       <c r="AZ53" s="11">
-        <v>618981</v>
+        <v>605153</v>
       </c>
       <c r="BA53" s="11">
-        <v>1173092</v>
+        <v>739935</v>
       </c>
       <c r="BB53" s="11">
-        <v>605153</v>
+        <v>822375</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="14" t="s">
         <v>69</v>
       </c>
@@ -6778,85 +6778,85 @@
         <v>0</v>
       </c>
       <c r="AC54" s="15">
-        <v>0</v>
+        <v>1023871</v>
       </c>
       <c r="AD54" s="15">
-        <v>0</v>
+        <v>1693578</v>
       </c>
       <c r="AE54" s="15">
-        <v>1023871</v>
+        <v>2077838</v>
       </c>
       <c r="AF54" s="15">
-        <v>1693578</v>
+        <v>614274</v>
       </c>
       <c r="AG54" s="15">
-        <v>2077838</v>
+        <v>1401369</v>
       </c>
       <c r="AH54" s="15">
-        <v>614274</v>
+        <v>1492176</v>
       </c>
       <c r="AI54" s="15">
-        <v>1401369</v>
+        <v>2020922</v>
       </c>
       <c r="AJ54" s="15">
-        <v>1492176</v>
+        <v>1820942</v>
       </c>
       <c r="AK54" s="15">
-        <v>2020922</v>
+        <v>2629229</v>
       </c>
       <c r="AL54" s="15">
-        <v>1820942</v>
+        <v>2606897</v>
       </c>
       <c r="AM54" s="15">
-        <v>2629229</v>
+        <v>2864688</v>
       </c>
       <c r="AN54" s="15">
-        <v>2606897</v>
+        <v>2721739</v>
       </c>
       <c r="AO54" s="15">
-        <v>2864688</v>
+        <v>627257</v>
       </c>
       <c r="AP54" s="15">
-        <v>2721739</v>
+        <v>1048631</v>
       </c>
       <c r="AQ54" s="15">
-        <v>627257</v>
+        <v>1776213</v>
       </c>
       <c r="AR54" s="15">
-        <v>1048631</v>
+        <v>1126171</v>
       </c>
       <c r="AS54" s="15">
-        <v>1776213</v>
+        <v>1745791</v>
       </c>
       <c r="AT54" s="15">
-        <v>1126171</v>
+        <v>948442</v>
       </c>
       <c r="AU54" s="15">
-        <v>1745791</v>
+        <v>1719323</v>
       </c>
       <c r="AV54" s="15">
-        <v>948442</v>
+        <v>1979956</v>
       </c>
       <c r="AW54" s="15">
-        <v>1719323</v>
+        <v>1451261</v>
       </c>
       <c r="AX54" s="15">
-        <v>1979956</v>
+        <v>1642024</v>
       </c>
       <c r="AY54" s="15">
-        <v>1451261</v>
+        <v>2485368</v>
       </c>
       <c r="AZ54" s="15">
-        <v>1642024</v>
+        <v>1518615</v>
       </c>
       <c r="BA54" s="15">
-        <v>2315950</v>
+        <v>1514068</v>
       </c>
       <c r="BB54" s="15">
-        <v>1518615</v>
+        <v>1679059</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
         <v>77</v>
       </c>
@@ -6913,7 +6913,7 @@
       <c r="BA55" s="9"/>
       <c r="BB55" s="9"/>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
         <v>56</v>
       </c>
@@ -6993,86 +6993,86 @@
       <c r="AB56" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC56" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD56" s="11" t="s">
-        <v>58</v>
+      <c r="AC56" s="11">
+        <v>50099</v>
+      </c>
+      <c r="AD56" s="11">
+        <v>87098</v>
       </c>
       <c r="AE56" s="11">
-        <v>50099</v>
+        <v>153389</v>
       </c>
       <c r="AF56" s="11">
-        <v>87098</v>
+        <v>72371</v>
       </c>
       <c r="AG56" s="11">
-        <v>153389</v>
+        <v>117566</v>
       </c>
       <c r="AH56" s="11">
-        <v>72371</v>
+        <v>244892</v>
       </c>
       <c r="AI56" s="11">
-        <v>117566</v>
+        <v>165831</v>
       </c>
       <c r="AJ56" s="11">
-        <v>244892</v>
+        <v>128248</v>
       </c>
       <c r="AK56" s="11">
-        <v>165831</v>
+        <v>206607</v>
       </c>
       <c r="AL56" s="11">
-        <v>128248</v>
+        <v>134891</v>
       </c>
       <c r="AM56" s="11">
-        <v>206607</v>
+        <v>89160</v>
       </c>
       <c r="AN56" s="11">
-        <v>134891</v>
+        <v>114051</v>
       </c>
       <c r="AO56" s="11">
-        <v>89160</v>
+        <v>135013</v>
       </c>
       <c r="AP56" s="11">
-        <v>114051</v>
+        <v>192762</v>
       </c>
       <c r="AQ56" s="11">
-        <v>135013</v>
+        <v>360323</v>
       </c>
       <c r="AR56" s="11">
-        <v>192762</v>
+        <v>85650</v>
       </c>
       <c r="AS56" s="11">
-        <v>360323</v>
+        <v>151974</v>
       </c>
       <c r="AT56" s="11">
-        <v>85650</v>
+        <v>61392</v>
       </c>
       <c r="AU56" s="11">
-        <v>151974</v>
+        <v>163388</v>
       </c>
       <c r="AV56" s="11">
-        <v>61392</v>
+        <v>190960</v>
       </c>
       <c r="AW56" s="11">
-        <v>163388</v>
+        <v>55645</v>
       </c>
       <c r="AX56" s="11">
-        <v>190960</v>
+        <v>36405</v>
       </c>
       <c r="AY56" s="11">
-        <v>55645</v>
+        <v>235499</v>
       </c>
       <c r="AZ56" s="11">
-        <v>36405</v>
+        <v>215785</v>
       </c>
       <c r="BA56" s="11">
-        <v>40545</v>
+        <v>35448</v>
       </c>
       <c r="BB56" s="11">
-        <v>215785</v>
+        <v>171999</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="12" t="s">
         <v>59</v>
       </c>
@@ -7152,86 +7152,86 @@
       <c r="AB57" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC57" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD57" s="13" t="s">
-        <v>58</v>
+      <c r="AC57" s="13">
+        <v>58644</v>
+      </c>
+      <c r="AD57" s="13">
+        <v>107459</v>
       </c>
       <c r="AE57" s="13">
-        <v>58644</v>
+        <v>118890</v>
       </c>
       <c r="AF57" s="13">
-        <v>107459</v>
+        <v>67938</v>
       </c>
       <c r="AG57" s="13">
-        <v>118890</v>
+        <v>129750</v>
       </c>
       <c r="AH57" s="13">
-        <v>67938</v>
+        <v>182274</v>
       </c>
       <c r="AI57" s="13">
-        <v>129750</v>
+        <v>122789</v>
       </c>
       <c r="AJ57" s="13">
-        <v>182274</v>
+        <v>82821</v>
       </c>
       <c r="AK57" s="13">
-        <v>122789</v>
+        <v>174985</v>
       </c>
       <c r="AL57" s="13">
-        <v>82821</v>
+        <v>95004</v>
       </c>
       <c r="AM57" s="13">
-        <v>174985</v>
+        <v>161916</v>
       </c>
       <c r="AN57" s="13">
-        <v>95004</v>
+        <v>210227</v>
       </c>
       <c r="AO57" s="13">
-        <v>161916</v>
+        <v>14444</v>
       </c>
       <c r="AP57" s="13">
-        <v>210227</v>
+        <v>86431</v>
       </c>
       <c r="AQ57" s="13">
-        <v>14444</v>
+        <v>141425</v>
       </c>
       <c r="AR57" s="13">
-        <v>86431</v>
+        <v>154482</v>
       </c>
       <c r="AS57" s="13">
-        <v>141425</v>
+        <v>159338</v>
       </c>
       <c r="AT57" s="13">
-        <v>154482</v>
+        <v>273168</v>
       </c>
       <c r="AU57" s="13">
-        <v>-10080</v>
+        <v>411331</v>
       </c>
       <c r="AV57" s="13">
-        <v>273168</v>
+        <v>429446</v>
       </c>
       <c r="AW57" s="13">
-        <v>241913</v>
+        <v>336829</v>
       </c>
       <c r="AX57" s="13">
-        <v>429446</v>
+        <v>257402</v>
       </c>
       <c r="AY57" s="13">
-        <v>336829</v>
+        <v>40545</v>
       </c>
       <c r="AZ57" s="13">
-        <v>257402</v>
+        <v>344568</v>
       </c>
       <c r="BA57" s="13">
-        <v>404918</v>
+        <v>177749</v>
       </c>
       <c r="BB57" s="13">
-        <v>344568</v>
+        <v>199660</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
         <v>60</v>
       </c>
@@ -7311,86 +7311,86 @@
       <c r="AB58" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC58" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD58" s="11" t="s">
-        <v>58</v>
+      <c r="AC58" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="11">
+        <v>0</v>
       </c>
       <c r="AE58" s="11">
-        <v>0</v>
+        <v>4036</v>
       </c>
       <c r="AF58" s="11">
         <v>0</v>
       </c>
       <c r="AG58" s="11">
-        <v>4036</v>
+        <v>0</v>
       </c>
       <c r="AH58" s="11">
-        <v>0</v>
+        <v>4280</v>
       </c>
       <c r="AI58" s="11">
         <v>0</v>
       </c>
       <c r="AJ58" s="11">
-        <v>4280</v>
+        <v>16209</v>
       </c>
       <c r="AK58" s="11">
-        <v>0</v>
+        <v>10083</v>
       </c>
       <c r="AL58" s="11">
-        <v>16209</v>
+        <v>13540</v>
       </c>
       <c r="AM58" s="11">
-        <v>10083</v>
+        <v>34289</v>
       </c>
       <c r="AN58" s="11">
-        <v>13540</v>
+        <v>52262</v>
       </c>
       <c r="AO58" s="11">
-        <v>34289</v>
+        <v>0</v>
       </c>
       <c r="AP58" s="11">
-        <v>52262</v>
+        <v>20468</v>
       </c>
       <c r="AQ58" s="11">
-        <v>0</v>
+        <v>57843</v>
       </c>
       <c r="AR58" s="11">
-        <v>20468</v>
+        <v>27799</v>
       </c>
       <c r="AS58" s="11">
-        <v>57843</v>
+        <v>7460</v>
       </c>
       <c r="AT58" s="11">
-        <v>27799</v>
+        <v>96215</v>
       </c>
       <c r="AU58" s="11">
-        <v>7460</v>
+        <v>188631</v>
       </c>
       <c r="AV58" s="11">
-        <v>96215</v>
+        <v>80645</v>
       </c>
       <c r="AW58" s="11">
-        <v>188631</v>
+        <v>15253</v>
       </c>
       <c r="AX58" s="11">
-        <v>80645</v>
+        <v>4692</v>
       </c>
       <c r="AY58" s="11">
-        <v>15253</v>
+        <v>13430</v>
       </c>
       <c r="AZ58" s="11">
-        <v>4692</v>
+        <v>8420</v>
       </c>
       <c r="BA58" s="11">
-        <v>13430</v>
+        <v>238</v>
       </c>
       <c r="BB58" s="11">
-        <v>8420</v>
+        <v>5728</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="14" t="s">
         <v>71</v>
       </c>
@@ -7469,85 +7469,85 @@
         <v>0</v>
       </c>
       <c r="AC59" s="15">
-        <v>0</v>
+        <v>108743</v>
       </c>
       <c r="AD59" s="15">
-        <v>0</v>
+        <v>194557</v>
       </c>
       <c r="AE59" s="15">
-        <v>108743</v>
+        <v>276315</v>
       </c>
       <c r="AF59" s="15">
-        <v>194557</v>
+        <v>140309</v>
       </c>
       <c r="AG59" s="15">
-        <v>276315</v>
+        <v>247316</v>
       </c>
       <c r="AH59" s="15">
-        <v>140309</v>
+        <v>431446</v>
       </c>
       <c r="AI59" s="15">
-        <v>247316</v>
+        <v>288620</v>
       </c>
       <c r="AJ59" s="15">
-        <v>431446</v>
+        <v>227278</v>
       </c>
       <c r="AK59" s="15">
-        <v>288620</v>
+        <v>391675</v>
       </c>
       <c r="AL59" s="15">
-        <v>227278</v>
+        <v>243435</v>
       </c>
       <c r="AM59" s="15">
-        <v>391675</v>
+        <v>285365</v>
       </c>
       <c r="AN59" s="15">
-        <v>243435</v>
+        <v>376540</v>
       </c>
       <c r="AO59" s="15">
-        <v>285365</v>
+        <v>149457</v>
       </c>
       <c r="AP59" s="15">
-        <v>376540</v>
+        <v>299661</v>
       </c>
       <c r="AQ59" s="15">
-        <v>149457</v>
+        <v>559591</v>
       </c>
       <c r="AR59" s="15">
-        <v>299661</v>
+        <v>267931</v>
       </c>
       <c r="AS59" s="15">
-        <v>559591</v>
+        <v>318772</v>
       </c>
       <c r="AT59" s="15">
-        <v>267931</v>
+        <v>430775</v>
       </c>
       <c r="AU59" s="15">
-        <v>149354</v>
+        <v>763350</v>
       </c>
       <c r="AV59" s="15">
-        <v>430775</v>
+        <v>701051</v>
       </c>
       <c r="AW59" s="15">
-        <v>593932</v>
+        <v>407727</v>
       </c>
       <c r="AX59" s="15">
-        <v>701051</v>
+        <v>298499</v>
       </c>
       <c r="AY59" s="15">
-        <v>407727</v>
+        <v>289474</v>
       </c>
       <c r="AZ59" s="15">
-        <v>298499</v>
+        <v>568773</v>
       </c>
       <c r="BA59" s="15">
-        <v>458893</v>
+        <v>213435</v>
       </c>
       <c r="BB59" s="15">
-        <v>568773</v>
+        <v>377387</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="8" t="s">
         <v>78</v>
       </c>
@@ -7604,7 +7604,7 @@
       <c r="BA60" s="9"/>
       <c r="BB60" s="9"/>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
         <v>56</v>
       </c>
@@ -7684,86 +7684,86 @@
       <c r="AB61" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC61" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD61" s="11" t="s">
-        <v>58</v>
+      <c r="AC61" s="11">
+        <v>13884</v>
+      </c>
+      <c r="AD61" s="11">
+        <v>12532</v>
       </c>
       <c r="AE61" s="11">
-        <v>13884</v>
+        <v>23898</v>
       </c>
       <c r="AF61" s="11">
-        <v>12532</v>
+        <v>6243</v>
       </c>
       <c r="AG61" s="11">
-        <v>23898</v>
+        <v>19423</v>
       </c>
       <c r="AH61" s="11">
-        <v>6243</v>
+        <v>14021</v>
       </c>
       <c r="AI61" s="11">
-        <v>19423</v>
+        <v>10992</v>
       </c>
       <c r="AJ61" s="11">
-        <v>14021</v>
+        <v>13065</v>
       </c>
       <c r="AK61" s="11">
-        <v>10992</v>
+        <v>15243</v>
       </c>
       <c r="AL61" s="11">
-        <v>13065</v>
+        <v>9552</v>
       </c>
       <c r="AM61" s="11">
-        <v>15243</v>
+        <v>2730</v>
       </c>
       <c r="AN61" s="11">
-        <v>9552</v>
+        <v>23960</v>
       </c>
       <c r="AO61" s="11">
-        <v>2730</v>
+        <v>14514</v>
       </c>
       <c r="AP61" s="11">
-        <v>23960</v>
+        <v>5465</v>
       </c>
       <c r="AQ61" s="11">
-        <v>14514</v>
+        <v>5470</v>
       </c>
       <c r="AR61" s="11">
-        <v>5465</v>
+        <v>2705</v>
       </c>
       <c r="AS61" s="11">
-        <v>5470</v>
+        <v>7394</v>
       </c>
       <c r="AT61" s="11">
-        <v>2705</v>
+        <v>7795</v>
       </c>
       <c r="AU61" s="11">
-        <v>7394</v>
+        <v>8456</v>
       </c>
       <c r="AV61" s="11">
-        <v>7795</v>
+        <v>5417</v>
       </c>
       <c r="AW61" s="11">
-        <v>8456</v>
+        <v>7186</v>
       </c>
       <c r="AX61" s="11">
-        <v>5417</v>
+        <v>9422</v>
       </c>
       <c r="AY61" s="11">
-        <v>7186</v>
+        <v>10239</v>
       </c>
       <c r="AZ61" s="11">
-        <v>9422</v>
+        <v>46557</v>
       </c>
       <c r="BA61" s="11">
-        <v>10239</v>
+        <v>20818</v>
       </c>
       <c r="BB61" s="11">
-        <v>46557</v>
+        <v>39732</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="14" t="s">
         <v>65</v>
       </c>
@@ -7843,86 +7843,86 @@
       <c r="AB62" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AC62" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD62" s="15" t="s">
-        <v>58</v>
+      <c r="AC62" s="15">
+        <v>13884</v>
+      </c>
+      <c r="AD62" s="15">
+        <v>12532</v>
       </c>
       <c r="AE62" s="15">
-        <v>13884</v>
+        <v>23898</v>
       </c>
       <c r="AF62" s="15">
-        <v>12532</v>
+        <v>6243</v>
       </c>
       <c r="AG62" s="15">
-        <v>23898</v>
+        <v>19423</v>
       </c>
       <c r="AH62" s="15">
-        <v>6243</v>
+        <v>14021</v>
       </c>
       <c r="AI62" s="15">
-        <v>19423</v>
+        <v>10992</v>
       </c>
       <c r="AJ62" s="15">
-        <v>14021</v>
+        <v>13065</v>
       </c>
       <c r="AK62" s="15">
-        <v>10992</v>
+        <v>15243</v>
       </c>
       <c r="AL62" s="15">
-        <v>13065</v>
+        <v>9552</v>
       </c>
       <c r="AM62" s="15">
-        <v>15243</v>
+        <v>2730</v>
       </c>
       <c r="AN62" s="15">
-        <v>9552</v>
+        <v>23960</v>
       </c>
       <c r="AO62" s="15">
-        <v>2730</v>
+        <v>14514</v>
       </c>
       <c r="AP62" s="15">
-        <v>23960</v>
+        <v>5465</v>
       </c>
       <c r="AQ62" s="15">
-        <v>14514</v>
+        <v>5470</v>
       </c>
       <c r="AR62" s="15">
-        <v>5465</v>
+        <v>2705</v>
       </c>
       <c r="AS62" s="15">
-        <v>5470</v>
+        <v>7394</v>
       </c>
       <c r="AT62" s="15">
-        <v>2705</v>
+        <v>7795</v>
       </c>
       <c r="AU62" s="15">
-        <v>7394</v>
+        <v>8456</v>
       </c>
       <c r="AV62" s="15">
-        <v>7795</v>
+        <v>5417</v>
       </c>
       <c r="AW62" s="15">
-        <v>8456</v>
+        <v>7186</v>
       </c>
       <c r="AX62" s="15">
-        <v>5417</v>
+        <v>9422</v>
       </c>
       <c r="AY62" s="15">
-        <v>7186</v>
+        <v>10239</v>
       </c>
       <c r="AZ62" s="15">
-        <v>9422</v>
+        <v>46557</v>
       </c>
       <c r="BA62" s="15">
-        <v>10239</v>
+        <v>20818</v>
       </c>
       <c r="BB62" s="15">
-        <v>46557</v>
+        <v>39732</v>
       </c>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="18" t="s">
         <v>79</v>
       </c>
@@ -7979,7 +7979,7 @@
       <c r="BA63" s="19"/>
       <c r="BB63" s="19"/>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="16" t="s">
         <v>73</v>
       </c>
@@ -8059,11 +8059,11 @@
       <c r="AB64" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="AC64" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD64" s="17" t="s">
-        <v>58</v>
+      <c r="AC64" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="17">
+        <v>0</v>
       </c>
       <c r="AE64" s="17">
         <v>0</v>
@@ -8138,7 +8138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="8" t="s">
         <v>80</v>
       </c>
@@ -8195,7 +8195,7 @@
       <c r="BA65" s="9"/>
       <c r="BB65" s="9"/>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
         <v>81</v>
       </c>
@@ -8275,86 +8275,86 @@
       <c r="AB66" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC66" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD66" s="11" t="s">
-        <v>58</v>
+      <c r="AC66" s="11">
+        <v>-31488</v>
+      </c>
+      <c r="AD66" s="11">
+        <v>-56009</v>
       </c>
       <c r="AE66" s="11">
-        <v>0</v>
+        <v>-82605</v>
       </c>
       <c r="AF66" s="11">
-        <v>0</v>
+        <v>-11564</v>
       </c>
       <c r="AG66" s="11">
-        <v>-170103</v>
+        <v>-54416</v>
       </c>
       <c r="AH66" s="11">
-        <v>-11564</v>
+        <v>-103909</v>
       </c>
       <c r="AI66" s="11">
-        <v>-54416</v>
+        <v>-235607</v>
       </c>
       <c r="AJ66" s="11">
-        <v>-103909</v>
+        <v>-161691</v>
       </c>
       <c r="AK66" s="11">
-        <v>-235607</v>
+        <v>-119088</v>
       </c>
       <c r="AL66" s="11">
-        <v>-161691</v>
+        <v>-115277</v>
       </c>
       <c r="AM66" s="11">
-        <v>-119088</v>
+        <v>-112079</v>
       </c>
       <c r="AN66" s="11">
-        <v>-115277</v>
+        <v>-204882</v>
       </c>
       <c r="AO66" s="11">
-        <v>-112079</v>
+        <v>-36995</v>
       </c>
       <c r="AP66" s="11">
-        <v>-204882</v>
+        <v>-45946</v>
       </c>
       <c r="AQ66" s="11">
-        <v>-36995</v>
+        <v>-46192</v>
       </c>
       <c r="AR66" s="11">
-        <v>-45946</v>
+        <v>-16286</v>
       </c>
       <c r="AS66" s="11">
-        <v>-46192</v>
+        <v>-37502</v>
       </c>
       <c r="AT66" s="11">
-        <v>-16286</v>
+        <v>-16386</v>
       </c>
       <c r="AU66" s="11">
-        <v>-37502</v>
+        <v>-40513</v>
       </c>
       <c r="AV66" s="11">
-        <v>-16386</v>
+        <v>-35307</v>
       </c>
       <c r="AW66" s="11">
-        <v>-40513</v>
+        <v>-28490</v>
       </c>
       <c r="AX66" s="11">
-        <v>-35307</v>
+        <v>-37223</v>
       </c>
       <c r="AY66" s="11">
-        <v>-28490</v>
+        <v>-53821</v>
       </c>
       <c r="AZ66" s="11">
-        <v>-37223</v>
+        <v>-325105</v>
       </c>
       <c r="BA66" s="11">
-        <v>-53821</v>
+        <v>-1213</v>
       </c>
       <c r="BB66" s="11">
-        <v>-25696</v>
+        <v>-25515</v>
       </c>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="14" t="s">
         <v>66</v>
       </c>
@@ -8433,85 +8433,85 @@
         <v>0</v>
       </c>
       <c r="AC67" s="15">
-        <v>0</v>
+        <v>1115010</v>
       </c>
       <c r="AD67" s="15">
-        <v>0</v>
+        <v>1844658</v>
       </c>
       <c r="AE67" s="15">
-        <v>1146498</v>
+        <v>2295446</v>
       </c>
       <c r="AF67" s="15">
-        <v>1900667</v>
+        <v>749262</v>
       </c>
       <c r="AG67" s="15">
-        <v>2207948</v>
+        <v>1613692</v>
       </c>
       <c r="AH67" s="15">
-        <v>749262</v>
+        <v>1833734</v>
       </c>
       <c r="AI67" s="15">
-        <v>1613692</v>
+        <v>2084927</v>
       </c>
       <c r="AJ67" s="15">
-        <v>1833734</v>
+        <v>1899594</v>
       </c>
       <c r="AK67" s="15">
-        <v>2084927</v>
+        <v>2917059</v>
       </c>
       <c r="AL67" s="15">
-        <v>1899594</v>
+        <v>2744607</v>
       </c>
       <c r="AM67" s="15">
-        <v>2917059</v>
+        <v>3040704</v>
       </c>
       <c r="AN67" s="15">
-        <v>2744607</v>
+        <v>2917357</v>
       </c>
       <c r="AO67" s="15">
-        <v>3040704</v>
+        <v>754233</v>
       </c>
       <c r="AP67" s="15">
-        <v>2917357</v>
+        <v>1307811</v>
       </c>
       <c r="AQ67" s="15">
-        <v>754233</v>
+        <v>2295082</v>
       </c>
       <c r="AR67" s="15">
-        <v>1307811</v>
+        <v>1380521</v>
       </c>
       <c r="AS67" s="15">
-        <v>2295082</v>
+        <v>2034455</v>
       </c>
       <c r="AT67" s="15">
-        <v>1380521</v>
+        <v>1370626</v>
       </c>
       <c r="AU67" s="15">
-        <v>1865037</v>
+        <v>2450616</v>
       </c>
       <c r="AV67" s="15">
-        <v>1370626</v>
+        <v>2651117</v>
       </c>
       <c r="AW67" s="15">
-        <v>2281198</v>
+        <v>1837684</v>
       </c>
       <c r="AX67" s="15">
-        <v>2651117</v>
+        <v>1912722</v>
       </c>
       <c r="AY67" s="15">
-        <v>1837684</v>
+        <v>2731260</v>
       </c>
       <c r="AZ67" s="15">
-        <v>1912722</v>
+        <v>1808840</v>
       </c>
       <c r="BA67" s="15">
-        <v>2731261</v>
+        <v>1747108</v>
       </c>
       <c r="BB67" s="15">
-        <v>2108249</v>
+        <v>2070663</v>
       </c>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -8566,7 +8566,7 @@
       <c r="BA68" s="1"/>
       <c r="BB68" s="1"/>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -8621,7 +8621,7 @@
       <c r="BA69" s="1"/>
       <c r="BB69" s="1"/>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -8676,7 +8676,7 @@
       <c r="BA70" s="1"/>
       <c r="BB70" s="1"/>
     </row>
-    <row r="71" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B71" s="7" t="s">
         <v>82</v>
       </c>
@@ -8833,7 +8833,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -8888,7 +8888,7 @@
       <c r="BA72" s="1"/>
       <c r="BB72" s="1"/>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B73" s="8" t="s">
         <v>83</v>
       </c>
@@ -8945,7 +8945,7 @@
       <c r="BA73" s="9"/>
       <c r="BB73" s="9"/>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B74" s="10" t="s">
         <v>56</v>
       </c>
@@ -9025,86 +9025,86 @@
       <c r="AB74" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC74" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD74" s="11" t="s">
-        <v>58</v>
+      <c r="AC74" s="11">
+        <v>246964100</v>
+      </c>
+      <c r="AD74" s="11">
+        <v>228010922</v>
       </c>
       <c r="AE74" s="11">
-        <v>246964100</v>
+        <v>223274989</v>
       </c>
       <c r="AF74" s="11">
-        <v>228010922</v>
+        <v>255196415</v>
       </c>
       <c r="AG74" s="11">
-        <v>223274989</v>
+        <v>256047101</v>
       </c>
       <c r="AH74" s="11">
-        <v>255196415</v>
+        <v>258818684</v>
       </c>
       <c r="AI74" s="11">
-        <v>256047101</v>
+        <v>274983753</v>
       </c>
       <c r="AJ74" s="11">
-        <v>258818684</v>
+        <v>280741436</v>
       </c>
       <c r="AK74" s="11">
-        <v>274983753</v>
+        <v>295395122</v>
       </c>
       <c r="AL74" s="11">
-        <v>280741436</v>
+        <v>306271434</v>
       </c>
       <c r="AM74" s="11">
-        <v>295395122</v>
+        <v>310933011</v>
       </c>
       <c r="AN74" s="11">
-        <v>306271434</v>
+        <v>292719797</v>
       </c>
       <c r="AO74" s="11">
-        <v>310933011</v>
+        <v>301944351</v>
       </c>
       <c r="AP74" s="11">
-        <v>292719797</v>
+        <v>332524290</v>
       </c>
       <c r="AQ74" s="11">
-        <v>301944351</v>
+        <v>313678924</v>
       </c>
       <c r="AR74" s="11">
-        <v>332524290</v>
+        <v>346603653</v>
       </c>
       <c r="AS74" s="11">
-        <v>313678924</v>
+        <v>369603229</v>
       </c>
       <c r="AT74" s="11">
-        <v>346603653</v>
+        <v>516667286</v>
       </c>
       <c r="AU74" s="11">
-        <v>369603229</v>
+        <v>466457143</v>
       </c>
       <c r="AV74" s="11">
-        <v>516667286</v>
+        <v>441658133</v>
       </c>
       <c r="AW74" s="11">
-        <v>466457143</v>
+        <v>476613360</v>
       </c>
       <c r="AX74" s="11">
-        <v>441658133</v>
+        <v>440256071</v>
       </c>
       <c r="AY74" s="11">
-        <v>476613360</v>
+        <v>235406093</v>
       </c>
       <c r="AZ74" s="11">
-        <v>440256071</v>
+        <v>370891258</v>
       </c>
       <c r="BA74" s="11">
-        <v>423322075</v>
+        <v>341076326</v>
       </c>
       <c r="BB74" s="11">
-        <v>370891258</v>
+        <v>335405273</v>
       </c>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B75" s="12" t="s">
         <v>59</v>
       </c>
@@ -9184,86 +9184,86 @@
       <c r="AB75" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC75" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD75" s="13" t="s">
-        <v>58</v>
+      <c r="AC75" s="13">
+        <v>154436508</v>
+      </c>
+      <c r="AD75" s="13">
+        <v>145118397</v>
       </c>
       <c r="AE75" s="13">
-        <v>154436508</v>
+        <v>146482898</v>
       </c>
       <c r="AF75" s="13">
-        <v>145118397</v>
+        <v>140683778</v>
       </c>
       <c r="AG75" s="13">
-        <v>146482898</v>
+        <v>147208322</v>
       </c>
       <c r="AH75" s="13">
-        <v>140683778</v>
+        <v>145883300</v>
       </c>
       <c r="AI75" s="13">
-        <v>147208322</v>
+        <v>185293661</v>
       </c>
       <c r="AJ75" s="13">
-        <v>145883300</v>
+        <v>178795403</v>
       </c>
       <c r="AK75" s="13">
-        <v>185293661</v>
+        <v>184886896</v>
       </c>
       <c r="AL75" s="13">
-        <v>178795403</v>
+        <v>180069812</v>
       </c>
       <c r="AM75" s="13">
-        <v>184886896</v>
+        <v>180135186</v>
       </c>
       <c r="AN75" s="13">
-        <v>180069812</v>
+        <v>171287755</v>
       </c>
       <c r="AO75" s="13">
-        <v>180135186</v>
+        <v>153853695</v>
       </c>
       <c r="AP75" s="13">
-        <v>171287755</v>
+        <v>185379973</v>
       </c>
       <c r="AQ75" s="13">
-        <v>153853695</v>
+        <v>189779889</v>
       </c>
       <c r="AR75" s="13">
-        <v>185379973</v>
+        <v>170227765</v>
       </c>
       <c r="AS75" s="13">
-        <v>189779889</v>
+        <v>167528732</v>
       </c>
       <c r="AT75" s="13">
-        <v>170227765</v>
+        <v>203721722</v>
       </c>
       <c r="AU75" s="13">
-        <v>167528732</v>
+        <v>248772225</v>
       </c>
       <c r="AV75" s="13">
-        <v>203721722</v>
+        <v>233063418</v>
       </c>
       <c r="AW75" s="13">
-        <v>248772225</v>
+        <v>222342857</v>
       </c>
       <c r="AX75" s="13">
-        <v>233063418</v>
+        <v>216275468</v>
       </c>
       <c r="AY75" s="13">
-        <v>222342857</v>
+        <v>423066908</v>
       </c>
       <c r="AZ75" s="13">
-        <v>216275468</v>
+        <v>213663015</v>
       </c>
       <c r="BA75" s="13">
-        <v>170135031</v>
+        <v>222722949</v>
       </c>
       <c r="BB75" s="13">
-        <v>213663015</v>
+        <v>220459192</v>
       </c>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B76" s="10" t="s">
         <v>60</v>
       </c>
@@ -9343,86 +9343,86 @@
       <c r="AB76" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC76" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD76" s="11" t="s">
-        <v>58</v>
+      <c r="AC76" s="11">
+        <v>296683437</v>
+      </c>
+      <c r="AD76" s="11">
+        <v>297135369</v>
       </c>
       <c r="AE76" s="11">
-        <v>296683437</v>
+        <v>298762807</v>
       </c>
       <c r="AF76" s="11">
-        <v>297135369</v>
+        <v>297020378</v>
       </c>
       <c r="AG76" s="11">
-        <v>298762807</v>
+        <v>300937166</v>
       </c>
       <c r="AH76" s="11">
-        <v>297020378</v>
+        <v>325573177</v>
       </c>
       <c r="AI76" s="11">
-        <v>300937166</v>
+        <v>369887624</v>
       </c>
       <c r="AJ76" s="11">
-        <v>325573177</v>
+        <v>367435077</v>
       </c>
       <c r="AK76" s="11">
-        <v>369887624</v>
+        <v>371069414</v>
       </c>
       <c r="AL76" s="11">
-        <v>367435077</v>
+        <v>369078086</v>
       </c>
       <c r="AM76" s="11">
-        <v>371069414</v>
+        <v>367655750</v>
       </c>
       <c r="AN76" s="11">
-        <v>369078086</v>
+        <v>364499568</v>
       </c>
       <c r="AO76" s="11">
-        <v>367655750</v>
+        <v>364804004</v>
       </c>
       <c r="AP76" s="11">
-        <v>364499568</v>
+        <v>370437252</v>
       </c>
       <c r="AQ76" s="11">
-        <v>364804004</v>
+        <v>375195764</v>
       </c>
       <c r="AR76" s="11">
-        <v>370437252</v>
+        <v>371530888</v>
       </c>
       <c r="AS76" s="11">
-        <v>375195764</v>
+        <v>370621636</v>
       </c>
       <c r="AT76" s="11">
-        <v>371530888</v>
+        <v>452604353</v>
       </c>
       <c r="AU76" s="11">
-        <v>370621636</v>
+        <v>453764884</v>
       </c>
       <c r="AV76" s="11">
-        <v>452604353</v>
+        <v>453427466</v>
       </c>
       <c r="AW76" s="11">
-        <v>453764884</v>
+        <v>462092822</v>
       </c>
       <c r="AX76" s="11">
-        <v>453427466</v>
+        <v>501605348</v>
       </c>
       <c r="AY76" s="11">
-        <v>462092822</v>
+        <v>542094270</v>
       </c>
       <c r="AZ76" s="11">
-        <v>501605348</v>
+        <v>547154611</v>
       </c>
       <c r="BA76" s="11">
-        <v>542094270</v>
+        <v>547289201</v>
       </c>
       <c r="BB76" s="11">
-        <v>547154611</v>
+        <v>526825753</v>
       </c>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B77" s="8" t="s">
         <v>85</v>
       </c>
@@ -9479,7 +9479,7 @@
       <c r="BA77" s="9"/>
       <c r="BB77" s="9"/>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B78" s="10" t="s">
         <v>56</v>
       </c>
@@ -9559,86 +9559,86 @@
       <c r="AB78" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC78" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD78" s="11" t="s">
-        <v>58</v>
+      <c r="AC78" s="11">
+        <v>240860577</v>
+      </c>
+      <c r="AD78" s="11">
+        <v>272181250</v>
       </c>
       <c r="AE78" s="11">
-        <v>240860577</v>
+        <v>194163291</v>
       </c>
       <c r="AF78" s="11">
-        <v>272181250</v>
+        <v>223367284</v>
       </c>
       <c r="AG78" s="11">
-        <v>194163291</v>
+        <v>154286089</v>
       </c>
       <c r="AH78" s="11">
-        <v>223367284</v>
+        <v>204588137</v>
       </c>
       <c r="AI78" s="11">
-        <v>154286089</v>
+        <v>254342025</v>
       </c>
       <c r="AJ78" s="11">
-        <v>204588137</v>
+        <v>260137931</v>
       </c>
       <c r="AK78" s="11">
-        <v>254342025</v>
+        <v>260867424</v>
       </c>
       <c r="AL78" s="11">
-        <v>260137931</v>
+        <v>221860197</v>
       </c>
       <c r="AM78" s="11">
-        <v>260867424</v>
+        <v>149346734</v>
       </c>
       <c r="AN78" s="11">
-        <v>221860197</v>
+        <v>125745314</v>
       </c>
       <c r="AO78" s="11">
-        <v>149346734</v>
+        <v>277234086</v>
       </c>
       <c r="AP78" s="11">
-        <v>125745314</v>
+        <v>293397260</v>
       </c>
       <c r="AQ78" s="11">
-        <v>277234086</v>
+        <v>243955992</v>
       </c>
       <c r="AR78" s="11">
-        <v>293397260</v>
+        <v>284551495</v>
       </c>
       <c r="AS78" s="11">
-        <v>243955992</v>
+        <v>286203390</v>
       </c>
       <c r="AT78" s="11">
-        <v>284551495</v>
+        <v>203284768</v>
       </c>
       <c r="AU78" s="11">
-        <v>286203390</v>
+        <v>268288998</v>
       </c>
       <c r="AV78" s="11">
-        <v>203284768</v>
+        <v>324761905</v>
       </c>
       <c r="AW78" s="11">
-        <v>268288998</v>
+        <v>131238208</v>
       </c>
       <c r="AX78" s="11">
-        <v>324761905</v>
+        <v>135839552</v>
       </c>
       <c r="AY78" s="11">
-        <v>131238208</v>
+        <v>88968266</v>
       </c>
       <c r="AZ78" s="11">
-        <v>135839552</v>
+        <v>62437789</v>
       </c>
       <c r="BA78" s="11">
-        <v>17304738</v>
+        <v>255021583</v>
       </c>
       <c r="BB78" s="11">
-        <v>62437789</v>
+        <v>322095506</v>
       </c>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B79" s="12" t="s">
         <v>59</v>
       </c>
@@ -9718,86 +9718,86 @@
       <c r="AB79" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC79" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD79" s="13" t="s">
-        <v>58</v>
+      <c r="AC79" s="13">
+        <v>50642487</v>
+      </c>
+      <c r="AD79" s="13">
+        <v>49980930</v>
       </c>
       <c r="AE79" s="13">
-        <v>50642487</v>
+        <v>57324012</v>
       </c>
       <c r="AF79" s="13">
-        <v>49980930</v>
+        <v>58365979</v>
       </c>
       <c r="AG79" s="13">
-        <v>57324012</v>
+        <v>57032967</v>
       </c>
       <c r="AH79" s="13">
-        <v>58365979</v>
+        <v>62145926</v>
       </c>
       <c r="AI79" s="13">
-        <v>57032967</v>
+        <v>65768077</v>
       </c>
       <c r="AJ79" s="13">
-        <v>62145926</v>
+        <v>68960033</v>
       </c>
       <c r="AK79" s="13">
-        <v>65768077</v>
+        <v>64857302</v>
       </c>
       <c r="AL79" s="13">
-        <v>68960033</v>
+        <v>66810127</v>
       </c>
       <c r="AM79" s="13">
-        <v>64857302</v>
+        <v>70891419</v>
       </c>
       <c r="AN79" s="13">
-        <v>66810127</v>
+        <v>71946270</v>
       </c>
       <c r="AO79" s="13">
-        <v>70891419</v>
+        <v>84467836</v>
       </c>
       <c r="AP79" s="13">
-        <v>71946270</v>
+        <v>68055906</v>
       </c>
       <c r="AQ79" s="13">
-        <v>84467836</v>
+        <v>63964270</v>
       </c>
       <c r="AR79" s="13">
-        <v>68055906</v>
+        <v>68719751</v>
       </c>
       <c r="AS79" s="13">
-        <v>63964270</v>
+        <v>73057313</v>
       </c>
       <c r="AT79" s="13">
-        <v>68719751</v>
+        <v>91116745</v>
       </c>
       <c r="AU79" s="13">
-        <v>4621733</v>
+        <v>84950640</v>
       </c>
       <c r="AV79" s="13">
-        <v>91116745</v>
+        <v>83339026</v>
       </c>
       <c r="AW79" s="13">
-        <v>49961380</v>
+        <v>81695125</v>
       </c>
       <c r="AX79" s="13">
-        <v>83339026</v>
+        <v>89004841</v>
       </c>
       <c r="AY79" s="13">
-        <v>81695125</v>
+        <v>176282609</v>
       </c>
       <c r="AZ79" s="13">
-        <v>89004841</v>
+        <v>390224236</v>
       </c>
       <c r="BA79" s="13">
-        <v>77555641</v>
+        <v>106500300</v>
       </c>
       <c r="BB79" s="13">
-        <v>390224236</v>
+        <v>116623832</v>
       </c>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B80" s="10" t="s">
         <v>60</v>
       </c>
@@ -9883,80 +9883,80 @@
       <c r="AD80" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE80" s="11" t="s">
-        <v>58</v>
+      <c r="AE80" s="11">
+        <v>175478261</v>
       </c>
       <c r="AF80" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AG80" s="11">
-        <v>175478261</v>
-      </c>
-      <c r="AH80" s="11" t="s">
-        <v>58</v>
+      <c r="AG80" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH80" s="11">
+        <v>237777778</v>
       </c>
       <c r="AI80" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AJ80" s="11">
-        <v>237777778</v>
-      </c>
-      <c r="AK80" s="11" t="s">
-        <v>58</v>
+        <v>219040541</v>
+      </c>
+      <c r="AK80" s="11">
+        <v>347689655</v>
       </c>
       <c r="AL80" s="11">
-        <v>219040541</v>
+        <v>260384615</v>
       </c>
       <c r="AM80" s="11">
-        <v>347689655</v>
+        <v>257812030</v>
       </c>
       <c r="AN80" s="11">
-        <v>260384615</v>
-      </c>
-      <c r="AO80" s="11">
-        <v>257812030</v>
+        <v>320625767</v>
+      </c>
+      <c r="AO80" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AP80" s="11">
-        <v>320625767</v>
-      </c>
-      <c r="AQ80" s="11" t="s">
-        <v>58</v>
+        <v>341133333</v>
+      </c>
+      <c r="AQ80" s="11">
+        <v>321350000</v>
       </c>
       <c r="AR80" s="11">
-        <v>341133333</v>
+        <v>308877778</v>
       </c>
       <c r="AS80" s="11">
-        <v>321350000</v>
+        <v>286923077</v>
       </c>
       <c r="AT80" s="11">
-        <v>308877778</v>
+        <v>421995614</v>
       </c>
       <c r="AU80" s="11">
-        <v>286923077</v>
+        <v>471577500</v>
       </c>
       <c r="AV80" s="11">
-        <v>421995614</v>
+        <v>401218905</v>
       </c>
       <c r="AW80" s="11">
-        <v>471577500</v>
+        <v>363166667</v>
       </c>
       <c r="AX80" s="11">
-        <v>401218905</v>
+        <v>469200000</v>
       </c>
       <c r="AY80" s="11">
-        <v>363166667</v>
+        <v>419687500</v>
       </c>
       <c r="AZ80" s="11">
-        <v>469200000</v>
+        <v>443157895</v>
       </c>
       <c r="BA80" s="11">
-        <v>419687500</v>
+        <v>476000000</v>
       </c>
       <c r="BB80" s="11">
-        <v>443157895</v>
+        <v>440615385</v>
       </c>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B81" s="8" t="s">
         <v>86</v>
       </c>
@@ -10013,7 +10013,7 @@
       <c r="BA81" s="9"/>
       <c r="BB81" s="9"/>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
         <v>56</v>
       </c>
@@ -10093,83 +10093,83 @@
       <c r="AB82" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC82" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD82" s="11" t="s">
-        <v>58</v>
+      <c r="AC82" s="11">
+        <v>19229917</v>
+      </c>
+      <c r="AD82" s="11">
+        <v>19369397</v>
       </c>
       <c r="AE82" s="11">
-        <v>19229917</v>
+        <v>28586124</v>
       </c>
       <c r="AF82" s="11">
-        <v>19369397</v>
+        <v>24773810</v>
       </c>
       <c r="AG82" s="11">
-        <v>28586124</v>
+        <v>25828457</v>
       </c>
       <c r="AH82" s="11">
-        <v>24773810</v>
+        <v>25354430</v>
       </c>
       <c r="AI82" s="11">
-        <v>25828457</v>
+        <v>27411471</v>
       </c>
       <c r="AJ82" s="11">
-        <v>25354430</v>
+        <v>25974155</v>
       </c>
       <c r="AK82" s="11">
-        <v>27411471</v>
+        <v>26509565</v>
       </c>
       <c r="AL82" s="11">
-        <v>25974155</v>
+        <v>27136364</v>
       </c>
       <c r="AM82" s="11">
-        <v>26509565</v>
+        <v>26504854</v>
       </c>
       <c r="AN82" s="11">
-        <v>27136364</v>
+        <v>26504425</v>
       </c>
       <c r="AO82" s="11">
-        <v>26504854</v>
+        <v>27436673</v>
       </c>
       <c r="AP82" s="11">
-        <v>26504425</v>
+        <v>34588608</v>
       </c>
       <c r="AQ82" s="11">
-        <v>27436673</v>
+        <v>34402516</v>
       </c>
       <c r="AR82" s="11">
-        <v>34588608</v>
+        <v>34679487</v>
       </c>
       <c r="AS82" s="11">
-        <v>34402516</v>
+        <v>34551402</v>
       </c>
       <c r="AT82" s="11">
-        <v>34679487</v>
+        <v>34491150</v>
       </c>
       <c r="AU82" s="11">
-        <v>34551402</v>
+        <v>34655738</v>
       </c>
       <c r="AV82" s="11">
-        <v>34491150</v>
+        <v>34724359</v>
       </c>
       <c r="AW82" s="11">
-        <v>34655738</v>
+        <v>34548077</v>
       </c>
       <c r="AX82" s="11">
-        <v>34724359</v>
+        <v>34512821</v>
       </c>
       <c r="AY82" s="11">
-        <v>34548077</v>
+        <v>34474747</v>
       </c>
       <c r="AZ82" s="11">
-        <v>34512821</v>
+        <v>215541667</v>
       </c>
       <c r="BA82" s="11">
-        <v>34474747</v>
+        <v>55812332</v>
       </c>
       <c r="BB82" s="11">
-        <v>215541667</v>
+        <v>59927602</v>
       </c>
     </row>
   </sheetData>
